--- a/file/E32 - Shop.xlsx
+++ b/file/E32 - Shop.xlsx
@@ -5,11 +5,10 @@
   <sheets>
     <sheet state="visible" name="Khách hàng" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Nhân viên" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Quản Lý" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Sản phẩm" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Nhà sản xuất" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Chi tiết hóa đơn" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Hóa đơn" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Sản phẩm" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Nhà sản xuất" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Chi tiết hóa đơn" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Hóa đơn" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,30 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>KHÁCH HÀNG</t>
   </si>
   <si>
-    <t>s_id_customer</t>
+    <t>id</t>
   </si>
   <si>
-    <t>s_name_customer</t>
+    <t>name</t>
   </si>
   <si>
-    <t>b_gender_customer</t>
+    <t>gender</t>
   </si>
   <si>
-    <t>s_gmail_customer</t>
+    <t>gmail</t>
   </si>
   <si>
-    <t>s_password_customer</t>
+    <t>password</t>
   </si>
   <si>
-    <t>s_phone_customer</t>
+    <t>phone</t>
   </si>
   <si>
-    <t>s_address_customer</t>
+    <t>address</t>
   </si>
   <si>
     <t>đăng kí</t>
@@ -49,112 +48,67 @@
     <t>NHÂN VIÊN</t>
   </si>
   <si>
-    <t>s_id_serve</t>
+    <t>identity</t>
   </si>
   <si>
-    <t>s_name_serve</t>
+    <t>level</t>
   </si>
   <si>
-    <t>b_gender_serve</t>
-  </si>
-  <si>
-    <t>s_phone_serve</t>
-  </si>
-  <si>
-    <t>s_identity_serve</t>
-  </si>
-  <si>
-    <t>s_address_serve</t>
-  </si>
-  <si>
-    <t>i_wage_serve</t>
+    <t>wage</t>
   </si>
   <si>
     <t>không đăng ký cho nhân viên</t>
   </si>
   <si>
-    <t>Quản lý(admin)</t>
-  </si>
-  <si>
-    <t>s_id_manage</t>
-  </si>
-  <si>
-    <t>s_name_manage</t>
-  </si>
-  <si>
-    <t>b_gender_manage</t>
-  </si>
-  <si>
-    <t>s_phone_manage</t>
-  </si>
-  <si>
-    <t>s_address_manage</t>
-  </si>
-  <si>
-    <t>i_wage_manage</t>
-  </si>
-  <si>
-    <t>không đăng ký cho quản lý</t>
-  </si>
-  <si>
     <t>Sản Phẩm</t>
   </si>
   <si>
-    <t>s_id_product</t>
+    <t>id_producer</t>
   </si>
   <si>
-    <t>s_id_producer</t>
+    <t>description</t>
   </si>
   <si>
-    <t>s_name_product</t>
+    <t>image</t>
   </si>
   <si>
-    <t>s_description_product</t>
+    <t>price</t>
   </si>
   <si>
-    <t>s_image_product</t>
+    <t>vote</t>
   </si>
   <si>
-    <t>i_price_product</t>
-  </si>
-  <si>
-    <t>f_vote_product</t>
-  </si>
-  <si>
-    <t>f_quantity_star_product</t>
+    <t>quantity</t>
   </si>
   <si>
     <t>nhà sản xuất</t>
   </si>
   <si>
-    <t>s_name_producer</t>
-  </si>
-  <si>
-    <t>s_phone_producer</t>
-  </si>
-  <si>
-    <t>i_address_producer</t>
-  </si>
-  <si>
     <t>CHI TIẾT HÓA ĐƠN</t>
   </si>
   <si>
-    <t>s_id_bill</t>
+    <t>id_bill</t>
   </si>
   <si>
-    <t>i_quantity</t>
+    <t>id_customer</t>
+  </si>
+  <si>
+    <t>id_product</t>
   </si>
   <si>
     <t>hóa đơn</t>
   </si>
   <si>
-    <t>dt_date_order</t>
+    <t>id_serve</t>
   </si>
   <si>
-    <t>dt_date_receive</t>
+    <t>date_order</t>
   </si>
   <si>
-    <t>i_price_bill</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>price_bill</t>
   </si>
 </sst>
 </file>
@@ -196,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -231,22 +185,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -260,7 +203,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -277,11 +220,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -293,13 +239,13 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -331,10 +277,6 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -31590,8 +31532,8 @@
     <col customWidth="1" min="4" max="4" width="26.57"/>
     <col customWidth="1" min="5" max="5" width="23.29"/>
     <col customWidth="1" min="6" max="6" width="42.57"/>
-    <col customWidth="1" min="7" max="7" width="30.71"/>
-    <col customWidth="1" min="8" max="8" width="27.29"/>
+    <col customWidth="1" min="7" max="8" width="30.71"/>
+    <col customWidth="1" min="9" max="9" width="27.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -31624,31 +31566,34 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -31667,6 +31612,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="6"/>
@@ -31676,8 +31622,8 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -31696,6 +31642,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="6"/>
@@ -31705,8 +31652,8 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -31725,6 +31672,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="6"/>
@@ -31734,8 +31682,8 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -31754,6 +31702,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="6"/>
@@ -31763,8 +31712,8 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -31783,6 +31732,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="7"/>
@@ -31812,6 +31762,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="7"/>
@@ -31841,6 +31792,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
@@ -31865,6 +31817,7 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="5"/>
@@ -31894,6 +31847,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
@@ -31923,6 +31877,7 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
@@ -31952,10 +31907,11 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -31983,6 +31939,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="8"/>
@@ -32012,6 +31969,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="7"/>
@@ -32041,6 +31999,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="7"/>
@@ -32070,6 +32029,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="7"/>
@@ -32099,6 +32059,7 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="7"/>
@@ -32128,6 +32089,7 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="7"/>
@@ -32157,6 +32119,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="7"/>
@@ -32186,6 +32149,7 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="7"/>
@@ -32215,6 +32179,7 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" s="7"/>
@@ -32244,6 +32209,7 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="7"/>
@@ -32273,6 +32239,7 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="7"/>
@@ -32302,6 +32269,7 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="7"/>
@@ -32331,6 +32299,7 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="7"/>
@@ -32360,6 +32329,7 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="7"/>
@@ -32389,6 +32359,7 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="7"/>
@@ -32418,6 +32389,7 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="7"/>
@@ -32447,6 +32419,7 @@
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="7"/>
@@ -32476,6 +32449,7 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="7"/>
@@ -32505,6 +32479,7 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="7"/>
@@ -32534,6 +32509,7 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="7"/>
@@ -32563,6 +32539,7 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="7"/>
@@ -32592,6 +32569,7 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
     </row>
     <row r="35">
       <c r="A35" s="7"/>
@@ -32621,6 +32599,7 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="7"/>
@@ -32650,6 +32629,7 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
     </row>
     <row r="37">
       <c r="A37" s="7"/>
@@ -32679,6 +32659,7 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
     </row>
     <row r="38">
       <c r="A38" s="7"/>
@@ -32708,6 +32689,7 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
     </row>
     <row r="39">
       <c r="A39" s="7"/>
@@ -32737,6 +32719,7 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
     </row>
     <row r="40">
       <c r="A40" s="7"/>
@@ -32766,6 +32749,7 @@
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="7"/>
@@ -32795,6 +32779,7 @@
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="7"/>
@@ -32824,6 +32809,7 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
     </row>
     <row r="43">
       <c r="A43" s="7"/>
@@ -32853,6 +32839,7 @@
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44">
       <c r="A44" s="7"/>
@@ -32882,6 +32869,7 @@
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
     </row>
     <row r="45">
       <c r="A45" s="7"/>
@@ -32911,6 +32899,7 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46">
       <c r="A46" s="7"/>
@@ -32940,6 +32929,7 @@
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
     </row>
     <row r="47">
       <c r="A47" s="7"/>
@@ -32969,6 +32959,7 @@
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48">
       <c r="A48" s="7"/>
@@ -32998,6 +32989,7 @@
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
     </row>
     <row r="49">
       <c r="A49" s="7"/>
@@ -33027,6 +33019,7 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
     </row>
     <row r="50">
       <c r="A50" s="7"/>
@@ -33056,6 +33049,7 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
     </row>
     <row r="51">
       <c r="A51" s="7"/>
@@ -33085,6 +33079,7 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
     </row>
     <row r="52">
       <c r="A52" s="7"/>
@@ -33114,6 +33109,7 @@
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
     </row>
     <row r="53">
       <c r="A53" s="7"/>
@@ -33143,6 +33139,7 @@
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54">
       <c r="A54" s="7"/>
@@ -33172,6 +33169,7 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
     </row>
     <row r="55">
       <c r="A55" s="7"/>
@@ -33201,6 +33199,7 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56">
       <c r="A56" s="7"/>
@@ -33230,6 +33229,7 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
     </row>
     <row r="57">
       <c r="A57" s="7"/>
@@ -33259,6 +33259,7 @@
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58">
       <c r="A58" s="7"/>
@@ -33288,6 +33289,7 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
     </row>
     <row r="59">
       <c r="A59" s="7"/>
@@ -33317,6 +33319,7 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
     </row>
     <row r="60">
       <c r="A60" s="7"/>
@@ -33346,6 +33349,7 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
       <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
     </row>
     <row r="61">
       <c r="A61" s="7"/>
@@ -33375,6 +33379,7 @@
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
       <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
     </row>
     <row r="62">
       <c r="A62" s="7"/>
@@ -33404,6 +33409,7 @@
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
       <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
     </row>
     <row r="63">
       <c r="A63" s="7"/>
@@ -33433,6 +33439,7 @@
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
     </row>
     <row r="64">
       <c r="A64" s="7"/>
@@ -33462,6 +33469,7 @@
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
       <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
     </row>
     <row r="65">
       <c r="A65" s="7"/>
@@ -33491,6 +33499,7 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
     </row>
     <row r="66">
       <c r="A66" s="7"/>
@@ -33520,6 +33529,7 @@
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
     </row>
     <row r="67">
       <c r="A67" s="7"/>
@@ -33549,6 +33559,7 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
     </row>
     <row r="68">
       <c r="A68" s="7"/>
@@ -33578,6 +33589,7 @@
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
     </row>
     <row r="69">
       <c r="A69" s="7"/>
@@ -33607,6 +33619,7 @@
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
       <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
     </row>
     <row r="70">
       <c r="A70" s="7"/>
@@ -33636,6 +33649,7 @@
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
     </row>
     <row r="71">
       <c r="A71" s="7"/>
@@ -33665,6 +33679,7 @@
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
     </row>
     <row r="72">
       <c r="A72" s="7"/>
@@ -33694,6 +33709,7 @@
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
     </row>
     <row r="73">
       <c r="A73" s="7"/>
@@ -33723,6 +33739,7 @@
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
       <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
     </row>
     <row r="74">
       <c r="A74" s="7"/>
@@ -33752,6 +33769,7 @@
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
       <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
     </row>
     <row r="75">
       <c r="A75" s="7"/>
@@ -33781,6 +33799,7 @@
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
       <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
     </row>
     <row r="76">
       <c r="A76" s="7"/>
@@ -33810,6 +33829,7 @@
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
       <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
     </row>
     <row r="77">
       <c r="A77" s="7"/>
@@ -33839,6 +33859,7 @@
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
       <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
     </row>
     <row r="78">
       <c r="A78" s="7"/>
@@ -33868,6 +33889,7 @@
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
       <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
     </row>
     <row r="79">
       <c r="A79" s="7"/>
@@ -33897,6 +33919,7 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
     </row>
     <row r="80">
       <c r="A80" s="7"/>
@@ -33926,6 +33949,7 @@
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
     </row>
     <row r="81">
       <c r="A81" s="7"/>
@@ -33955,6 +33979,7 @@
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
     </row>
     <row r="82">
       <c r="A82" s="7"/>
@@ -33984,6 +34009,7 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
     </row>
     <row r="83">
       <c r="A83" s="7"/>
@@ -34013,6 +34039,7 @@
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
     </row>
     <row r="84">
       <c r="A84" s="7"/>
@@ -34042,6 +34069,7 @@
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
       <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
     </row>
     <row r="85">
       <c r="A85" s="7"/>
@@ -34071,6 +34099,7 @@
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
     </row>
     <row r="86">
       <c r="A86" s="7"/>
@@ -34100,6 +34129,7 @@
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
       <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
     </row>
     <row r="87">
       <c r="A87" s="7"/>
@@ -34129,6 +34159,7 @@
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
       <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
     </row>
     <row r="88">
       <c r="A88" s="7"/>
@@ -34158,6 +34189,7 @@
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
       <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
     </row>
     <row r="89">
       <c r="A89" s="7"/>
@@ -34187,6 +34219,7 @@
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
     </row>
     <row r="90">
       <c r="A90" s="7"/>
@@ -34216,6 +34249,7 @@
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
     </row>
     <row r="91">
       <c r="A91" s="7"/>
@@ -34245,6 +34279,7 @@
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
     </row>
     <row r="92">
       <c r="A92" s="7"/>
@@ -34274,6 +34309,7 @@
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
     </row>
     <row r="93">
       <c r="A93" s="7"/>
@@ -34303,6 +34339,7 @@
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
       <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
     </row>
     <row r="94">
       <c r="A94" s="7"/>
@@ -34332,6 +34369,7 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
       <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
     </row>
     <row r="95">
       <c r="A95" s="7"/>
@@ -34361,6 +34399,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
       <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
     </row>
     <row r="96">
       <c r="A96" s="7"/>
@@ -34390,6 +34429,7 @@
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
       <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
     </row>
     <row r="97">
       <c r="A97" s="7"/>
@@ -34419,6 +34459,7 @@
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
       <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
     </row>
     <row r="98">
       <c r="A98" s="7"/>
@@ -34448,6 +34489,7 @@
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
       <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
     </row>
     <row r="99">
       <c r="A99" s="7"/>
@@ -34477,6 +34519,7 @@
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
       <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
     </row>
     <row r="100">
       <c r="A100" s="7"/>
@@ -34506,6 +34549,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
       <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
     </row>
     <row r="101">
       <c r="A101" s="7"/>
@@ -34535,6 +34579,7 @@
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
       <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
     </row>
     <row r="102">
       <c r="A102" s="7"/>
@@ -34564,6 +34609,7 @@
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
       <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
     </row>
     <row r="103">
       <c r="A103" s="7"/>
@@ -34593,6 +34639,7 @@
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
       <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
     </row>
     <row r="104">
       <c r="A104" s="7"/>
@@ -34622,6 +34669,7 @@
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
       <c r="AA104" s="7"/>
+      <c r="AB104" s="7"/>
     </row>
     <row r="105">
       <c r="A105" s="7"/>
@@ -34651,6 +34699,7 @@
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
       <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
     </row>
     <row r="106">
       <c r="A106" s="7"/>
@@ -34680,6 +34729,7 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
       <c r="AA106" s="7"/>
+      <c r="AB106" s="7"/>
     </row>
     <row r="107">
       <c r="A107" s="7"/>
@@ -34709,6 +34759,7 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
       <c r="AA107" s="7"/>
+      <c r="AB107" s="7"/>
     </row>
     <row r="108">
       <c r="A108" s="7"/>
@@ -34738,6 +34789,7 @@
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
       <c r="AA108" s="7"/>
+      <c r="AB108" s="7"/>
     </row>
     <row r="109">
       <c r="A109" s="7"/>
@@ -34767,6 +34819,7 @@
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
       <c r="AA109" s="7"/>
+      <c r="AB109" s="7"/>
     </row>
     <row r="110">
       <c r="A110" s="7"/>
@@ -34796,6 +34849,7 @@
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
       <c r="AA110" s="7"/>
+      <c r="AB110" s="7"/>
     </row>
     <row r="111">
       <c r="A111" s="7"/>
@@ -34825,6 +34879,7 @@
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
       <c r="AA111" s="7"/>
+      <c r="AB111" s="7"/>
     </row>
     <row r="112">
       <c r="A112" s="7"/>
@@ -34854,6 +34909,7 @@
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
       <c r="AA112" s="7"/>
+      <c r="AB112" s="7"/>
     </row>
     <row r="113">
       <c r="A113" s="7"/>
@@ -34883,6 +34939,7 @@
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
       <c r="AA113" s="7"/>
+      <c r="AB113" s="7"/>
     </row>
     <row r="114">
       <c r="A114" s="7"/>
@@ -34912,6 +34969,7 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
       <c r="AA114" s="7"/>
+      <c r="AB114" s="7"/>
     </row>
     <row r="115">
       <c r="A115" s="7"/>
@@ -34941,6 +34999,7 @@
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
       <c r="AA115" s="7"/>
+      <c r="AB115" s="7"/>
     </row>
     <row r="116">
       <c r="A116" s="7"/>
@@ -34970,6 +35029,7 @@
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
       <c r="AA116" s="7"/>
+      <c r="AB116" s="7"/>
     </row>
     <row r="117">
       <c r="A117" s="7"/>
@@ -34999,6 +35059,7 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
       <c r="AA117" s="7"/>
+      <c r="AB117" s="7"/>
     </row>
     <row r="118">
       <c r="A118" s="7"/>
@@ -35028,6 +35089,7 @@
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
       <c r="AA118" s="7"/>
+      <c r="AB118" s="7"/>
     </row>
     <row r="119">
       <c r="A119" s="7"/>
@@ -35057,6 +35119,7 @@
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
       <c r="AA119" s="7"/>
+      <c r="AB119" s="7"/>
     </row>
     <row r="120">
       <c r="A120" s="7"/>
@@ -35086,6 +35149,7 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
       <c r="AA120" s="7"/>
+      <c r="AB120" s="7"/>
     </row>
     <row r="121">
       <c r="A121" s="7"/>
@@ -35115,6 +35179,7 @@
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
       <c r="AA121" s="7"/>
+      <c r="AB121" s="7"/>
     </row>
     <row r="122">
       <c r="A122" s="7"/>
@@ -35144,6 +35209,7 @@
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
       <c r="AA122" s="7"/>
+      <c r="AB122" s="7"/>
     </row>
     <row r="123">
       <c r="A123" s="7"/>
@@ -35173,6 +35239,7 @@
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
       <c r="AA123" s="7"/>
+      <c r="AB123" s="7"/>
     </row>
     <row r="124">
       <c r="A124" s="7"/>
@@ -35202,6 +35269,7 @@
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
       <c r="AA124" s="7"/>
+      <c r="AB124" s="7"/>
     </row>
     <row r="125">
       <c r="A125" s="7"/>
@@ -35231,6 +35299,7 @@
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
       <c r="AA125" s="7"/>
+      <c r="AB125" s="7"/>
     </row>
     <row r="126">
       <c r="A126" s="7"/>
@@ -35260,6 +35329,7 @@
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
       <c r="AA126" s="7"/>
+      <c r="AB126" s="7"/>
     </row>
     <row r="127">
       <c r="A127" s="7"/>
@@ -35289,6 +35359,7 @@
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
       <c r="AA127" s="7"/>
+      <c r="AB127" s="7"/>
     </row>
     <row r="128">
       <c r="A128" s="7"/>
@@ -35318,6 +35389,7 @@
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
       <c r="AA128" s="7"/>
+      <c r="AB128" s="7"/>
     </row>
     <row r="129">
       <c r="A129" s="7"/>
@@ -35347,6 +35419,7 @@
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
       <c r="AA129" s="7"/>
+      <c r="AB129" s="7"/>
     </row>
     <row r="130">
       <c r="A130" s="7"/>
@@ -35376,6 +35449,7 @@
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
       <c r="AA130" s="7"/>
+      <c r="AB130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="7"/>
@@ -35405,6 +35479,7 @@
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
       <c r="AA131" s="7"/>
+      <c r="AB131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="7"/>
@@ -35434,6 +35509,7 @@
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
       <c r="AA132" s="7"/>
+      <c r="AB132" s="7"/>
     </row>
     <row r="133">
       <c r="A133" s="7"/>
@@ -35463,6 +35539,7 @@
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
       <c r="AA133" s="7"/>
+      <c r="AB133" s="7"/>
     </row>
     <row r="134">
       <c r="A134" s="7"/>
@@ -35492,6 +35569,7 @@
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
       <c r="AA134" s="7"/>
+      <c r="AB134" s="7"/>
     </row>
     <row r="135">
       <c r="A135" s="7"/>
@@ -35521,6 +35599,7 @@
       <c r="Y135" s="7"/>
       <c r="Z135" s="7"/>
       <c r="AA135" s="7"/>
+      <c r="AB135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="7"/>
@@ -35550,6 +35629,7 @@
       <c r="Y136" s="7"/>
       <c r="Z136" s="7"/>
       <c r="AA136" s="7"/>
+      <c r="AB136" s="7"/>
     </row>
     <row r="137">
       <c r="A137" s="7"/>
@@ -35579,6 +35659,7 @@
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
       <c r="AA137" s="7"/>
+      <c r="AB137" s="7"/>
     </row>
     <row r="138">
       <c r="A138" s="7"/>
@@ -35608,6 +35689,7 @@
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
       <c r="AA138" s="7"/>
+      <c r="AB138" s="7"/>
     </row>
     <row r="139">
       <c r="A139" s="7"/>
@@ -35637,6 +35719,7 @@
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
       <c r="AA139" s="7"/>
+      <c r="AB139" s="7"/>
     </row>
     <row r="140">
       <c r="A140" s="7"/>
@@ -35666,6 +35749,7 @@
       <c r="Y140" s="7"/>
       <c r="Z140" s="7"/>
       <c r="AA140" s="7"/>
+      <c r="AB140" s="7"/>
     </row>
     <row r="141">
       <c r="A141" s="7"/>
@@ -35695,6 +35779,7 @@
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
       <c r="AA141" s="7"/>
+      <c r="AB141" s="7"/>
     </row>
     <row r="142">
       <c r="A142" s="7"/>
@@ -35724,6 +35809,7 @@
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
       <c r="AA142" s="7"/>
+      <c r="AB142" s="7"/>
     </row>
     <row r="143">
       <c r="A143" s="7"/>
@@ -35753,6 +35839,7 @@
       <c r="Y143" s="7"/>
       <c r="Z143" s="7"/>
       <c r="AA143" s="7"/>
+      <c r="AB143" s="7"/>
     </row>
     <row r="144">
       <c r="A144" s="7"/>
@@ -35782,6 +35869,7 @@
       <c r="Y144" s="7"/>
       <c r="Z144" s="7"/>
       <c r="AA144" s="7"/>
+      <c r="AB144" s="7"/>
     </row>
     <row r="145">
       <c r="A145" s="7"/>
@@ -35811,6 +35899,7 @@
       <c r="Y145" s="7"/>
       <c r="Z145" s="7"/>
       <c r="AA145" s="7"/>
+      <c r="AB145" s="7"/>
     </row>
     <row r="146">
       <c r="A146" s="7"/>
@@ -35840,6 +35929,7 @@
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
       <c r="AA146" s="7"/>
+      <c r="AB146" s="7"/>
     </row>
     <row r="147">
       <c r="A147" s="7"/>
@@ -35869,6 +35959,7 @@
       <c r="Y147" s="7"/>
       <c r="Z147" s="7"/>
       <c r="AA147" s="7"/>
+      <c r="AB147" s="7"/>
     </row>
     <row r="148">
       <c r="A148" s="7"/>
@@ -35898,6 +35989,7 @@
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
       <c r="AA148" s="7"/>
+      <c r="AB148" s="7"/>
     </row>
     <row r="149">
       <c r="A149" s="7"/>
@@ -35927,6 +36019,7 @@
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
       <c r="AA149" s="7"/>
+      <c r="AB149" s="7"/>
     </row>
     <row r="150">
       <c r="A150" s="7"/>
@@ -35956,6 +36049,7 @@
       <c r="Y150" s="7"/>
       <c r="Z150" s="7"/>
       <c r="AA150" s="7"/>
+      <c r="AB150" s="7"/>
     </row>
     <row r="151">
       <c r="A151" s="7"/>
@@ -35985,6 +36079,7 @@
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
       <c r="AA151" s="7"/>
+      <c r="AB151" s="7"/>
     </row>
     <row r="152">
       <c r="A152" s="7"/>
@@ -36014,6 +36109,7 @@
       <c r="Y152" s="7"/>
       <c r="Z152" s="7"/>
       <c r="AA152" s="7"/>
+      <c r="AB152" s="7"/>
     </row>
     <row r="153">
       <c r="A153" s="7"/>
@@ -36043,6 +36139,7 @@
       <c r="Y153" s="7"/>
       <c r="Z153" s="7"/>
       <c r="AA153" s="7"/>
+      <c r="AB153" s="7"/>
     </row>
     <row r="154">
       <c r="A154" s="7"/>
@@ -36072,6 +36169,7 @@
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
       <c r="AA154" s="7"/>
+      <c r="AB154" s="7"/>
     </row>
     <row r="155">
       <c r="A155" s="7"/>
@@ -36101,6 +36199,7 @@
       <c r="Y155" s="7"/>
       <c r="Z155" s="7"/>
       <c r="AA155" s="7"/>
+      <c r="AB155" s="7"/>
     </row>
     <row r="156">
       <c r="A156" s="7"/>
@@ -36130,6 +36229,7 @@
       <c r="Y156" s="7"/>
       <c r="Z156" s="7"/>
       <c r="AA156" s="7"/>
+      <c r="AB156" s="7"/>
     </row>
     <row r="157">
       <c r="A157" s="7"/>
@@ -36159,6 +36259,7 @@
       <c r="Y157" s="7"/>
       <c r="Z157" s="7"/>
       <c r="AA157" s="7"/>
+      <c r="AB157" s="7"/>
     </row>
     <row r="158">
       <c r="A158" s="7"/>
@@ -36188,6 +36289,7 @@
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
       <c r="AA158" s="7"/>
+      <c r="AB158" s="7"/>
     </row>
     <row r="159">
       <c r="A159" s="7"/>
@@ -36217,6 +36319,7 @@
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
       <c r="AA159" s="7"/>
+      <c r="AB159" s="7"/>
     </row>
     <row r="160">
       <c r="A160" s="7"/>
@@ -36246,6 +36349,7 @@
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
       <c r="AA160" s="7"/>
+      <c r="AB160" s="7"/>
     </row>
     <row r="161">
       <c r="A161" s="7"/>
@@ -36275,6 +36379,7 @@
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
       <c r="AA161" s="7"/>
+      <c r="AB161" s="7"/>
     </row>
     <row r="162">
       <c r="A162" s="7"/>
@@ -36304,6 +36409,7 @@
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
       <c r="AA162" s="7"/>
+      <c r="AB162" s="7"/>
     </row>
     <row r="163">
       <c r="A163" s="7"/>
@@ -36333,6 +36439,7 @@
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
       <c r="AA163" s="7"/>
+      <c r="AB163" s="7"/>
     </row>
     <row r="164">
       <c r="A164" s="7"/>
@@ -36362,6 +36469,7 @@
       <c r="Y164" s="7"/>
       <c r="Z164" s="7"/>
       <c r="AA164" s="7"/>
+      <c r="AB164" s="7"/>
     </row>
     <row r="165">
       <c r="A165" s="7"/>
@@ -36391,6 +36499,7 @@
       <c r="Y165" s="7"/>
       <c r="Z165" s="7"/>
       <c r="AA165" s="7"/>
+      <c r="AB165" s="7"/>
     </row>
     <row r="166">
       <c r="A166" s="7"/>
@@ -36420,6 +36529,7 @@
       <c r="Y166" s="7"/>
       <c r="Z166" s="7"/>
       <c r="AA166" s="7"/>
+      <c r="AB166" s="7"/>
     </row>
     <row r="167">
       <c r="A167" s="7"/>
@@ -36449,6 +36559,7 @@
       <c r="Y167" s="7"/>
       <c r="Z167" s="7"/>
       <c r="AA167" s="7"/>
+      <c r="AB167" s="7"/>
     </row>
     <row r="168">
       <c r="A168" s="7"/>
@@ -36478,6 +36589,7 @@
       <c r="Y168" s="7"/>
       <c r="Z168" s="7"/>
       <c r="AA168" s="7"/>
+      <c r="AB168" s="7"/>
     </row>
     <row r="169">
       <c r="A169" s="7"/>
@@ -36507,6 +36619,7 @@
       <c r="Y169" s="7"/>
       <c r="Z169" s="7"/>
       <c r="AA169" s="7"/>
+      <c r="AB169" s="7"/>
     </row>
     <row r="170">
       <c r="A170" s="7"/>
@@ -36536,6 +36649,7 @@
       <c r="Y170" s="7"/>
       <c r="Z170" s="7"/>
       <c r="AA170" s="7"/>
+      <c r="AB170" s="7"/>
     </row>
     <row r="171">
       <c r="A171" s="7"/>
@@ -36565,6 +36679,7 @@
       <c r="Y171" s="7"/>
       <c r="Z171" s="7"/>
       <c r="AA171" s="7"/>
+      <c r="AB171" s="7"/>
     </row>
     <row r="172">
       <c r="A172" s="7"/>
@@ -36594,6 +36709,7 @@
       <c r="Y172" s="7"/>
       <c r="Z172" s="7"/>
       <c r="AA172" s="7"/>
+      <c r="AB172" s="7"/>
     </row>
     <row r="173">
       <c r="A173" s="7"/>
@@ -36623,6 +36739,7 @@
       <c r="Y173" s="7"/>
       <c r="Z173" s="7"/>
       <c r="AA173" s="7"/>
+      <c r="AB173" s="7"/>
     </row>
     <row r="174">
       <c r="A174" s="7"/>
@@ -36652,6 +36769,7 @@
       <c r="Y174" s="7"/>
       <c r="Z174" s="7"/>
       <c r="AA174" s="7"/>
+      <c r="AB174" s="7"/>
     </row>
     <row r="175">
       <c r="A175" s="7"/>
@@ -36681,6 +36799,7 @@
       <c r="Y175" s="7"/>
       <c r="Z175" s="7"/>
       <c r="AA175" s="7"/>
+      <c r="AB175" s="7"/>
     </row>
     <row r="176">
       <c r="A176" s="7"/>
@@ -36710,6 +36829,7 @@
       <c r="Y176" s="7"/>
       <c r="Z176" s="7"/>
       <c r="AA176" s="7"/>
+      <c r="AB176" s="7"/>
     </row>
     <row r="177">
       <c r="A177" s="7"/>
@@ -36739,6 +36859,7 @@
       <c r="Y177" s="7"/>
       <c r="Z177" s="7"/>
       <c r="AA177" s="7"/>
+      <c r="AB177" s="7"/>
     </row>
     <row r="178">
       <c r="A178" s="7"/>
@@ -36768,6 +36889,7 @@
       <c r="Y178" s="7"/>
       <c r="Z178" s="7"/>
       <c r="AA178" s="7"/>
+      <c r="AB178" s="7"/>
     </row>
     <row r="179">
       <c r="A179" s="7"/>
@@ -36797,6 +36919,7 @@
       <c r="Y179" s="7"/>
       <c r="Z179" s="7"/>
       <c r="AA179" s="7"/>
+      <c r="AB179" s="7"/>
     </row>
     <row r="180">
       <c r="A180" s="7"/>
@@ -36826,6 +36949,7 @@
       <c r="Y180" s="7"/>
       <c r="Z180" s="7"/>
       <c r="AA180" s="7"/>
+      <c r="AB180" s="7"/>
     </row>
     <row r="181">
       <c r="A181" s="7"/>
@@ -36855,6 +36979,7 @@
       <c r="Y181" s="7"/>
       <c r="Z181" s="7"/>
       <c r="AA181" s="7"/>
+      <c r="AB181" s="7"/>
     </row>
     <row r="182">
       <c r="A182" s="7"/>
@@ -36884,6 +37009,7 @@
       <c r="Y182" s="7"/>
       <c r="Z182" s="7"/>
       <c r="AA182" s="7"/>
+      <c r="AB182" s="7"/>
     </row>
     <row r="183">
       <c r="A183" s="7"/>
@@ -36913,6 +37039,7 @@
       <c r="Y183" s="7"/>
       <c r="Z183" s="7"/>
       <c r="AA183" s="7"/>
+      <c r="AB183" s="7"/>
     </row>
     <row r="184">
       <c r="A184" s="7"/>
@@ -36942,6 +37069,7 @@
       <c r="Y184" s="7"/>
       <c r="Z184" s="7"/>
       <c r="AA184" s="7"/>
+      <c r="AB184" s="7"/>
     </row>
     <row r="185">
       <c r="A185" s="7"/>
@@ -36971,6 +37099,7 @@
       <c r="Y185" s="7"/>
       <c r="Z185" s="7"/>
       <c r="AA185" s="7"/>
+      <c r="AB185" s="7"/>
     </row>
     <row r="186">
       <c r="A186" s="7"/>
@@ -37000,6 +37129,7 @@
       <c r="Y186" s="7"/>
       <c r="Z186" s="7"/>
       <c r="AA186" s="7"/>
+      <c r="AB186" s="7"/>
     </row>
     <row r="187">
       <c r="A187" s="7"/>
@@ -37029,6 +37159,7 @@
       <c r="Y187" s="7"/>
       <c r="Z187" s="7"/>
       <c r="AA187" s="7"/>
+      <c r="AB187" s="7"/>
     </row>
     <row r="188">
       <c r="A188" s="7"/>
@@ -37058,6 +37189,7 @@
       <c r="Y188" s="7"/>
       <c r="Z188" s="7"/>
       <c r="AA188" s="7"/>
+      <c r="AB188" s="7"/>
     </row>
     <row r="189">
       <c r="A189" s="7"/>
@@ -37087,6 +37219,7 @@
       <c r="Y189" s="7"/>
       <c r="Z189" s="7"/>
       <c r="AA189" s="7"/>
+      <c r="AB189" s="7"/>
     </row>
     <row r="190">
       <c r="A190" s="7"/>
@@ -37116,6 +37249,7 @@
       <c r="Y190" s="7"/>
       <c r="Z190" s="7"/>
       <c r="AA190" s="7"/>
+      <c r="AB190" s="7"/>
     </row>
     <row r="191">
       <c r="A191" s="7"/>
@@ -37145,6 +37279,7 @@
       <c r="Y191" s="7"/>
       <c r="Z191" s="7"/>
       <c r="AA191" s="7"/>
+      <c r="AB191" s="7"/>
     </row>
     <row r="192">
       <c r="A192" s="7"/>
@@ -37174,6 +37309,7 @@
       <c r="Y192" s="7"/>
       <c r="Z192" s="7"/>
       <c r="AA192" s="7"/>
+      <c r="AB192" s="7"/>
     </row>
     <row r="193">
       <c r="A193" s="7"/>
@@ -37203,6 +37339,7 @@
       <c r="Y193" s="7"/>
       <c r="Z193" s="7"/>
       <c r="AA193" s="7"/>
+      <c r="AB193" s="7"/>
     </row>
     <row r="194">
       <c r="A194" s="7"/>
@@ -37232,6 +37369,7 @@
       <c r="Y194" s="7"/>
       <c r="Z194" s="7"/>
       <c r="AA194" s="7"/>
+      <c r="AB194" s="7"/>
     </row>
     <row r="195">
       <c r="A195" s="7"/>
@@ -37261,6 +37399,7 @@
       <c r="Y195" s="7"/>
       <c r="Z195" s="7"/>
       <c r="AA195" s="7"/>
+      <c r="AB195" s="7"/>
     </row>
     <row r="196">
       <c r="A196" s="7"/>
@@ -37290,6 +37429,7 @@
       <c r="Y196" s="7"/>
       <c r="Z196" s="7"/>
       <c r="AA196" s="7"/>
+      <c r="AB196" s="7"/>
     </row>
     <row r="197">
       <c r="A197" s="7"/>
@@ -37319,6 +37459,7 @@
       <c r="Y197" s="7"/>
       <c r="Z197" s="7"/>
       <c r="AA197" s="7"/>
+      <c r="AB197" s="7"/>
     </row>
     <row r="198">
       <c r="A198" s="7"/>
@@ -37348,6 +37489,7 @@
       <c r="Y198" s="7"/>
       <c r="Z198" s="7"/>
       <c r="AA198" s="7"/>
+      <c r="AB198" s="7"/>
     </row>
     <row r="199">
       <c r="A199" s="7"/>
@@ -37377,6 +37519,7 @@
       <c r="Y199" s="7"/>
       <c r="Z199" s="7"/>
       <c r="AA199" s="7"/>
+      <c r="AB199" s="7"/>
     </row>
     <row r="200">
       <c r="A200" s="7"/>
@@ -37406,6 +37549,7 @@
       <c r="Y200" s="7"/>
       <c r="Z200" s="7"/>
       <c r="AA200" s="7"/>
+      <c r="AB200" s="7"/>
     </row>
     <row r="201">
       <c r="A201" s="7"/>
@@ -37435,6 +37579,7 @@
       <c r="Y201" s="7"/>
       <c r="Z201" s="7"/>
       <c r="AA201" s="7"/>
+      <c r="AB201" s="7"/>
     </row>
     <row r="202">
       <c r="A202" s="7"/>
@@ -37464,6 +37609,7 @@
       <c r="Y202" s="7"/>
       <c r="Z202" s="7"/>
       <c r="AA202" s="7"/>
+      <c r="AB202" s="7"/>
     </row>
     <row r="203">
       <c r="A203" s="7"/>
@@ -37493,6 +37639,7 @@
       <c r="Y203" s="7"/>
       <c r="Z203" s="7"/>
       <c r="AA203" s="7"/>
+      <c r="AB203" s="7"/>
     </row>
     <row r="204">
       <c r="A204" s="7"/>
@@ -37522,6 +37669,7 @@
       <c r="Y204" s="7"/>
       <c r="Z204" s="7"/>
       <c r="AA204" s="7"/>
+      <c r="AB204" s="7"/>
     </row>
     <row r="205">
       <c r="A205" s="7"/>
@@ -37551,6 +37699,7 @@
       <c r="Y205" s="7"/>
       <c r="Z205" s="7"/>
       <c r="AA205" s="7"/>
+      <c r="AB205" s="7"/>
     </row>
     <row r="206">
       <c r="A206" s="7"/>
@@ -37580,6 +37729,7 @@
       <c r="Y206" s="7"/>
       <c r="Z206" s="7"/>
       <c r="AA206" s="7"/>
+      <c r="AB206" s="7"/>
     </row>
     <row r="207">
       <c r="A207" s="7"/>
@@ -37609,6 +37759,7 @@
       <c r="Y207" s="7"/>
       <c r="Z207" s="7"/>
       <c r="AA207" s="7"/>
+      <c r="AB207" s="7"/>
     </row>
     <row r="208">
       <c r="A208" s="7"/>
@@ -37638,6 +37789,7 @@
       <c r="Y208" s="7"/>
       <c r="Z208" s="7"/>
       <c r="AA208" s="7"/>
+      <c r="AB208" s="7"/>
     </row>
     <row r="209">
       <c r="A209" s="7"/>
@@ -37667,6 +37819,7 @@
       <c r="Y209" s="7"/>
       <c r="Z209" s="7"/>
       <c r="AA209" s="7"/>
+      <c r="AB209" s="7"/>
     </row>
     <row r="210">
       <c r="A210" s="7"/>
@@ -37696,6 +37849,7 @@
       <c r="Y210" s="7"/>
       <c r="Z210" s="7"/>
       <c r="AA210" s="7"/>
+      <c r="AB210" s="7"/>
     </row>
     <row r="211">
       <c r="A211" s="7"/>
@@ -37725,6 +37879,7 @@
       <c r="Y211" s="7"/>
       <c r="Z211" s="7"/>
       <c r="AA211" s="7"/>
+      <c r="AB211" s="7"/>
     </row>
     <row r="212">
       <c r="A212" s="7"/>
@@ -37754,6 +37909,7 @@
       <c r="Y212" s="7"/>
       <c r="Z212" s="7"/>
       <c r="AA212" s="7"/>
+      <c r="AB212" s="7"/>
     </row>
     <row r="213">
       <c r="A213" s="7"/>
@@ -37783,6 +37939,7 @@
       <c r="Y213" s="7"/>
       <c r="Z213" s="7"/>
       <c r="AA213" s="7"/>
+      <c r="AB213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="7"/>
@@ -37812,6 +37969,7 @@
       <c r="Y214" s="7"/>
       <c r="Z214" s="7"/>
       <c r="AA214" s="7"/>
+      <c r="AB214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="7"/>
@@ -37841,6 +37999,7 @@
       <c r="Y215" s="7"/>
       <c r="Z215" s="7"/>
       <c r="AA215" s="7"/>
+      <c r="AB215" s="7"/>
     </row>
     <row r="216">
       <c r="A216" s="7"/>
@@ -37870,6 +38029,7 @@
       <c r="Y216" s="7"/>
       <c r="Z216" s="7"/>
       <c r="AA216" s="7"/>
+      <c r="AB216" s="7"/>
     </row>
     <row r="217">
       <c r="A217" s="7"/>
@@ -37899,6 +38059,7 @@
       <c r="Y217" s="7"/>
       <c r="Z217" s="7"/>
       <c r="AA217" s="7"/>
+      <c r="AB217" s="7"/>
     </row>
     <row r="218">
       <c r="A218" s="7"/>
@@ -37928,6 +38089,7 @@
       <c r="Y218" s="7"/>
       <c r="Z218" s="7"/>
       <c r="AA218" s="7"/>
+      <c r="AB218" s="7"/>
     </row>
     <row r="219">
       <c r="A219" s="7"/>
@@ -37957,6 +38119,7 @@
       <c r="Y219" s="7"/>
       <c r="Z219" s="7"/>
       <c r="AA219" s="7"/>
+      <c r="AB219" s="7"/>
     </row>
     <row r="220">
       <c r="A220" s="7"/>
@@ -37986,6 +38149,7 @@
       <c r="Y220" s="7"/>
       <c r="Z220" s="7"/>
       <c r="AA220" s="7"/>
+      <c r="AB220" s="7"/>
     </row>
     <row r="221">
       <c r="A221" s="7"/>
@@ -38015,6 +38179,7 @@
       <c r="Y221" s="7"/>
       <c r="Z221" s="7"/>
       <c r="AA221" s="7"/>
+      <c r="AB221" s="7"/>
     </row>
     <row r="222">
       <c r="A222" s="7"/>
@@ -38044,6 +38209,7 @@
       <c r="Y222" s="7"/>
       <c r="Z222" s="7"/>
       <c r="AA222" s="7"/>
+      <c r="AB222" s="7"/>
     </row>
     <row r="223">
       <c r="A223" s="7"/>
@@ -38073,6 +38239,7 @@
       <c r="Y223" s="7"/>
       <c r="Z223" s="7"/>
       <c r="AA223" s="7"/>
+      <c r="AB223" s="7"/>
     </row>
     <row r="224">
       <c r="A224" s="7"/>
@@ -38102,6 +38269,7 @@
       <c r="Y224" s="7"/>
       <c r="Z224" s="7"/>
       <c r="AA224" s="7"/>
+      <c r="AB224" s="7"/>
     </row>
     <row r="225">
       <c r="A225" s="7"/>
@@ -38131,6 +38299,7 @@
       <c r="Y225" s="7"/>
       <c r="Z225" s="7"/>
       <c r="AA225" s="7"/>
+      <c r="AB225" s="7"/>
     </row>
     <row r="226">
       <c r="A226" s="7"/>
@@ -38160,6 +38329,7 @@
       <c r="Y226" s="7"/>
       <c r="Z226" s="7"/>
       <c r="AA226" s="7"/>
+      <c r="AB226" s="7"/>
     </row>
     <row r="227">
       <c r="A227" s="7"/>
@@ -38189,6 +38359,7 @@
       <c r="Y227" s="7"/>
       <c r="Z227" s="7"/>
       <c r="AA227" s="7"/>
+      <c r="AB227" s="7"/>
     </row>
     <row r="228">
       <c r="A228" s="7"/>
@@ -38218,6 +38389,7 @@
       <c r="Y228" s="7"/>
       <c r="Z228" s="7"/>
       <c r="AA228" s="7"/>
+      <c r="AB228" s="7"/>
     </row>
     <row r="229">
       <c r="A229" s="7"/>
@@ -38247,6 +38419,7 @@
       <c r="Y229" s="7"/>
       <c r="Z229" s="7"/>
       <c r="AA229" s="7"/>
+      <c r="AB229" s="7"/>
     </row>
     <row r="230">
       <c r="A230" s="7"/>
@@ -38276,6 +38449,7 @@
       <c r="Y230" s="7"/>
       <c r="Z230" s="7"/>
       <c r="AA230" s="7"/>
+      <c r="AB230" s="7"/>
     </row>
     <row r="231">
       <c r="A231" s="7"/>
@@ -38305,6 +38479,7 @@
       <c r="Y231" s="7"/>
       <c r="Z231" s="7"/>
       <c r="AA231" s="7"/>
+      <c r="AB231" s="7"/>
     </row>
     <row r="232">
       <c r="A232" s="7"/>
@@ -38334,6 +38509,7 @@
       <c r="Y232" s="7"/>
       <c r="Z232" s="7"/>
       <c r="AA232" s="7"/>
+      <c r="AB232" s="7"/>
     </row>
     <row r="233">
       <c r="A233" s="7"/>
@@ -38363,6 +38539,7 @@
       <c r="Y233" s="7"/>
       <c r="Z233" s="7"/>
       <c r="AA233" s="7"/>
+      <c r="AB233" s="7"/>
     </row>
     <row r="234">
       <c r="A234" s="7"/>
@@ -38392,6 +38569,7 @@
       <c r="Y234" s="7"/>
       <c r="Z234" s="7"/>
       <c r="AA234" s="7"/>
+      <c r="AB234" s="7"/>
     </row>
     <row r="235">
       <c r="A235" s="7"/>
@@ -38421,6 +38599,7 @@
       <c r="Y235" s="7"/>
       <c r="Z235" s="7"/>
       <c r="AA235" s="7"/>
+      <c r="AB235" s="7"/>
     </row>
     <row r="236">
       <c r="A236" s="7"/>
@@ -38450,6 +38629,7 @@
       <c r="Y236" s="7"/>
       <c r="Z236" s="7"/>
       <c r="AA236" s="7"/>
+      <c r="AB236" s="7"/>
     </row>
     <row r="237">
       <c r="A237" s="7"/>
@@ -38479,6 +38659,7 @@
       <c r="Y237" s="7"/>
       <c r="Z237" s="7"/>
       <c r="AA237" s="7"/>
+      <c r="AB237" s="7"/>
     </row>
     <row r="238">
       <c r="A238" s="7"/>
@@ -38508,6 +38689,7 @@
       <c r="Y238" s="7"/>
       <c r="Z238" s="7"/>
       <c r="AA238" s="7"/>
+      <c r="AB238" s="7"/>
     </row>
     <row r="239">
       <c r="A239" s="7"/>
@@ -38537,6 +38719,7 @@
       <c r="Y239" s="7"/>
       <c r="Z239" s="7"/>
       <c r="AA239" s="7"/>
+      <c r="AB239" s="7"/>
     </row>
     <row r="240">
       <c r="A240" s="7"/>
@@ -38566,6 +38749,7 @@
       <c r="Y240" s="7"/>
       <c r="Z240" s="7"/>
       <c r="AA240" s="7"/>
+      <c r="AB240" s="7"/>
     </row>
     <row r="241">
       <c r="A241" s="7"/>
@@ -38595,6 +38779,7 @@
       <c r="Y241" s="7"/>
       <c r="Z241" s="7"/>
       <c r="AA241" s="7"/>
+      <c r="AB241" s="7"/>
     </row>
     <row r="242">
       <c r="A242" s="7"/>
@@ -38624,6 +38809,7 @@
       <c r="Y242" s="7"/>
       <c r="Z242" s="7"/>
       <c r="AA242" s="7"/>
+      <c r="AB242" s="7"/>
     </row>
     <row r="243">
       <c r="A243" s="7"/>
@@ -38653,6 +38839,7 @@
       <c r="Y243" s="7"/>
       <c r="Z243" s="7"/>
       <c r="AA243" s="7"/>
+      <c r="AB243" s="7"/>
     </row>
     <row r="244">
       <c r="A244" s="7"/>
@@ -38682,6 +38869,7 @@
       <c r="Y244" s="7"/>
       <c r="Z244" s="7"/>
       <c r="AA244" s="7"/>
+      <c r="AB244" s="7"/>
     </row>
     <row r="245">
       <c r="A245" s="7"/>
@@ -38711,6 +38899,7 @@
       <c r="Y245" s="7"/>
       <c r="Z245" s="7"/>
       <c r="AA245" s="7"/>
+      <c r="AB245" s="7"/>
     </row>
     <row r="246">
       <c r="A246" s="7"/>
@@ -38740,6 +38929,7 @@
       <c r="Y246" s="7"/>
       <c r="Z246" s="7"/>
       <c r="AA246" s="7"/>
+      <c r="AB246" s="7"/>
     </row>
     <row r="247">
       <c r="A247" s="7"/>
@@ -38769,6 +38959,7 @@
       <c r="Y247" s="7"/>
       <c r="Z247" s="7"/>
       <c r="AA247" s="7"/>
+      <c r="AB247" s="7"/>
     </row>
     <row r="248">
       <c r="A248" s="7"/>
@@ -38798,6 +38989,7 @@
       <c r="Y248" s="7"/>
       <c r="Z248" s="7"/>
       <c r="AA248" s="7"/>
+      <c r="AB248" s="7"/>
     </row>
     <row r="249">
       <c r="A249" s="7"/>
@@ -38827,6 +39019,7 @@
       <c r="Y249" s="7"/>
       <c r="Z249" s="7"/>
       <c r="AA249" s="7"/>
+      <c r="AB249" s="7"/>
     </row>
     <row r="250">
       <c r="A250" s="7"/>
@@ -38856,6 +39049,7 @@
       <c r="Y250" s="7"/>
       <c r="Z250" s="7"/>
       <c r="AA250" s="7"/>
+      <c r="AB250" s="7"/>
     </row>
     <row r="251">
       <c r="A251" s="7"/>
@@ -38885,6 +39079,7 @@
       <c r="Y251" s="7"/>
       <c r="Z251" s="7"/>
       <c r="AA251" s="7"/>
+      <c r="AB251" s="7"/>
     </row>
     <row r="252">
       <c r="A252" s="7"/>
@@ -38914,6 +39109,7 @@
       <c r="Y252" s="7"/>
       <c r="Z252" s="7"/>
       <c r="AA252" s="7"/>
+      <c r="AB252" s="7"/>
     </row>
     <row r="253">
       <c r="A253" s="7"/>
@@ -38943,6 +39139,7 @@
       <c r="Y253" s="7"/>
       <c r="Z253" s="7"/>
       <c r="AA253" s="7"/>
+      <c r="AB253" s="7"/>
     </row>
     <row r="254">
       <c r="A254" s="7"/>
@@ -38972,6 +39169,7 @@
       <c r="Y254" s="7"/>
       <c r="Z254" s="7"/>
       <c r="AA254" s="7"/>
+      <c r="AB254" s="7"/>
     </row>
     <row r="255">
       <c r="A255" s="7"/>
@@ -39001,6 +39199,7 @@
       <c r="Y255" s="7"/>
       <c r="Z255" s="7"/>
       <c r="AA255" s="7"/>
+      <c r="AB255" s="7"/>
     </row>
     <row r="256">
       <c r="A256" s="7"/>
@@ -39030,6 +39229,7 @@
       <c r="Y256" s="7"/>
       <c r="Z256" s="7"/>
       <c r="AA256" s="7"/>
+      <c r="AB256" s="7"/>
     </row>
     <row r="257">
       <c r="A257" s="7"/>
@@ -39059,6 +39259,7 @@
       <c r="Y257" s="7"/>
       <c r="Z257" s="7"/>
       <c r="AA257" s="7"/>
+      <c r="AB257" s="7"/>
     </row>
     <row r="258">
       <c r="A258" s="7"/>
@@ -39088,6 +39289,7 @@
       <c r="Y258" s="7"/>
       <c r="Z258" s="7"/>
       <c r="AA258" s="7"/>
+      <c r="AB258" s="7"/>
     </row>
     <row r="259">
       <c r="A259" s="7"/>
@@ -39117,6 +39319,7 @@
       <c r="Y259" s="7"/>
       <c r="Z259" s="7"/>
       <c r="AA259" s="7"/>
+      <c r="AB259" s="7"/>
     </row>
     <row r="260">
       <c r="A260" s="7"/>
@@ -39146,6 +39349,7 @@
       <c r="Y260" s="7"/>
       <c r="Z260" s="7"/>
       <c r="AA260" s="7"/>
+      <c r="AB260" s="7"/>
     </row>
     <row r="261">
       <c r="A261" s="7"/>
@@ -39175,6 +39379,7 @@
       <c r="Y261" s="7"/>
       <c r="Z261" s="7"/>
       <c r="AA261" s="7"/>
+      <c r="AB261" s="7"/>
     </row>
     <row r="262">
       <c r="A262" s="7"/>
@@ -39204,6 +39409,7 @@
       <c r="Y262" s="7"/>
       <c r="Z262" s="7"/>
       <c r="AA262" s="7"/>
+      <c r="AB262" s="7"/>
     </row>
     <row r="263">
       <c r="A263" s="7"/>
@@ -39233,6 +39439,7 @@
       <c r="Y263" s="7"/>
       <c r="Z263" s="7"/>
       <c r="AA263" s="7"/>
+      <c r="AB263" s="7"/>
     </row>
     <row r="264">
       <c r="A264" s="7"/>
@@ -39262,6 +39469,7 @@
       <c r="Y264" s="7"/>
       <c r="Z264" s="7"/>
       <c r="AA264" s="7"/>
+      <c r="AB264" s="7"/>
     </row>
     <row r="265">
       <c r="A265" s="7"/>
@@ -39291,6 +39499,7 @@
       <c r="Y265" s="7"/>
       <c r="Z265" s="7"/>
       <c r="AA265" s="7"/>
+      <c r="AB265" s="7"/>
     </row>
     <row r="266">
       <c r="A266" s="7"/>
@@ -39320,6 +39529,7 @@
       <c r="Y266" s="7"/>
       <c r="Z266" s="7"/>
       <c r="AA266" s="7"/>
+      <c r="AB266" s="7"/>
     </row>
     <row r="267">
       <c r="A267" s="7"/>
@@ -39349,6 +39559,7 @@
       <c r="Y267" s="7"/>
       <c r="Z267" s="7"/>
       <c r="AA267" s="7"/>
+      <c r="AB267" s="7"/>
     </row>
     <row r="268">
       <c r="A268" s="7"/>
@@ -39378,6 +39589,7 @@
       <c r="Y268" s="7"/>
       <c r="Z268" s="7"/>
       <c r="AA268" s="7"/>
+      <c r="AB268" s="7"/>
     </row>
     <row r="269">
       <c r="A269" s="7"/>
@@ -39407,6 +39619,7 @@
       <c r="Y269" s="7"/>
       <c r="Z269" s="7"/>
       <c r="AA269" s="7"/>
+      <c r="AB269" s="7"/>
     </row>
     <row r="270">
       <c r="A270" s="7"/>
@@ -39436,6 +39649,7 @@
       <c r="Y270" s="7"/>
       <c r="Z270" s="7"/>
       <c r="AA270" s="7"/>
+      <c r="AB270" s="7"/>
     </row>
     <row r="271">
       <c r="A271" s="7"/>
@@ -39465,6 +39679,7 @@
       <c r="Y271" s="7"/>
       <c r="Z271" s="7"/>
       <c r="AA271" s="7"/>
+      <c r="AB271" s="7"/>
     </row>
     <row r="272">
       <c r="A272" s="7"/>
@@ -39494,6 +39709,7 @@
       <c r="Y272" s="7"/>
       <c r="Z272" s="7"/>
       <c r="AA272" s="7"/>
+      <c r="AB272" s="7"/>
     </row>
     <row r="273">
       <c r="A273" s="7"/>
@@ -39523,6 +39739,7 @@
       <c r="Y273" s="7"/>
       <c r="Z273" s="7"/>
       <c r="AA273" s="7"/>
+      <c r="AB273" s="7"/>
     </row>
     <row r="274">
       <c r="A274" s="7"/>
@@ -39552,6 +39769,7 @@
       <c r="Y274" s="7"/>
       <c r="Z274" s="7"/>
       <c r="AA274" s="7"/>
+      <c r="AB274" s="7"/>
     </row>
     <row r="275">
       <c r="A275" s="7"/>
@@ -39581,6 +39799,7 @@
       <c r="Y275" s="7"/>
       <c r="Z275" s="7"/>
       <c r="AA275" s="7"/>
+      <c r="AB275" s="7"/>
     </row>
     <row r="276">
       <c r="A276" s="7"/>
@@ -39610,6 +39829,7 @@
       <c r="Y276" s="7"/>
       <c r="Z276" s="7"/>
       <c r="AA276" s="7"/>
+      <c r="AB276" s="7"/>
     </row>
     <row r="277">
       <c r="A277" s="7"/>
@@ -39639,6 +39859,7 @@
       <c r="Y277" s="7"/>
       <c r="Z277" s="7"/>
       <c r="AA277" s="7"/>
+      <c r="AB277" s="7"/>
     </row>
     <row r="278">
       <c r="A278" s="7"/>
@@ -39668,6 +39889,7 @@
       <c r="Y278" s="7"/>
       <c r="Z278" s="7"/>
       <c r="AA278" s="7"/>
+      <c r="AB278" s="7"/>
     </row>
     <row r="279">
       <c r="A279" s="7"/>
@@ -39697,6 +39919,7 @@
       <c r="Y279" s="7"/>
       <c r="Z279" s="7"/>
       <c r="AA279" s="7"/>
+      <c r="AB279" s="7"/>
     </row>
     <row r="280">
       <c r="A280" s="7"/>
@@ -39726,6 +39949,7 @@
       <c r="Y280" s="7"/>
       <c r="Z280" s="7"/>
       <c r="AA280" s="7"/>
+      <c r="AB280" s="7"/>
     </row>
     <row r="281">
       <c r="A281" s="7"/>
@@ -39755,6 +39979,7 @@
       <c r="Y281" s="7"/>
       <c r="Z281" s="7"/>
       <c r="AA281" s="7"/>
+      <c r="AB281" s="7"/>
     </row>
     <row r="282">
       <c r="A282" s="7"/>
@@ -39784,6 +40009,7 @@
       <c r="Y282" s="7"/>
       <c r="Z282" s="7"/>
       <c r="AA282" s="7"/>
+      <c r="AB282" s="7"/>
     </row>
     <row r="283">
       <c r="A283" s="7"/>
@@ -39813,6 +40039,7 @@
       <c r="Y283" s="7"/>
       <c r="Z283" s="7"/>
       <c r="AA283" s="7"/>
+      <c r="AB283" s="7"/>
     </row>
     <row r="284">
       <c r="A284" s="7"/>
@@ -39842,6 +40069,7 @@
       <c r="Y284" s="7"/>
       <c r="Z284" s="7"/>
       <c r="AA284" s="7"/>
+      <c r="AB284" s="7"/>
     </row>
     <row r="285">
       <c r="A285" s="7"/>
@@ -39871,6 +40099,7 @@
       <c r="Y285" s="7"/>
       <c r="Z285" s="7"/>
       <c r="AA285" s="7"/>
+      <c r="AB285" s="7"/>
     </row>
     <row r="286">
       <c r="A286" s="7"/>
@@ -39900,6 +40129,7 @@
       <c r="Y286" s="7"/>
       <c r="Z286" s="7"/>
       <c r="AA286" s="7"/>
+      <c r="AB286" s="7"/>
     </row>
     <row r="287">
       <c r="A287" s="7"/>
@@ -39929,6 +40159,7 @@
       <c r="Y287" s="7"/>
       <c r="Z287" s="7"/>
       <c r="AA287" s="7"/>
+      <c r="AB287" s="7"/>
     </row>
     <row r="288">
       <c r="A288" s="7"/>
@@ -39958,6 +40189,7 @@
       <c r="Y288" s="7"/>
       <c r="Z288" s="7"/>
       <c r="AA288" s="7"/>
+      <c r="AB288" s="7"/>
     </row>
     <row r="289">
       <c r="A289" s="7"/>
@@ -39987,6 +40219,7 @@
       <c r="Y289" s="7"/>
       <c r="Z289" s="7"/>
       <c r="AA289" s="7"/>
+      <c r="AB289" s="7"/>
     </row>
     <row r="290">
       <c r="A290" s="7"/>
@@ -40016,6 +40249,7 @@
       <c r="Y290" s="7"/>
       <c r="Z290" s="7"/>
       <c r="AA290" s="7"/>
+      <c r="AB290" s="7"/>
     </row>
     <row r="291">
       <c r="A291" s="7"/>
@@ -40045,6 +40279,7 @@
       <c r="Y291" s="7"/>
       <c r="Z291" s="7"/>
       <c r="AA291" s="7"/>
+      <c r="AB291" s="7"/>
     </row>
     <row r="292">
       <c r="A292" s="7"/>
@@ -40074,6 +40309,7 @@
       <c r="Y292" s="7"/>
       <c r="Z292" s="7"/>
       <c r="AA292" s="7"/>
+      <c r="AB292" s="7"/>
     </row>
     <row r="293">
       <c r="A293" s="7"/>
@@ -40103,6 +40339,7 @@
       <c r="Y293" s="7"/>
       <c r="Z293" s="7"/>
       <c r="AA293" s="7"/>
+      <c r="AB293" s="7"/>
     </row>
     <row r="294">
       <c r="A294" s="7"/>
@@ -40132,6 +40369,7 @@
       <c r="Y294" s="7"/>
       <c r="Z294" s="7"/>
       <c r="AA294" s="7"/>
+      <c r="AB294" s="7"/>
     </row>
     <row r="295">
       <c r="A295" s="7"/>
@@ -40161,6 +40399,7 @@
       <c r="Y295" s="7"/>
       <c r="Z295" s="7"/>
       <c r="AA295" s="7"/>
+      <c r="AB295" s="7"/>
     </row>
     <row r="296">
       <c r="A296" s="7"/>
@@ -40190,6 +40429,7 @@
       <c r="Y296" s="7"/>
       <c r="Z296" s="7"/>
       <c r="AA296" s="7"/>
+      <c r="AB296" s="7"/>
     </row>
     <row r="297">
       <c r="A297" s="7"/>
@@ -40219,6 +40459,7 @@
       <c r="Y297" s="7"/>
       <c r="Z297" s="7"/>
       <c r="AA297" s="7"/>
+      <c r="AB297" s="7"/>
     </row>
     <row r="298">
       <c r="A298" s="7"/>
@@ -40248,6 +40489,7 @@
       <c r="Y298" s="7"/>
       <c r="Z298" s="7"/>
       <c r="AA298" s="7"/>
+      <c r="AB298" s="7"/>
     </row>
     <row r="299">
       <c r="A299" s="7"/>
@@ -40277,6 +40519,7 @@
       <c r="Y299" s="7"/>
       <c r="Z299" s="7"/>
       <c r="AA299" s="7"/>
+      <c r="AB299" s="7"/>
     </row>
     <row r="300">
       <c r="A300" s="7"/>
@@ -40306,6 +40549,7 @@
       <c r="Y300" s="7"/>
       <c r="Z300" s="7"/>
       <c r="AA300" s="7"/>
+      <c r="AB300" s="7"/>
     </row>
     <row r="301">
       <c r="A301" s="7"/>
@@ -40335,6 +40579,7 @@
       <c r="Y301" s="7"/>
       <c r="Z301" s="7"/>
       <c r="AA301" s="7"/>
+      <c r="AB301" s="7"/>
     </row>
     <row r="302">
       <c r="A302" s="7"/>
@@ -40364,6 +40609,7 @@
       <c r="Y302" s="7"/>
       <c r="Z302" s="7"/>
       <c r="AA302" s="7"/>
+      <c r="AB302" s="7"/>
     </row>
     <row r="303">
       <c r="A303" s="7"/>
@@ -40393,6 +40639,7 @@
       <c r="Y303" s="7"/>
       <c r="Z303" s="7"/>
       <c r="AA303" s="7"/>
+      <c r="AB303" s="7"/>
     </row>
     <row r="304">
       <c r="A304" s="7"/>
@@ -40422,6 +40669,7 @@
       <c r="Y304" s="7"/>
       <c r="Z304" s="7"/>
       <c r="AA304" s="7"/>
+      <c r="AB304" s="7"/>
     </row>
     <row r="305">
       <c r="A305" s="7"/>
@@ -40451,6 +40699,7 @@
       <c r="Y305" s="7"/>
       <c r="Z305" s="7"/>
       <c r="AA305" s="7"/>
+      <c r="AB305" s="7"/>
     </row>
     <row r="306">
       <c r="A306" s="7"/>
@@ -40480,6 +40729,7 @@
       <c r="Y306" s="7"/>
       <c r="Z306" s="7"/>
       <c r="AA306" s="7"/>
+      <c r="AB306" s="7"/>
     </row>
     <row r="307">
       <c r="A307" s="7"/>
@@ -40509,6 +40759,7 @@
       <c r="Y307" s="7"/>
       <c r="Z307" s="7"/>
       <c r="AA307" s="7"/>
+      <c r="AB307" s="7"/>
     </row>
     <row r="308">
       <c r="A308" s="7"/>
@@ -40538,6 +40789,7 @@
       <c r="Y308" s="7"/>
       <c r="Z308" s="7"/>
       <c r="AA308" s="7"/>
+      <c r="AB308" s="7"/>
     </row>
     <row r="309">
       <c r="A309" s="7"/>
@@ -40567,6 +40819,7 @@
       <c r="Y309" s="7"/>
       <c r="Z309" s="7"/>
       <c r="AA309" s="7"/>
+      <c r="AB309" s="7"/>
     </row>
     <row r="310">
       <c r="A310" s="7"/>
@@ -40596,6 +40849,7 @@
       <c r="Y310" s="7"/>
       <c r="Z310" s="7"/>
       <c r="AA310" s="7"/>
+      <c r="AB310" s="7"/>
     </row>
     <row r="311">
       <c r="A311" s="7"/>
@@ -40625,6 +40879,7 @@
       <c r="Y311" s="7"/>
       <c r="Z311" s="7"/>
       <c r="AA311" s="7"/>
+      <c r="AB311" s="7"/>
     </row>
     <row r="312">
       <c r="A312" s="7"/>
@@ -40654,6 +40909,7 @@
       <c r="Y312" s="7"/>
       <c r="Z312" s="7"/>
       <c r="AA312" s="7"/>
+      <c r="AB312" s="7"/>
     </row>
     <row r="313">
       <c r="A313" s="7"/>
@@ -40683,6 +40939,7 @@
       <c r="Y313" s="7"/>
       <c r="Z313" s="7"/>
       <c r="AA313" s="7"/>
+      <c r="AB313" s="7"/>
     </row>
     <row r="314">
       <c r="A314" s="7"/>
@@ -40712,6 +40969,7 @@
       <c r="Y314" s="7"/>
       <c r="Z314" s="7"/>
       <c r="AA314" s="7"/>
+      <c r="AB314" s="7"/>
     </row>
     <row r="315">
       <c r="A315" s="7"/>
@@ -40741,6 +40999,7 @@
       <c r="Y315" s="7"/>
       <c r="Z315" s="7"/>
       <c r="AA315" s="7"/>
+      <c r="AB315" s="7"/>
     </row>
     <row r="316">
       <c r="A316" s="7"/>
@@ -40770,6 +41029,7 @@
       <c r="Y316" s="7"/>
       <c r="Z316" s="7"/>
       <c r="AA316" s="7"/>
+      <c r="AB316" s="7"/>
     </row>
     <row r="317">
       <c r="A317" s="7"/>
@@ -40799,6 +41059,7 @@
       <c r="Y317" s="7"/>
       <c r="Z317" s="7"/>
       <c r="AA317" s="7"/>
+      <c r="AB317" s="7"/>
     </row>
     <row r="318">
       <c r="A318" s="7"/>
@@ -40828,6 +41089,7 @@
       <c r="Y318" s="7"/>
       <c r="Z318" s="7"/>
       <c r="AA318" s="7"/>
+      <c r="AB318" s="7"/>
     </row>
     <row r="319">
       <c r="A319" s="7"/>
@@ -40857,6 +41119,7 @@
       <c r="Y319" s="7"/>
       <c r="Z319" s="7"/>
       <c r="AA319" s="7"/>
+      <c r="AB319" s="7"/>
     </row>
     <row r="320">
       <c r="A320" s="7"/>
@@ -40886,6 +41149,7 @@
       <c r="Y320" s="7"/>
       <c r="Z320" s="7"/>
       <c r="AA320" s="7"/>
+      <c r="AB320" s="7"/>
     </row>
     <row r="321">
       <c r="A321" s="7"/>
@@ -40915,6 +41179,7 @@
       <c r="Y321" s="7"/>
       <c r="Z321" s="7"/>
       <c r="AA321" s="7"/>
+      <c r="AB321" s="7"/>
     </row>
     <row r="322">
       <c r="A322" s="7"/>
@@ -40944,6 +41209,7 @@
       <c r="Y322" s="7"/>
       <c r="Z322" s="7"/>
       <c r="AA322" s="7"/>
+      <c r="AB322" s="7"/>
     </row>
     <row r="323">
       <c r="A323" s="7"/>
@@ -40973,6 +41239,7 @@
       <c r="Y323" s="7"/>
       <c r="Z323" s="7"/>
       <c r="AA323" s="7"/>
+      <c r="AB323" s="7"/>
     </row>
     <row r="324">
       <c r="A324" s="7"/>
@@ -41002,6 +41269,7 @@
       <c r="Y324" s="7"/>
       <c r="Z324" s="7"/>
       <c r="AA324" s="7"/>
+      <c r="AB324" s="7"/>
     </row>
     <row r="325">
       <c r="A325" s="7"/>
@@ -41031,6 +41299,7 @@
       <c r="Y325" s="7"/>
       <c r="Z325" s="7"/>
       <c r="AA325" s="7"/>
+      <c r="AB325" s="7"/>
     </row>
     <row r="326">
       <c r="A326" s="7"/>
@@ -41060,6 +41329,7 @@
       <c r="Y326" s="7"/>
       <c r="Z326" s="7"/>
       <c r="AA326" s="7"/>
+      <c r="AB326" s="7"/>
     </row>
     <row r="327">
       <c r="A327" s="7"/>
@@ -41089,6 +41359,7 @@
       <c r="Y327" s="7"/>
       <c r="Z327" s="7"/>
       <c r="AA327" s="7"/>
+      <c r="AB327" s="7"/>
     </row>
     <row r="328">
       <c r="A328" s="7"/>
@@ -41118,6 +41389,7 @@
       <c r="Y328" s="7"/>
       <c r="Z328" s="7"/>
       <c r="AA328" s="7"/>
+      <c r="AB328" s="7"/>
     </row>
     <row r="329">
       <c r="A329" s="7"/>
@@ -41147,6 +41419,7 @@
       <c r="Y329" s="7"/>
       <c r="Z329" s="7"/>
       <c r="AA329" s="7"/>
+      <c r="AB329" s="7"/>
     </row>
     <row r="330">
       <c r="A330" s="7"/>
@@ -41176,6 +41449,7 @@
       <c r="Y330" s="7"/>
       <c r="Z330" s="7"/>
       <c r="AA330" s="7"/>
+      <c r="AB330" s="7"/>
     </row>
     <row r="331">
       <c r="A331" s="7"/>
@@ -41205,6 +41479,7 @@
       <c r="Y331" s="7"/>
       <c r="Z331" s="7"/>
       <c r="AA331" s="7"/>
+      <c r="AB331" s="7"/>
     </row>
     <row r="332">
       <c r="A332" s="7"/>
@@ -41234,6 +41509,7 @@
       <c r="Y332" s="7"/>
       <c r="Z332" s="7"/>
       <c r="AA332" s="7"/>
+      <c r="AB332" s="7"/>
     </row>
     <row r="333">
       <c r="A333" s="7"/>
@@ -41263,6 +41539,7 @@
       <c r="Y333" s="7"/>
       <c r="Z333" s="7"/>
       <c r="AA333" s="7"/>
+      <c r="AB333" s="7"/>
     </row>
     <row r="334">
       <c r="A334" s="7"/>
@@ -41292,6 +41569,7 @@
       <c r="Y334" s="7"/>
       <c r="Z334" s="7"/>
       <c r="AA334" s="7"/>
+      <c r="AB334" s="7"/>
     </row>
     <row r="335">
       <c r="A335" s="7"/>
@@ -41321,6 +41599,7 @@
       <c r="Y335" s="7"/>
       <c r="Z335" s="7"/>
       <c r="AA335" s="7"/>
+      <c r="AB335" s="7"/>
     </row>
     <row r="336">
       <c r="A336" s="7"/>
@@ -41350,6 +41629,7 @@
       <c r="Y336" s="7"/>
       <c r="Z336" s="7"/>
       <c r="AA336" s="7"/>
+      <c r="AB336" s="7"/>
     </row>
     <row r="337">
       <c r="A337" s="7"/>
@@ -41379,6 +41659,7 @@
       <c r="Y337" s="7"/>
       <c r="Z337" s="7"/>
       <c r="AA337" s="7"/>
+      <c r="AB337" s="7"/>
     </row>
     <row r="338">
       <c r="A338" s="7"/>
@@ -41408,6 +41689,7 @@
       <c r="Y338" s="7"/>
       <c r="Z338" s="7"/>
       <c r="AA338" s="7"/>
+      <c r="AB338" s="7"/>
     </row>
     <row r="339">
       <c r="A339" s="7"/>
@@ -41437,6 +41719,7 @@
       <c r="Y339" s="7"/>
       <c r="Z339" s="7"/>
       <c r="AA339" s="7"/>
+      <c r="AB339" s="7"/>
     </row>
     <row r="340">
       <c r="A340" s="7"/>
@@ -41466,6 +41749,7 @@
       <c r="Y340" s="7"/>
       <c r="Z340" s="7"/>
       <c r="AA340" s="7"/>
+      <c r="AB340" s="7"/>
     </row>
     <row r="341">
       <c r="A341" s="7"/>
@@ -41495,6 +41779,7 @@
       <c r="Y341" s="7"/>
       <c r="Z341" s="7"/>
       <c r="AA341" s="7"/>
+      <c r="AB341" s="7"/>
     </row>
     <row r="342">
       <c r="A342" s="7"/>
@@ -41524,6 +41809,7 @@
       <c r="Y342" s="7"/>
       <c r="Z342" s="7"/>
       <c r="AA342" s="7"/>
+      <c r="AB342" s="7"/>
     </row>
     <row r="343">
       <c r="A343" s="7"/>
@@ -41553,6 +41839,7 @@
       <c r="Y343" s="7"/>
       <c r="Z343" s="7"/>
       <c r="AA343" s="7"/>
+      <c r="AB343" s="7"/>
     </row>
     <row r="344">
       <c r="A344" s="7"/>
@@ -41582,6 +41869,7 @@
       <c r="Y344" s="7"/>
       <c r="Z344" s="7"/>
       <c r="AA344" s="7"/>
+      <c r="AB344" s="7"/>
     </row>
     <row r="345">
       <c r="A345" s="7"/>
@@ -41611,6 +41899,7 @@
       <c r="Y345" s="7"/>
       <c r="Z345" s="7"/>
       <c r="AA345" s="7"/>
+      <c r="AB345" s="7"/>
     </row>
     <row r="346">
       <c r="A346" s="7"/>
@@ -41640,6 +41929,7 @@
       <c r="Y346" s="7"/>
       <c r="Z346" s="7"/>
       <c r="AA346" s="7"/>
+      <c r="AB346" s="7"/>
     </row>
     <row r="347">
       <c r="A347" s="7"/>
@@ -41669,6 +41959,7 @@
       <c r="Y347" s="7"/>
       <c r="Z347" s="7"/>
       <c r="AA347" s="7"/>
+      <c r="AB347" s="7"/>
     </row>
     <row r="348">
       <c r="A348" s="7"/>
@@ -41698,6 +41989,7 @@
       <c r="Y348" s="7"/>
       <c r="Z348" s="7"/>
       <c r="AA348" s="7"/>
+      <c r="AB348" s="7"/>
     </row>
     <row r="349">
       <c r="A349" s="7"/>
@@ -41727,6 +42019,7 @@
       <c r="Y349" s="7"/>
       <c r="Z349" s="7"/>
       <c r="AA349" s="7"/>
+      <c r="AB349" s="7"/>
     </row>
     <row r="350">
       <c r="A350" s="7"/>
@@ -41756,6 +42049,7 @@
       <c r="Y350" s="7"/>
       <c r="Z350" s="7"/>
       <c r="AA350" s="7"/>
+      <c r="AB350" s="7"/>
     </row>
     <row r="351">
       <c r="A351" s="7"/>
@@ -41785,6 +42079,7 @@
       <c r="Y351" s="7"/>
       <c r="Z351" s="7"/>
       <c r="AA351" s="7"/>
+      <c r="AB351" s="7"/>
     </row>
     <row r="352">
       <c r="A352" s="7"/>
@@ -41814,6 +42109,7 @@
       <c r="Y352" s="7"/>
       <c r="Z352" s="7"/>
       <c r="AA352" s="7"/>
+      <c r="AB352" s="7"/>
     </row>
     <row r="353">
       <c r="A353" s="7"/>
@@ -41843,6 +42139,7 @@
       <c r="Y353" s="7"/>
       <c r="Z353" s="7"/>
       <c r="AA353" s="7"/>
+      <c r="AB353" s="7"/>
     </row>
     <row r="354">
       <c r="A354" s="7"/>
@@ -41872,6 +42169,7 @@
       <c r="Y354" s="7"/>
       <c r="Z354" s="7"/>
       <c r="AA354" s="7"/>
+      <c r="AB354" s="7"/>
     </row>
     <row r="355">
       <c r="A355" s="7"/>
@@ -41901,6 +42199,7 @@
       <c r="Y355" s="7"/>
       <c r="Z355" s="7"/>
       <c r="AA355" s="7"/>
+      <c r="AB355" s="7"/>
     </row>
     <row r="356">
       <c r="A356" s="7"/>
@@ -41930,6 +42229,7 @@
       <c r="Y356" s="7"/>
       <c r="Z356" s="7"/>
       <c r="AA356" s="7"/>
+      <c r="AB356" s="7"/>
     </row>
     <row r="357">
       <c r="A357" s="7"/>
@@ -41959,6 +42259,7 @@
       <c r="Y357" s="7"/>
       <c r="Z357" s="7"/>
       <c r="AA357" s="7"/>
+      <c r="AB357" s="7"/>
     </row>
     <row r="358">
       <c r="A358" s="7"/>
@@ -41988,6 +42289,7 @@
       <c r="Y358" s="7"/>
       <c r="Z358" s="7"/>
       <c r="AA358" s="7"/>
+      <c r="AB358" s="7"/>
     </row>
     <row r="359">
       <c r="A359" s="7"/>
@@ -42017,6 +42319,7 @@
       <c r="Y359" s="7"/>
       <c r="Z359" s="7"/>
       <c r="AA359" s="7"/>
+      <c r="AB359" s="7"/>
     </row>
     <row r="360">
       <c r="A360" s="7"/>
@@ -42046,6 +42349,7 @@
       <c r="Y360" s="7"/>
       <c r="Z360" s="7"/>
       <c r="AA360" s="7"/>
+      <c r="AB360" s="7"/>
     </row>
     <row r="361">
       <c r="A361" s="7"/>
@@ -42075,6 +42379,7 @@
       <c r="Y361" s="7"/>
       <c r="Z361" s="7"/>
       <c r="AA361" s="7"/>
+      <c r="AB361" s="7"/>
     </row>
     <row r="362">
       <c r="A362" s="7"/>
@@ -42104,6 +42409,7 @@
       <c r="Y362" s="7"/>
       <c r="Z362" s="7"/>
       <c r="AA362" s="7"/>
+      <c r="AB362" s="7"/>
     </row>
     <row r="363">
       <c r="A363" s="7"/>
@@ -42133,6 +42439,7 @@
       <c r="Y363" s="7"/>
       <c r="Z363" s="7"/>
       <c r="AA363" s="7"/>
+      <c r="AB363" s="7"/>
     </row>
     <row r="364">
       <c r="A364" s="7"/>
@@ -42162,6 +42469,7 @@
       <c r="Y364" s="7"/>
       <c r="Z364" s="7"/>
       <c r="AA364" s="7"/>
+      <c r="AB364" s="7"/>
     </row>
     <row r="365">
       <c r="A365" s="7"/>
@@ -42191,6 +42499,7 @@
       <c r="Y365" s="7"/>
       <c r="Z365" s="7"/>
       <c r="AA365" s="7"/>
+      <c r="AB365" s="7"/>
     </row>
     <row r="366">
       <c r="A366" s="7"/>
@@ -42220,6 +42529,7 @@
       <c r="Y366" s="7"/>
       <c r="Z366" s="7"/>
       <c r="AA366" s="7"/>
+      <c r="AB366" s="7"/>
     </row>
     <row r="367">
       <c r="A367" s="7"/>
@@ -42249,6 +42559,7 @@
       <c r="Y367" s="7"/>
       <c r="Z367" s="7"/>
       <c r="AA367" s="7"/>
+      <c r="AB367" s="7"/>
     </row>
     <row r="368">
       <c r="A368" s="7"/>
@@ -42278,6 +42589,7 @@
       <c r="Y368" s="7"/>
       <c r="Z368" s="7"/>
       <c r="AA368" s="7"/>
+      <c r="AB368" s="7"/>
     </row>
     <row r="369">
       <c r="A369" s="7"/>
@@ -42307,6 +42619,7 @@
       <c r="Y369" s="7"/>
       <c r="Z369" s="7"/>
       <c r="AA369" s="7"/>
+      <c r="AB369" s="7"/>
     </row>
     <row r="370">
       <c r="A370" s="7"/>
@@ -42336,6 +42649,7 @@
       <c r="Y370" s="7"/>
       <c r="Z370" s="7"/>
       <c r="AA370" s="7"/>
+      <c r="AB370" s="7"/>
     </row>
     <row r="371">
       <c r="A371" s="7"/>
@@ -42365,6 +42679,7 @@
       <c r="Y371" s="7"/>
       <c r="Z371" s="7"/>
       <c r="AA371" s="7"/>
+      <c r="AB371" s="7"/>
     </row>
     <row r="372">
       <c r="A372" s="7"/>
@@ -42394,6 +42709,7 @@
       <c r="Y372" s="7"/>
       <c r="Z372" s="7"/>
       <c r="AA372" s="7"/>
+      <c r="AB372" s="7"/>
     </row>
     <row r="373">
       <c r="A373" s="7"/>
@@ -42423,6 +42739,7 @@
       <c r="Y373" s="7"/>
       <c r="Z373" s="7"/>
       <c r="AA373" s="7"/>
+      <c r="AB373" s="7"/>
     </row>
     <row r="374">
       <c r="A374" s="7"/>
@@ -42452,6 +42769,7 @@
       <c r="Y374" s="7"/>
       <c r="Z374" s="7"/>
       <c r="AA374" s="7"/>
+      <c r="AB374" s="7"/>
     </row>
     <row r="375">
       <c r="A375" s="7"/>
@@ -42481,6 +42799,7 @@
       <c r="Y375" s="7"/>
       <c r="Z375" s="7"/>
       <c r="AA375" s="7"/>
+      <c r="AB375" s="7"/>
     </row>
     <row r="376">
       <c r="A376" s="7"/>
@@ -42510,6 +42829,7 @@
       <c r="Y376" s="7"/>
       <c r="Z376" s="7"/>
       <c r="AA376" s="7"/>
+      <c r="AB376" s="7"/>
     </row>
     <row r="377">
       <c r="A377" s="7"/>
@@ -42539,6 +42859,7 @@
       <c r="Y377" s="7"/>
       <c r="Z377" s="7"/>
       <c r="AA377" s="7"/>
+      <c r="AB377" s="7"/>
     </row>
     <row r="378">
       <c r="A378" s="7"/>
@@ -42568,6 +42889,7 @@
       <c r="Y378" s="7"/>
       <c r="Z378" s="7"/>
       <c r="AA378" s="7"/>
+      <c r="AB378" s="7"/>
     </row>
     <row r="379">
       <c r="A379" s="7"/>
@@ -42597,6 +42919,7 @@
       <c r="Y379" s="7"/>
       <c r="Z379" s="7"/>
       <c r="AA379" s="7"/>
+      <c r="AB379" s="7"/>
     </row>
     <row r="380">
       <c r="A380" s="7"/>
@@ -42626,6 +42949,7 @@
       <c r="Y380" s="7"/>
       <c r="Z380" s="7"/>
       <c r="AA380" s="7"/>
+      <c r="AB380" s="7"/>
     </row>
     <row r="381">
       <c r="A381" s="7"/>
@@ -42655,6 +42979,7 @@
       <c r="Y381" s="7"/>
       <c r="Z381" s="7"/>
       <c r="AA381" s="7"/>
+      <c r="AB381" s="7"/>
     </row>
     <row r="382">
       <c r="A382" s="7"/>
@@ -42684,6 +43009,7 @@
       <c r="Y382" s="7"/>
       <c r="Z382" s="7"/>
       <c r="AA382" s="7"/>
+      <c r="AB382" s="7"/>
     </row>
     <row r="383">
       <c r="A383" s="7"/>
@@ -42713,6 +43039,7 @@
       <c r="Y383" s="7"/>
       <c r="Z383" s="7"/>
       <c r="AA383" s="7"/>
+      <c r="AB383" s="7"/>
     </row>
     <row r="384">
       <c r="A384" s="7"/>
@@ -42742,6 +43069,7 @@
       <c r="Y384" s="7"/>
       <c r="Z384" s="7"/>
       <c r="AA384" s="7"/>
+      <c r="AB384" s="7"/>
     </row>
     <row r="385">
       <c r="A385" s="7"/>
@@ -42771,6 +43099,7 @@
       <c r="Y385" s="7"/>
       <c r="Z385" s="7"/>
       <c r="AA385" s="7"/>
+      <c r="AB385" s="7"/>
     </row>
     <row r="386">
       <c r="A386" s="7"/>
@@ -42800,6 +43129,7 @@
       <c r="Y386" s="7"/>
       <c r="Z386" s="7"/>
       <c r="AA386" s="7"/>
+      <c r="AB386" s="7"/>
     </row>
     <row r="387">
       <c r="A387" s="7"/>
@@ -42829,6 +43159,7 @@
       <c r="Y387" s="7"/>
       <c r="Z387" s="7"/>
       <c r="AA387" s="7"/>
+      <c r="AB387" s="7"/>
     </row>
     <row r="388">
       <c r="A388" s="7"/>
@@ -42858,6 +43189,7 @@
       <c r="Y388" s="7"/>
       <c r="Z388" s="7"/>
       <c r="AA388" s="7"/>
+      <c r="AB388" s="7"/>
     </row>
     <row r="389">
       <c r="A389" s="7"/>
@@ -42887,6 +43219,7 @@
       <c r="Y389" s="7"/>
       <c r="Z389" s="7"/>
       <c r="AA389" s="7"/>
+      <c r="AB389" s="7"/>
     </row>
     <row r="390">
       <c r="A390" s="7"/>
@@ -42916,6 +43249,7 @@
       <c r="Y390" s="7"/>
       <c r="Z390" s="7"/>
       <c r="AA390" s="7"/>
+      <c r="AB390" s="7"/>
     </row>
     <row r="391">
       <c r="A391" s="7"/>
@@ -42945,6 +43279,7 @@
       <c r="Y391" s="7"/>
       <c r="Z391" s="7"/>
       <c r="AA391" s="7"/>
+      <c r="AB391" s="7"/>
     </row>
     <row r="392">
       <c r="A392" s="7"/>
@@ -42974,6 +43309,7 @@
       <c r="Y392" s="7"/>
       <c r="Z392" s="7"/>
       <c r="AA392" s="7"/>
+      <c r="AB392" s="7"/>
     </row>
     <row r="393">
       <c r="A393" s="7"/>
@@ -43003,6 +43339,7 @@
       <c r="Y393" s="7"/>
       <c r="Z393" s="7"/>
       <c r="AA393" s="7"/>
+      <c r="AB393" s="7"/>
     </row>
     <row r="394">
       <c r="A394" s="7"/>
@@ -43032,6 +43369,7 @@
       <c r="Y394" s="7"/>
       <c r="Z394" s="7"/>
       <c r="AA394" s="7"/>
+      <c r="AB394" s="7"/>
     </row>
     <row r="395">
       <c r="A395" s="7"/>
@@ -43061,6 +43399,7 @@
       <c r="Y395" s="7"/>
       <c r="Z395" s="7"/>
       <c r="AA395" s="7"/>
+      <c r="AB395" s="7"/>
     </row>
     <row r="396">
       <c r="A396" s="7"/>
@@ -43090,6 +43429,7 @@
       <c r="Y396" s="7"/>
       <c r="Z396" s="7"/>
       <c r="AA396" s="7"/>
+      <c r="AB396" s="7"/>
     </row>
     <row r="397">
       <c r="A397" s="7"/>
@@ -43119,6 +43459,7 @@
       <c r="Y397" s="7"/>
       <c r="Z397" s="7"/>
       <c r="AA397" s="7"/>
+      <c r="AB397" s="7"/>
     </row>
     <row r="398">
       <c r="A398" s="7"/>
@@ -43148,6 +43489,7 @@
       <c r="Y398" s="7"/>
       <c r="Z398" s="7"/>
       <c r="AA398" s="7"/>
+      <c r="AB398" s="7"/>
     </row>
     <row r="399">
       <c r="A399" s="7"/>
@@ -43177,6 +43519,7 @@
       <c r="Y399" s="7"/>
       <c r="Z399" s="7"/>
       <c r="AA399" s="7"/>
+      <c r="AB399" s="7"/>
     </row>
     <row r="400">
       <c r="A400" s="7"/>
@@ -43206,6 +43549,7 @@
       <c r="Y400" s="7"/>
       <c r="Z400" s="7"/>
       <c r="AA400" s="7"/>
+      <c r="AB400" s="7"/>
     </row>
     <row r="401">
       <c r="A401" s="7"/>
@@ -43235,6 +43579,7 @@
       <c r="Y401" s="7"/>
       <c r="Z401" s="7"/>
       <c r="AA401" s="7"/>
+      <c r="AB401" s="7"/>
     </row>
     <row r="402">
       <c r="A402" s="7"/>
@@ -43264,6 +43609,7 @@
       <c r="Y402" s="7"/>
       <c r="Z402" s="7"/>
       <c r="AA402" s="7"/>
+      <c r="AB402" s="7"/>
     </row>
     <row r="403">
       <c r="A403" s="7"/>
@@ -43293,6 +43639,7 @@
       <c r="Y403" s="7"/>
       <c r="Z403" s="7"/>
       <c r="AA403" s="7"/>
+      <c r="AB403" s="7"/>
     </row>
     <row r="404">
       <c r="A404" s="7"/>
@@ -43322,6 +43669,7 @@
       <c r="Y404" s="7"/>
       <c r="Z404" s="7"/>
       <c r="AA404" s="7"/>
+      <c r="AB404" s="7"/>
     </row>
     <row r="405">
       <c r="A405" s="7"/>
@@ -43351,6 +43699,7 @@
       <c r="Y405" s="7"/>
       <c r="Z405" s="7"/>
       <c r="AA405" s="7"/>
+      <c r="AB405" s="7"/>
     </row>
     <row r="406">
       <c r="A406" s="7"/>
@@ -43380,6 +43729,7 @@
       <c r="Y406" s="7"/>
       <c r="Z406" s="7"/>
       <c r="AA406" s="7"/>
+      <c r="AB406" s="7"/>
     </row>
     <row r="407">
       <c r="A407" s="7"/>
@@ -43409,6 +43759,7 @@
       <c r="Y407" s="7"/>
       <c r="Z407" s="7"/>
       <c r="AA407" s="7"/>
+      <c r="AB407" s="7"/>
     </row>
     <row r="408">
       <c r="A408" s="7"/>
@@ -43438,6 +43789,7 @@
       <c r="Y408" s="7"/>
       <c r="Z408" s="7"/>
       <c r="AA408" s="7"/>
+      <c r="AB408" s="7"/>
     </row>
     <row r="409">
       <c r="A409" s="7"/>
@@ -43467,6 +43819,7 @@
       <c r="Y409" s="7"/>
       <c r="Z409" s="7"/>
       <c r="AA409" s="7"/>
+      <c r="AB409" s="7"/>
     </row>
     <row r="410">
       <c r="A410" s="7"/>
@@ -43496,6 +43849,7 @@
       <c r="Y410" s="7"/>
       <c r="Z410" s="7"/>
       <c r="AA410" s="7"/>
+      <c r="AB410" s="7"/>
     </row>
     <row r="411">
       <c r="A411" s="7"/>
@@ -43525,6 +43879,7 @@
       <c r="Y411" s="7"/>
       <c r="Z411" s="7"/>
       <c r="AA411" s="7"/>
+      <c r="AB411" s="7"/>
     </row>
     <row r="412">
       <c r="A412" s="7"/>
@@ -43554,6 +43909,7 @@
       <c r="Y412" s="7"/>
       <c r="Z412" s="7"/>
       <c r="AA412" s="7"/>
+      <c r="AB412" s="7"/>
     </row>
     <row r="413">
       <c r="A413" s="7"/>
@@ -43583,6 +43939,7 @@
       <c r="Y413" s="7"/>
       <c r="Z413" s="7"/>
       <c r="AA413" s="7"/>
+      <c r="AB413" s="7"/>
     </row>
     <row r="414">
       <c r="A414" s="7"/>
@@ -43612,6 +43969,7 @@
       <c r="Y414" s="7"/>
       <c r="Z414" s="7"/>
       <c r="AA414" s="7"/>
+      <c r="AB414" s="7"/>
     </row>
     <row r="415">
       <c r="A415" s="7"/>
@@ -43641,6 +43999,7 @@
       <c r="Y415" s="7"/>
       <c r="Z415" s="7"/>
       <c r="AA415" s="7"/>
+      <c r="AB415" s="7"/>
     </row>
     <row r="416">
       <c r="A416" s="7"/>
@@ -43670,6 +44029,7 @@
       <c r="Y416" s="7"/>
       <c r="Z416" s="7"/>
       <c r="AA416" s="7"/>
+      <c r="AB416" s="7"/>
     </row>
     <row r="417">
       <c r="A417" s="7"/>
@@ -43699,6 +44059,7 @@
       <c r="Y417" s="7"/>
       <c r="Z417" s="7"/>
       <c r="AA417" s="7"/>
+      <c r="AB417" s="7"/>
     </row>
     <row r="418">
       <c r="A418" s="7"/>
@@ -43728,6 +44089,7 @@
       <c r="Y418" s="7"/>
       <c r="Z418" s="7"/>
       <c r="AA418" s="7"/>
+      <c r="AB418" s="7"/>
     </row>
     <row r="419">
       <c r="A419" s="7"/>
@@ -43757,6 +44119,7 @@
       <c r="Y419" s="7"/>
       <c r="Z419" s="7"/>
       <c r="AA419" s="7"/>
+      <c r="AB419" s="7"/>
     </row>
     <row r="420">
       <c r="A420" s="7"/>
@@ -43786,6 +44149,7 @@
       <c r="Y420" s="7"/>
       <c r="Z420" s="7"/>
       <c r="AA420" s="7"/>
+      <c r="AB420" s="7"/>
     </row>
     <row r="421">
       <c r="A421" s="7"/>
@@ -43815,6 +44179,7 @@
       <c r="Y421" s="7"/>
       <c r="Z421" s="7"/>
       <c r="AA421" s="7"/>
+      <c r="AB421" s="7"/>
     </row>
     <row r="422">
       <c r="A422" s="7"/>
@@ -43844,6 +44209,7 @@
       <c r="Y422" s="7"/>
       <c r="Z422" s="7"/>
       <c r="AA422" s="7"/>
+      <c r="AB422" s="7"/>
     </row>
     <row r="423">
       <c r="A423" s="7"/>
@@ -43873,6 +44239,7 @@
       <c r="Y423" s="7"/>
       <c r="Z423" s="7"/>
       <c r="AA423" s="7"/>
+      <c r="AB423" s="7"/>
     </row>
     <row r="424">
       <c r="A424" s="7"/>
@@ -43902,6 +44269,7 @@
       <c r="Y424" s="7"/>
       <c r="Z424" s="7"/>
       <c r="AA424" s="7"/>
+      <c r="AB424" s="7"/>
     </row>
     <row r="425">
       <c r="A425" s="7"/>
@@ -43931,6 +44299,7 @@
       <c r="Y425" s="7"/>
       <c r="Z425" s="7"/>
       <c r="AA425" s="7"/>
+      <c r="AB425" s="7"/>
     </row>
     <row r="426">
       <c r="A426" s="7"/>
@@ -43960,6 +44329,7 @@
       <c r="Y426" s="7"/>
       <c r="Z426" s="7"/>
       <c r="AA426" s="7"/>
+      <c r="AB426" s="7"/>
     </row>
     <row r="427">
       <c r="A427" s="7"/>
@@ -43989,6 +44359,7 @@
       <c r="Y427" s="7"/>
       <c r="Z427" s="7"/>
       <c r="AA427" s="7"/>
+      <c r="AB427" s="7"/>
     </row>
     <row r="428">
       <c r="A428" s="7"/>
@@ -44018,6 +44389,7 @@
       <c r="Y428" s="7"/>
       <c r="Z428" s="7"/>
       <c r="AA428" s="7"/>
+      <c r="AB428" s="7"/>
     </row>
     <row r="429">
       <c r="A429" s="7"/>
@@ -44047,6 +44419,7 @@
       <c r="Y429" s="7"/>
       <c r="Z429" s="7"/>
       <c r="AA429" s="7"/>
+      <c r="AB429" s="7"/>
     </row>
     <row r="430">
       <c r="A430" s="7"/>
@@ -44076,6 +44449,7 @@
       <c r="Y430" s="7"/>
       <c r="Z430" s="7"/>
       <c r="AA430" s="7"/>
+      <c r="AB430" s="7"/>
     </row>
     <row r="431">
       <c r="A431" s="7"/>
@@ -44105,6 +44479,7 @@
       <c r="Y431" s="7"/>
       <c r="Z431" s="7"/>
       <c r="AA431" s="7"/>
+      <c r="AB431" s="7"/>
     </row>
     <row r="432">
       <c r="A432" s="7"/>
@@ -44134,6 +44509,7 @@
       <c r="Y432" s="7"/>
       <c r="Z432" s="7"/>
       <c r="AA432" s="7"/>
+      <c r="AB432" s="7"/>
     </row>
     <row r="433">
       <c r="A433" s="7"/>
@@ -44163,6 +44539,7 @@
       <c r="Y433" s="7"/>
       <c r="Z433" s="7"/>
       <c r="AA433" s="7"/>
+      <c r="AB433" s="7"/>
     </row>
     <row r="434">
       <c r="A434" s="7"/>
@@ -44192,6 +44569,7 @@
       <c r="Y434" s="7"/>
       <c r="Z434" s="7"/>
       <c r="AA434" s="7"/>
+      <c r="AB434" s="7"/>
     </row>
     <row r="435">
       <c r="A435" s="7"/>
@@ -44221,6 +44599,7 @@
       <c r="Y435" s="7"/>
       <c r="Z435" s="7"/>
       <c r="AA435" s="7"/>
+      <c r="AB435" s="7"/>
     </row>
     <row r="436">
       <c r="A436" s="7"/>
@@ -44250,6 +44629,7 @@
       <c r="Y436" s="7"/>
       <c r="Z436" s="7"/>
       <c r="AA436" s="7"/>
+      <c r="AB436" s="7"/>
     </row>
     <row r="437">
       <c r="A437" s="7"/>
@@ -44279,6 +44659,7 @@
       <c r="Y437" s="7"/>
       <c r="Z437" s="7"/>
       <c r="AA437" s="7"/>
+      <c r="AB437" s="7"/>
     </row>
     <row r="438">
       <c r="A438" s="7"/>
@@ -44308,6 +44689,7 @@
       <c r="Y438" s="7"/>
       <c r="Z438" s="7"/>
       <c r="AA438" s="7"/>
+      <c r="AB438" s="7"/>
     </row>
     <row r="439">
       <c r="A439" s="7"/>
@@ -44337,6 +44719,7 @@
       <c r="Y439" s="7"/>
       <c r="Z439" s="7"/>
       <c r="AA439" s="7"/>
+      <c r="AB439" s="7"/>
     </row>
     <row r="440">
       <c r="A440" s="7"/>
@@ -44366,6 +44749,7 @@
       <c r="Y440" s="7"/>
       <c r="Z440" s="7"/>
       <c r="AA440" s="7"/>
+      <c r="AB440" s="7"/>
     </row>
     <row r="441">
       <c r="A441" s="7"/>
@@ -44395,6 +44779,7 @@
       <c r="Y441" s="7"/>
       <c r="Z441" s="7"/>
       <c r="AA441" s="7"/>
+      <c r="AB441" s="7"/>
     </row>
     <row r="442">
       <c r="A442" s="7"/>
@@ -44424,6 +44809,7 @@
       <c r="Y442" s="7"/>
       <c r="Z442" s="7"/>
       <c r="AA442" s="7"/>
+      <c r="AB442" s="7"/>
     </row>
     <row r="443">
       <c r="A443" s="7"/>
@@ -44453,6 +44839,7 @@
       <c r="Y443" s="7"/>
       <c r="Z443" s="7"/>
       <c r="AA443" s="7"/>
+      <c r="AB443" s="7"/>
     </row>
     <row r="444">
       <c r="A444" s="7"/>
@@ -44482,6 +44869,7 @@
       <c r="Y444" s="7"/>
       <c r="Z444" s="7"/>
       <c r="AA444" s="7"/>
+      <c r="AB444" s="7"/>
     </row>
     <row r="445">
       <c r="A445" s="7"/>
@@ -44511,6 +44899,7 @@
       <c r="Y445" s="7"/>
       <c r="Z445" s="7"/>
       <c r="AA445" s="7"/>
+      <c r="AB445" s="7"/>
     </row>
     <row r="446">
       <c r="A446" s="7"/>
@@ -44540,6 +44929,7 @@
       <c r="Y446" s="7"/>
       <c r="Z446" s="7"/>
       <c r="AA446" s="7"/>
+      <c r="AB446" s="7"/>
     </row>
     <row r="447">
       <c r="A447" s="7"/>
@@ -44569,6 +44959,7 @@
       <c r="Y447" s="7"/>
       <c r="Z447" s="7"/>
       <c r="AA447" s="7"/>
+      <c r="AB447" s="7"/>
     </row>
     <row r="448">
       <c r="A448" s="7"/>
@@ -44598,6 +44989,7 @@
       <c r="Y448" s="7"/>
       <c r="Z448" s="7"/>
       <c r="AA448" s="7"/>
+      <c r="AB448" s="7"/>
     </row>
     <row r="449">
       <c r="A449" s="7"/>
@@ -44627,6 +45019,7 @@
       <c r="Y449" s="7"/>
       <c r="Z449" s="7"/>
       <c r="AA449" s="7"/>
+      <c r="AB449" s="7"/>
     </row>
     <row r="450">
       <c r="A450" s="7"/>
@@ -44656,6 +45049,7 @@
       <c r="Y450" s="7"/>
       <c r="Z450" s="7"/>
       <c r="AA450" s="7"/>
+      <c r="AB450" s="7"/>
     </row>
     <row r="451">
       <c r="A451" s="7"/>
@@ -44685,6 +45079,7 @@
       <c r="Y451" s="7"/>
       <c r="Z451" s="7"/>
       <c r="AA451" s="7"/>
+      <c r="AB451" s="7"/>
     </row>
     <row r="452">
       <c r="A452" s="7"/>
@@ -44714,6 +45109,7 @@
       <c r="Y452" s="7"/>
       <c r="Z452" s="7"/>
       <c r="AA452" s="7"/>
+      <c r="AB452" s="7"/>
     </row>
     <row r="453">
       <c r="A453" s="7"/>
@@ -44743,6 +45139,7 @@
       <c r="Y453" s="7"/>
       <c r="Z453" s="7"/>
       <c r="AA453" s="7"/>
+      <c r="AB453" s="7"/>
     </row>
     <row r="454">
       <c r="A454" s="7"/>
@@ -44772,6 +45169,7 @@
       <c r="Y454" s="7"/>
       <c r="Z454" s="7"/>
       <c r="AA454" s="7"/>
+      <c r="AB454" s="7"/>
     </row>
     <row r="455">
       <c r="A455" s="7"/>
@@ -44801,6 +45199,7 @@
       <c r="Y455" s="7"/>
       <c r="Z455" s="7"/>
       <c r="AA455" s="7"/>
+      <c r="AB455" s="7"/>
     </row>
     <row r="456">
       <c r="A456" s="7"/>
@@ -44830,6 +45229,7 @@
       <c r="Y456" s="7"/>
       <c r="Z456" s="7"/>
       <c r="AA456" s="7"/>
+      <c r="AB456" s="7"/>
     </row>
     <row r="457">
       <c r="A457" s="7"/>
@@ -44859,6 +45259,7 @@
       <c r="Y457" s="7"/>
       <c r="Z457" s="7"/>
       <c r="AA457" s="7"/>
+      <c r="AB457" s="7"/>
     </row>
     <row r="458">
       <c r="A458" s="7"/>
@@ -44888,6 +45289,7 @@
       <c r="Y458" s="7"/>
       <c r="Z458" s="7"/>
       <c r="AA458" s="7"/>
+      <c r="AB458" s="7"/>
     </row>
     <row r="459">
       <c r="A459" s="7"/>
@@ -44917,6 +45319,7 @@
       <c r="Y459" s="7"/>
       <c r="Z459" s="7"/>
       <c r="AA459" s="7"/>
+      <c r="AB459" s="7"/>
     </row>
     <row r="460">
       <c r="A460" s="7"/>
@@ -44946,6 +45349,7 @@
       <c r="Y460" s="7"/>
       <c r="Z460" s="7"/>
       <c r="AA460" s="7"/>
+      <c r="AB460" s="7"/>
     </row>
     <row r="461">
       <c r="A461" s="7"/>
@@ -44975,6 +45379,7 @@
       <c r="Y461" s="7"/>
       <c r="Z461" s="7"/>
       <c r="AA461" s="7"/>
+      <c r="AB461" s="7"/>
     </row>
     <row r="462">
       <c r="A462" s="7"/>
@@ -45004,6 +45409,7 @@
       <c r="Y462" s="7"/>
       <c r="Z462" s="7"/>
       <c r="AA462" s="7"/>
+      <c r="AB462" s="7"/>
     </row>
     <row r="463">
       <c r="A463" s="7"/>
@@ -45033,6 +45439,7 @@
       <c r="Y463" s="7"/>
       <c r="Z463" s="7"/>
       <c r="AA463" s="7"/>
+      <c r="AB463" s="7"/>
     </row>
     <row r="464">
       <c r="A464" s="7"/>
@@ -45062,6 +45469,7 @@
       <c r="Y464" s="7"/>
       <c r="Z464" s="7"/>
       <c r="AA464" s="7"/>
+      <c r="AB464" s="7"/>
     </row>
     <row r="465">
       <c r="A465" s="7"/>
@@ -45091,6 +45499,7 @@
       <c r="Y465" s="7"/>
       <c r="Z465" s="7"/>
       <c r="AA465" s="7"/>
+      <c r="AB465" s="7"/>
     </row>
     <row r="466">
       <c r="A466" s="7"/>
@@ -45120,6 +45529,7 @@
       <c r="Y466" s="7"/>
       <c r="Z466" s="7"/>
       <c r="AA466" s="7"/>
+      <c r="AB466" s="7"/>
     </row>
     <row r="467">
       <c r="A467" s="7"/>
@@ -45149,6 +45559,7 @@
       <c r="Y467" s="7"/>
       <c r="Z467" s="7"/>
       <c r="AA467" s="7"/>
+      <c r="AB467" s="7"/>
     </row>
     <row r="468">
       <c r="A468" s="7"/>
@@ -45178,6 +45589,7 @@
       <c r="Y468" s="7"/>
       <c r="Z468" s="7"/>
       <c r="AA468" s="7"/>
+      <c r="AB468" s="7"/>
     </row>
     <row r="469">
       <c r="A469" s="7"/>
@@ -45207,6 +45619,7 @@
       <c r="Y469" s="7"/>
       <c r="Z469" s="7"/>
       <c r="AA469" s="7"/>
+      <c r="AB469" s="7"/>
     </row>
     <row r="470">
       <c r="A470" s="7"/>
@@ -45236,6 +45649,7 @@
       <c r="Y470" s="7"/>
       <c r="Z470" s="7"/>
       <c r="AA470" s="7"/>
+      <c r="AB470" s="7"/>
     </row>
     <row r="471">
       <c r="A471" s="7"/>
@@ -45265,6 +45679,7 @@
       <c r="Y471" s="7"/>
       <c r="Z471" s="7"/>
       <c r="AA471" s="7"/>
+      <c r="AB471" s="7"/>
     </row>
     <row r="472">
       <c r="A472" s="7"/>
@@ -45294,6 +45709,7 @@
       <c r="Y472" s="7"/>
       <c r="Z472" s="7"/>
       <c r="AA472" s="7"/>
+      <c r="AB472" s="7"/>
     </row>
     <row r="473">
       <c r="A473" s="7"/>
@@ -45323,6 +45739,7 @@
       <c r="Y473" s="7"/>
       <c r="Z473" s="7"/>
       <c r="AA473" s="7"/>
+      <c r="AB473" s="7"/>
     </row>
     <row r="474">
       <c r="A474" s="7"/>
@@ -45352,6 +45769,7 @@
       <c r="Y474" s="7"/>
       <c r="Z474" s="7"/>
       <c r="AA474" s="7"/>
+      <c r="AB474" s="7"/>
     </row>
     <row r="475">
       <c r="A475" s="7"/>
@@ -45381,6 +45799,7 @@
       <c r="Y475" s="7"/>
       <c r="Z475" s="7"/>
       <c r="AA475" s="7"/>
+      <c r="AB475" s="7"/>
     </row>
     <row r="476">
       <c r="A476" s="7"/>
@@ -45410,6 +45829,7 @@
       <c r="Y476" s="7"/>
       <c r="Z476" s="7"/>
       <c r="AA476" s="7"/>
+      <c r="AB476" s="7"/>
     </row>
     <row r="477">
       <c r="A477" s="7"/>
@@ -45439,6 +45859,7 @@
       <c r="Y477" s="7"/>
       <c r="Z477" s="7"/>
       <c r="AA477" s="7"/>
+      <c r="AB477" s="7"/>
     </row>
     <row r="478">
       <c r="A478" s="7"/>
@@ -45468,6 +45889,7 @@
       <c r="Y478" s="7"/>
       <c r="Z478" s="7"/>
       <c r="AA478" s="7"/>
+      <c r="AB478" s="7"/>
     </row>
     <row r="479">
       <c r="A479" s="7"/>
@@ -45497,6 +45919,7 @@
       <c r="Y479" s="7"/>
       <c r="Z479" s="7"/>
       <c r="AA479" s="7"/>
+      <c r="AB479" s="7"/>
     </row>
     <row r="480">
       <c r="A480" s="7"/>
@@ -45526,6 +45949,7 @@
       <c r="Y480" s="7"/>
       <c r="Z480" s="7"/>
       <c r="AA480" s="7"/>
+      <c r="AB480" s="7"/>
     </row>
     <row r="481">
       <c r="A481" s="7"/>
@@ -45555,6 +45979,7 @@
       <c r="Y481" s="7"/>
       <c r="Z481" s="7"/>
       <c r="AA481" s="7"/>
+      <c r="AB481" s="7"/>
     </row>
     <row r="482">
       <c r="A482" s="7"/>
@@ -45584,6 +46009,7 @@
       <c r="Y482" s="7"/>
       <c r="Z482" s="7"/>
       <c r="AA482" s="7"/>
+      <c r="AB482" s="7"/>
     </row>
     <row r="483">
       <c r="A483" s="7"/>
@@ -45613,6 +46039,7 @@
       <c r="Y483" s="7"/>
       <c r="Z483" s="7"/>
       <c r="AA483" s="7"/>
+      <c r="AB483" s="7"/>
     </row>
     <row r="484">
       <c r="A484" s="7"/>
@@ -45642,6 +46069,7 @@
       <c r="Y484" s="7"/>
       <c r="Z484" s="7"/>
       <c r="AA484" s="7"/>
+      <c r="AB484" s="7"/>
     </row>
     <row r="485">
       <c r="A485" s="7"/>
@@ -45671,6 +46099,7 @@
       <c r="Y485" s="7"/>
       <c r="Z485" s="7"/>
       <c r="AA485" s="7"/>
+      <c r="AB485" s="7"/>
     </row>
     <row r="486">
       <c r="A486" s="7"/>
@@ -45700,6 +46129,7 @@
       <c r="Y486" s="7"/>
       <c r="Z486" s="7"/>
       <c r="AA486" s="7"/>
+      <c r="AB486" s="7"/>
     </row>
     <row r="487">
       <c r="A487" s="7"/>
@@ -45729,6 +46159,7 @@
       <c r="Y487" s="7"/>
       <c r="Z487" s="7"/>
       <c r="AA487" s="7"/>
+      <c r="AB487" s="7"/>
     </row>
     <row r="488">
       <c r="A488" s="7"/>
@@ -45758,6 +46189,7 @@
       <c r="Y488" s="7"/>
       <c r="Z488" s="7"/>
       <c r="AA488" s="7"/>
+      <c r="AB488" s="7"/>
     </row>
     <row r="489">
       <c r="A489" s="7"/>
@@ -45787,6 +46219,7 @@
       <c r="Y489" s="7"/>
       <c r="Z489" s="7"/>
       <c r="AA489" s="7"/>
+      <c r="AB489" s="7"/>
     </row>
     <row r="490">
       <c r="A490" s="7"/>
@@ -45816,6 +46249,7 @@
       <c r="Y490" s="7"/>
       <c r="Z490" s="7"/>
       <c r="AA490" s="7"/>
+      <c r="AB490" s="7"/>
     </row>
     <row r="491">
       <c r="A491" s="7"/>
@@ -45845,6 +46279,7 @@
       <c r="Y491" s="7"/>
       <c r="Z491" s="7"/>
       <c r="AA491" s="7"/>
+      <c r="AB491" s="7"/>
     </row>
     <row r="492">
       <c r="A492" s="7"/>
@@ -45874,6 +46309,7 @@
       <c r="Y492" s="7"/>
       <c r="Z492" s="7"/>
       <c r="AA492" s="7"/>
+      <c r="AB492" s="7"/>
     </row>
     <row r="493">
       <c r="A493" s="7"/>
@@ -45903,6 +46339,7 @@
       <c r="Y493" s="7"/>
       <c r="Z493" s="7"/>
       <c r="AA493" s="7"/>
+      <c r="AB493" s="7"/>
     </row>
     <row r="494">
       <c r="A494" s="7"/>
@@ -45932,6 +46369,7 @@
       <c r="Y494" s="7"/>
       <c r="Z494" s="7"/>
       <c r="AA494" s="7"/>
+      <c r="AB494" s="7"/>
     </row>
     <row r="495">
       <c r="A495" s="7"/>
@@ -45961,6 +46399,7 @@
       <c r="Y495" s="7"/>
       <c r="Z495" s="7"/>
       <c r="AA495" s="7"/>
+      <c r="AB495" s="7"/>
     </row>
     <row r="496">
       <c r="A496" s="7"/>
@@ -45990,6 +46429,7 @@
       <c r="Y496" s="7"/>
       <c r="Z496" s="7"/>
       <c r="AA496" s="7"/>
+      <c r="AB496" s="7"/>
     </row>
     <row r="497">
       <c r="A497" s="7"/>
@@ -46019,6 +46459,7 @@
       <c r="Y497" s="7"/>
       <c r="Z497" s="7"/>
       <c r="AA497" s="7"/>
+      <c r="AB497" s="7"/>
     </row>
     <row r="498">
       <c r="A498" s="7"/>
@@ -46048,6 +46489,7 @@
       <c r="Y498" s="7"/>
       <c r="Z498" s="7"/>
       <c r="AA498" s="7"/>
+      <c r="AB498" s="7"/>
     </row>
     <row r="499">
       <c r="A499" s="7"/>
@@ -46077,6 +46519,7 @@
       <c r="Y499" s="7"/>
       <c r="Z499" s="7"/>
       <c r="AA499" s="7"/>
+      <c r="AB499" s="7"/>
     </row>
     <row r="500">
       <c r="A500" s="7"/>
@@ -46106,6 +46549,7 @@
       <c r="Y500" s="7"/>
       <c r="Z500" s="7"/>
       <c r="AA500" s="7"/>
+      <c r="AB500" s="7"/>
     </row>
     <row r="501">
       <c r="A501" s="7"/>
@@ -46135,6 +46579,7 @@
       <c r="Y501" s="7"/>
       <c r="Z501" s="7"/>
       <c r="AA501" s="7"/>
+      <c r="AB501" s="7"/>
     </row>
     <row r="502">
       <c r="A502" s="7"/>
@@ -46164,6 +46609,7 @@
       <c r="Y502" s="7"/>
       <c r="Z502" s="7"/>
       <c r="AA502" s="7"/>
+      <c r="AB502" s="7"/>
     </row>
     <row r="503">
       <c r="A503" s="7"/>
@@ -46193,6 +46639,7 @@
       <c r="Y503" s="7"/>
       <c r="Z503" s="7"/>
       <c r="AA503" s="7"/>
+      <c r="AB503" s="7"/>
     </row>
     <row r="504">
       <c r="A504" s="7"/>
@@ -46222,6 +46669,7 @@
       <c r="Y504" s="7"/>
       <c r="Z504" s="7"/>
       <c r="AA504" s="7"/>
+      <c r="AB504" s="7"/>
     </row>
     <row r="505">
       <c r="A505" s="7"/>
@@ -46251,6 +46699,7 @@
       <c r="Y505" s="7"/>
       <c r="Z505" s="7"/>
       <c r="AA505" s="7"/>
+      <c r="AB505" s="7"/>
     </row>
     <row r="506">
       <c r="A506" s="7"/>
@@ -46280,6 +46729,7 @@
       <c r="Y506" s="7"/>
       <c r="Z506" s="7"/>
       <c r="AA506" s="7"/>
+      <c r="AB506" s="7"/>
     </row>
     <row r="507">
       <c r="A507" s="7"/>
@@ -46309,6 +46759,7 @@
       <c r="Y507" s="7"/>
       <c r="Z507" s="7"/>
       <c r="AA507" s="7"/>
+      <c r="AB507" s="7"/>
     </row>
     <row r="508">
       <c r="A508" s="7"/>
@@ -46338,6 +46789,7 @@
       <c r="Y508" s="7"/>
       <c r="Z508" s="7"/>
       <c r="AA508" s="7"/>
+      <c r="AB508" s="7"/>
     </row>
     <row r="509">
       <c r="A509" s="7"/>
@@ -46367,6 +46819,7 @@
       <c r="Y509" s="7"/>
       <c r="Z509" s="7"/>
       <c r="AA509" s="7"/>
+      <c r="AB509" s="7"/>
     </row>
     <row r="510">
       <c r="A510" s="7"/>
@@ -46396,6 +46849,7 @@
       <c r="Y510" s="7"/>
       <c r="Z510" s="7"/>
       <c r="AA510" s="7"/>
+      <c r="AB510" s="7"/>
     </row>
     <row r="511">
       <c r="A511" s="7"/>
@@ -46425,6 +46879,7 @@
       <c r="Y511" s="7"/>
       <c r="Z511" s="7"/>
       <c r="AA511" s="7"/>
+      <c r="AB511" s="7"/>
     </row>
     <row r="512">
       <c r="A512" s="7"/>
@@ -46454,6 +46909,7 @@
       <c r="Y512" s="7"/>
       <c r="Z512" s="7"/>
       <c r="AA512" s="7"/>
+      <c r="AB512" s="7"/>
     </row>
     <row r="513">
       <c r="A513" s="7"/>
@@ -46483,6 +46939,7 @@
       <c r="Y513" s="7"/>
       <c r="Z513" s="7"/>
       <c r="AA513" s="7"/>
+      <c r="AB513" s="7"/>
     </row>
     <row r="514">
       <c r="A514" s="7"/>
@@ -46512,6 +46969,7 @@
       <c r="Y514" s="7"/>
       <c r="Z514" s="7"/>
       <c r="AA514" s="7"/>
+      <c r="AB514" s="7"/>
     </row>
     <row r="515">
       <c r="A515" s="7"/>
@@ -46541,6 +46999,7 @@
       <c r="Y515" s="7"/>
       <c r="Z515" s="7"/>
       <c r="AA515" s="7"/>
+      <c r="AB515" s="7"/>
     </row>
     <row r="516">
       <c r="A516" s="7"/>
@@ -46570,6 +47029,7 @@
       <c r="Y516" s="7"/>
       <c r="Z516" s="7"/>
       <c r="AA516" s="7"/>
+      <c r="AB516" s="7"/>
     </row>
     <row r="517">
       <c r="A517" s="7"/>
@@ -46599,6 +47059,7 @@
       <c r="Y517" s="7"/>
       <c r="Z517" s="7"/>
       <c r="AA517" s="7"/>
+      <c r="AB517" s="7"/>
     </row>
     <row r="518">
       <c r="A518" s="7"/>
@@ -46628,6 +47089,7 @@
       <c r="Y518" s="7"/>
       <c r="Z518" s="7"/>
       <c r="AA518" s="7"/>
+      <c r="AB518" s="7"/>
     </row>
     <row r="519">
       <c r="A519" s="7"/>
@@ -46657,6 +47119,7 @@
       <c r="Y519" s="7"/>
       <c r="Z519" s="7"/>
       <c r="AA519" s="7"/>
+      <c r="AB519" s="7"/>
     </row>
     <row r="520">
       <c r="A520" s="7"/>
@@ -46686,6 +47149,7 @@
       <c r="Y520" s="7"/>
       <c r="Z520" s="7"/>
       <c r="AA520" s="7"/>
+      <c r="AB520" s="7"/>
     </row>
     <row r="521">
       <c r="A521" s="7"/>
@@ -46715,6 +47179,7 @@
       <c r="Y521" s="7"/>
       <c r="Z521" s="7"/>
       <c r="AA521" s="7"/>
+      <c r="AB521" s="7"/>
     </row>
     <row r="522">
       <c r="A522" s="7"/>
@@ -46744,6 +47209,7 @@
       <c r="Y522" s="7"/>
       <c r="Z522" s="7"/>
       <c r="AA522" s="7"/>
+      <c r="AB522" s="7"/>
     </row>
     <row r="523">
       <c r="A523" s="7"/>
@@ -46773,6 +47239,7 @@
       <c r="Y523" s="7"/>
       <c r="Z523" s="7"/>
       <c r="AA523" s="7"/>
+      <c r="AB523" s="7"/>
     </row>
     <row r="524">
       <c r="A524" s="7"/>
@@ -46802,6 +47269,7 @@
       <c r="Y524" s="7"/>
       <c r="Z524" s="7"/>
       <c r="AA524" s="7"/>
+      <c r="AB524" s="7"/>
     </row>
     <row r="525">
       <c r="A525" s="7"/>
@@ -46831,6 +47299,7 @@
       <c r="Y525" s="7"/>
       <c r="Z525" s="7"/>
       <c r="AA525" s="7"/>
+      <c r="AB525" s="7"/>
     </row>
     <row r="526">
       <c r="A526" s="7"/>
@@ -46860,6 +47329,7 @@
       <c r="Y526" s="7"/>
       <c r="Z526" s="7"/>
       <c r="AA526" s="7"/>
+      <c r="AB526" s="7"/>
     </row>
     <row r="527">
       <c r="A527" s="7"/>
@@ -46889,6 +47359,7 @@
       <c r="Y527" s="7"/>
       <c r="Z527" s="7"/>
       <c r="AA527" s="7"/>
+      <c r="AB527" s="7"/>
     </row>
     <row r="528">
       <c r="A528" s="7"/>
@@ -46918,6 +47389,7 @@
       <c r="Y528" s="7"/>
       <c r="Z528" s="7"/>
       <c r="AA528" s="7"/>
+      <c r="AB528" s="7"/>
     </row>
     <row r="529">
       <c r="A529" s="7"/>
@@ -46947,6 +47419,7 @@
       <c r="Y529" s="7"/>
       <c r="Z529" s="7"/>
       <c r="AA529" s="7"/>
+      <c r="AB529" s="7"/>
     </row>
     <row r="530">
       <c r="A530" s="7"/>
@@ -46976,6 +47449,7 @@
       <c r="Y530" s="7"/>
       <c r="Z530" s="7"/>
       <c r="AA530" s="7"/>
+      <c r="AB530" s="7"/>
     </row>
     <row r="531">
       <c r="A531" s="7"/>
@@ -47005,6 +47479,7 @@
       <c r="Y531" s="7"/>
       <c r="Z531" s="7"/>
       <c r="AA531" s="7"/>
+      <c r="AB531" s="7"/>
     </row>
     <row r="532">
       <c r="A532" s="7"/>
@@ -47034,6 +47509,7 @@
       <c r="Y532" s="7"/>
       <c r="Z532" s="7"/>
       <c r="AA532" s="7"/>
+      <c r="AB532" s="7"/>
     </row>
     <row r="533">
       <c r="A533" s="7"/>
@@ -47063,6 +47539,7 @@
       <c r="Y533" s="7"/>
       <c r="Z533" s="7"/>
       <c r="AA533" s="7"/>
+      <c r="AB533" s="7"/>
     </row>
     <row r="534">
       <c r="A534" s="7"/>
@@ -47092,6 +47569,7 @@
       <c r="Y534" s="7"/>
       <c r="Z534" s="7"/>
       <c r="AA534" s="7"/>
+      <c r="AB534" s="7"/>
     </row>
     <row r="535">
       <c r="A535" s="7"/>
@@ -47121,6 +47599,7 @@
       <c r="Y535" s="7"/>
       <c r="Z535" s="7"/>
       <c r="AA535" s="7"/>
+      <c r="AB535" s="7"/>
     </row>
     <row r="536">
       <c r="A536" s="7"/>
@@ -47150,6 +47629,7 @@
       <c r="Y536" s="7"/>
       <c r="Z536" s="7"/>
       <c r="AA536" s="7"/>
+      <c r="AB536" s="7"/>
     </row>
     <row r="537">
       <c r="A537" s="7"/>
@@ -47179,6 +47659,7 @@
       <c r="Y537" s="7"/>
       <c r="Z537" s="7"/>
       <c r="AA537" s="7"/>
+      <c r="AB537" s="7"/>
     </row>
     <row r="538">
       <c r="A538" s="7"/>
@@ -47208,6 +47689,7 @@
       <c r="Y538" s="7"/>
       <c r="Z538" s="7"/>
       <c r="AA538" s="7"/>
+      <c r="AB538" s="7"/>
     </row>
     <row r="539">
       <c r="A539" s="7"/>
@@ -47237,6 +47719,7 @@
       <c r="Y539" s="7"/>
       <c r="Z539" s="7"/>
       <c r="AA539" s="7"/>
+      <c r="AB539" s="7"/>
     </row>
     <row r="540">
       <c r="A540" s="7"/>
@@ -47266,6 +47749,7 @@
       <c r="Y540" s="7"/>
       <c r="Z540" s="7"/>
       <c r="AA540" s="7"/>
+      <c r="AB540" s="7"/>
     </row>
     <row r="541">
       <c r="A541" s="7"/>
@@ -47295,6 +47779,7 @@
       <c r="Y541" s="7"/>
       <c r="Z541" s="7"/>
       <c r="AA541" s="7"/>
+      <c r="AB541" s="7"/>
     </row>
     <row r="542">
       <c r="A542" s="7"/>
@@ -47324,6 +47809,7 @@
       <c r="Y542" s="7"/>
       <c r="Z542" s="7"/>
       <c r="AA542" s="7"/>
+      <c r="AB542" s="7"/>
     </row>
     <row r="543">
       <c r="A543" s="7"/>
@@ -47353,6 +47839,7 @@
       <c r="Y543" s="7"/>
       <c r="Z543" s="7"/>
       <c r="AA543" s="7"/>
+      <c r="AB543" s="7"/>
     </row>
     <row r="544">
       <c r="A544" s="7"/>
@@ -47382,6 +47869,7 @@
       <c r="Y544" s="7"/>
       <c r="Z544" s="7"/>
       <c r="AA544" s="7"/>
+      <c r="AB544" s="7"/>
     </row>
     <row r="545">
       <c r="A545" s="7"/>
@@ -47411,6 +47899,7 @@
       <c r="Y545" s="7"/>
       <c r="Z545" s="7"/>
       <c r="AA545" s="7"/>
+      <c r="AB545" s="7"/>
     </row>
     <row r="546">
       <c r="A546" s="7"/>
@@ -47440,6 +47929,7 @@
       <c r="Y546" s="7"/>
       <c r="Z546" s="7"/>
       <c r="AA546" s="7"/>
+      <c r="AB546" s="7"/>
     </row>
     <row r="547">
       <c r="A547" s="7"/>
@@ -47469,6 +47959,7 @@
       <c r="Y547" s="7"/>
       <c r="Z547" s="7"/>
       <c r="AA547" s="7"/>
+      <c r="AB547" s="7"/>
     </row>
     <row r="548">
       <c r="A548" s="7"/>
@@ -47498,6 +47989,7 @@
       <c r="Y548" s="7"/>
       <c r="Z548" s="7"/>
       <c r="AA548" s="7"/>
+      <c r="AB548" s="7"/>
     </row>
     <row r="549">
       <c r="A549" s="7"/>
@@ -47527,6 +48019,7 @@
       <c r="Y549" s="7"/>
       <c r="Z549" s="7"/>
       <c r="AA549" s="7"/>
+      <c r="AB549" s="7"/>
     </row>
     <row r="550">
       <c r="A550" s="7"/>
@@ -47556,6 +48049,7 @@
       <c r="Y550" s="7"/>
       <c r="Z550" s="7"/>
       <c r="AA550" s="7"/>
+      <c r="AB550" s="7"/>
     </row>
     <row r="551">
       <c r="A551" s="7"/>
@@ -47585,6 +48079,7 @@
       <c r="Y551" s="7"/>
       <c r="Z551" s="7"/>
       <c r="AA551" s="7"/>
+      <c r="AB551" s="7"/>
     </row>
     <row r="552">
       <c r="A552" s="7"/>
@@ -47614,6 +48109,7 @@
       <c r="Y552" s="7"/>
       <c r="Z552" s="7"/>
       <c r="AA552" s="7"/>
+      <c r="AB552" s="7"/>
     </row>
     <row r="553">
       <c r="A553" s="7"/>
@@ -47643,6 +48139,7 @@
       <c r="Y553" s="7"/>
       <c r="Z553" s="7"/>
       <c r="AA553" s="7"/>
+      <c r="AB553" s="7"/>
     </row>
     <row r="554">
       <c r="A554" s="7"/>
@@ -47672,6 +48169,7 @@
       <c r="Y554" s="7"/>
       <c r="Z554" s="7"/>
       <c r="AA554" s="7"/>
+      <c r="AB554" s="7"/>
     </row>
     <row r="555">
       <c r="A555" s="7"/>
@@ -47701,6 +48199,7 @@
       <c r="Y555" s="7"/>
       <c r="Z555" s="7"/>
       <c r="AA555" s="7"/>
+      <c r="AB555" s="7"/>
     </row>
     <row r="556">
       <c r="A556" s="7"/>
@@ -47730,6 +48229,7 @@
       <c r="Y556" s="7"/>
       <c r="Z556" s="7"/>
       <c r="AA556" s="7"/>
+      <c r="AB556" s="7"/>
     </row>
     <row r="557">
       <c r="A557" s="7"/>
@@ -47759,6 +48259,7 @@
       <c r="Y557" s="7"/>
       <c r="Z557" s="7"/>
       <c r="AA557" s="7"/>
+      <c r="AB557" s="7"/>
     </row>
     <row r="558">
       <c r="A558" s="7"/>
@@ -47788,6 +48289,7 @@
       <c r="Y558" s="7"/>
       <c r="Z558" s="7"/>
       <c r="AA558" s="7"/>
+      <c r="AB558" s="7"/>
     </row>
     <row r="559">
       <c r="A559" s="7"/>
@@ -47817,6 +48319,7 @@
       <c r="Y559" s="7"/>
       <c r="Z559" s="7"/>
       <c r="AA559" s="7"/>
+      <c r="AB559" s="7"/>
     </row>
     <row r="560">
       <c r="A560" s="7"/>
@@ -47846,6 +48349,7 @@
       <c r="Y560" s="7"/>
       <c r="Z560" s="7"/>
       <c r="AA560" s="7"/>
+      <c r="AB560" s="7"/>
     </row>
     <row r="561">
       <c r="A561" s="7"/>
@@ -47875,6 +48379,7 @@
       <c r="Y561" s="7"/>
       <c r="Z561" s="7"/>
       <c r="AA561" s="7"/>
+      <c r="AB561" s="7"/>
     </row>
     <row r="562">
       <c r="A562" s="7"/>
@@ -47904,6 +48409,7 @@
       <c r="Y562" s="7"/>
       <c r="Z562" s="7"/>
       <c r="AA562" s="7"/>
+      <c r="AB562" s="7"/>
     </row>
     <row r="563">
       <c r="A563" s="7"/>
@@ -47933,6 +48439,7 @@
       <c r="Y563" s="7"/>
       <c r="Z563" s="7"/>
       <c r="AA563" s="7"/>
+      <c r="AB563" s="7"/>
     </row>
     <row r="564">
       <c r="A564" s="7"/>
@@ -47962,6 +48469,7 @@
       <c r="Y564" s="7"/>
       <c r="Z564" s="7"/>
       <c r="AA564" s="7"/>
+      <c r="AB564" s="7"/>
     </row>
     <row r="565">
       <c r="A565" s="7"/>
@@ -47991,6 +48499,7 @@
       <c r="Y565" s="7"/>
       <c r="Z565" s="7"/>
       <c r="AA565" s="7"/>
+      <c r="AB565" s="7"/>
     </row>
     <row r="566">
       <c r="A566" s="7"/>
@@ -48020,6 +48529,7 @@
       <c r="Y566" s="7"/>
       <c r="Z566" s="7"/>
       <c r="AA566" s="7"/>
+      <c r="AB566" s="7"/>
     </row>
     <row r="567">
       <c r="A567" s="7"/>
@@ -48049,6 +48559,7 @@
       <c r="Y567" s="7"/>
       <c r="Z567" s="7"/>
       <c r="AA567" s="7"/>
+      <c r="AB567" s="7"/>
     </row>
     <row r="568">
       <c r="A568" s="7"/>
@@ -48078,6 +48589,7 @@
       <c r="Y568" s="7"/>
       <c r="Z568" s="7"/>
       <c r="AA568" s="7"/>
+      <c r="AB568" s="7"/>
     </row>
     <row r="569">
       <c r="A569" s="7"/>
@@ -48107,6 +48619,7 @@
       <c r="Y569" s="7"/>
       <c r="Z569" s="7"/>
       <c r="AA569" s="7"/>
+      <c r="AB569" s="7"/>
     </row>
     <row r="570">
       <c r="A570" s="7"/>
@@ -48136,6 +48649,7 @@
       <c r="Y570" s="7"/>
       <c r="Z570" s="7"/>
       <c r="AA570" s="7"/>
+      <c r="AB570" s="7"/>
     </row>
     <row r="571">
       <c r="A571" s="7"/>
@@ -48165,6 +48679,7 @@
       <c r="Y571" s="7"/>
       <c r="Z571" s="7"/>
       <c r="AA571" s="7"/>
+      <c r="AB571" s="7"/>
     </row>
     <row r="572">
       <c r="A572" s="7"/>
@@ -48194,6 +48709,7 @@
       <c r="Y572" s="7"/>
       <c r="Z572" s="7"/>
       <c r="AA572" s="7"/>
+      <c r="AB572" s="7"/>
     </row>
     <row r="573">
       <c r="A573" s="7"/>
@@ -48223,6 +48739,7 @@
       <c r="Y573" s="7"/>
       <c r="Z573" s="7"/>
       <c r="AA573" s="7"/>
+      <c r="AB573" s="7"/>
     </row>
     <row r="574">
       <c r="A574" s="7"/>
@@ -48252,6 +48769,7 @@
       <c r="Y574" s="7"/>
       <c r="Z574" s="7"/>
       <c r="AA574" s="7"/>
+      <c r="AB574" s="7"/>
     </row>
     <row r="575">
       <c r="A575" s="7"/>
@@ -48281,6 +48799,7 @@
       <c r="Y575" s="7"/>
       <c r="Z575" s="7"/>
       <c r="AA575" s="7"/>
+      <c r="AB575" s="7"/>
     </row>
     <row r="576">
       <c r="A576" s="7"/>
@@ -48310,6 +48829,7 @@
       <c r="Y576" s="7"/>
       <c r="Z576" s="7"/>
       <c r="AA576" s="7"/>
+      <c r="AB576" s="7"/>
     </row>
     <row r="577">
       <c r="A577" s="7"/>
@@ -48339,6 +48859,7 @@
       <c r="Y577" s="7"/>
       <c r="Z577" s="7"/>
       <c r="AA577" s="7"/>
+      <c r="AB577" s="7"/>
     </row>
     <row r="578">
       <c r="A578" s="7"/>
@@ -48368,6 +48889,7 @@
       <c r="Y578" s="7"/>
       <c r="Z578" s="7"/>
       <c r="AA578" s="7"/>
+      <c r="AB578" s="7"/>
     </row>
     <row r="579">
       <c r="A579" s="7"/>
@@ -48397,6 +48919,7 @@
       <c r="Y579" s="7"/>
       <c r="Z579" s="7"/>
       <c r="AA579" s="7"/>
+      <c r="AB579" s="7"/>
     </row>
     <row r="580">
       <c r="A580" s="7"/>
@@ -48426,6 +48949,7 @@
       <c r="Y580" s="7"/>
       <c r="Z580" s="7"/>
       <c r="AA580" s="7"/>
+      <c r="AB580" s="7"/>
     </row>
     <row r="581">
       <c r="A581" s="7"/>
@@ -48455,6 +48979,7 @@
       <c r="Y581" s="7"/>
       <c r="Z581" s="7"/>
       <c r="AA581" s="7"/>
+      <c r="AB581" s="7"/>
     </row>
     <row r="582">
       <c r="A582" s="7"/>
@@ -48484,6 +49009,7 @@
       <c r="Y582" s="7"/>
       <c r="Z582" s="7"/>
       <c r="AA582" s="7"/>
+      <c r="AB582" s="7"/>
     </row>
     <row r="583">
       <c r="A583" s="7"/>
@@ -48513,6 +49039,7 @@
       <c r="Y583" s="7"/>
       <c r="Z583" s="7"/>
       <c r="AA583" s="7"/>
+      <c r="AB583" s="7"/>
     </row>
     <row r="584">
       <c r="A584" s="7"/>
@@ -48542,6 +49069,7 @@
       <c r="Y584" s="7"/>
       <c r="Z584" s="7"/>
       <c r="AA584" s="7"/>
+      <c r="AB584" s="7"/>
     </row>
     <row r="585">
       <c r="A585" s="7"/>
@@ -48571,6 +49099,7 @@
       <c r="Y585" s="7"/>
       <c r="Z585" s="7"/>
       <c r="AA585" s="7"/>
+      <c r="AB585" s="7"/>
     </row>
     <row r="586">
       <c r="A586" s="7"/>
@@ -48600,6 +49129,7 @@
       <c r="Y586" s="7"/>
       <c r="Z586" s="7"/>
       <c r="AA586" s="7"/>
+      <c r="AB586" s="7"/>
     </row>
     <row r="587">
       <c r="A587" s="7"/>
@@ -48629,6 +49159,7 @@
       <c r="Y587" s="7"/>
       <c r="Z587" s="7"/>
       <c r="AA587" s="7"/>
+      <c r="AB587" s="7"/>
     </row>
     <row r="588">
       <c r="A588" s="7"/>
@@ -48658,6 +49189,7 @@
       <c r="Y588" s="7"/>
       <c r="Z588" s="7"/>
       <c r="AA588" s="7"/>
+      <c r="AB588" s="7"/>
     </row>
     <row r="589">
       <c r="A589" s="7"/>
@@ -48687,6 +49219,7 @@
       <c r="Y589" s="7"/>
       <c r="Z589" s="7"/>
       <c r="AA589" s="7"/>
+      <c r="AB589" s="7"/>
     </row>
     <row r="590">
       <c r="A590" s="7"/>
@@ -48716,6 +49249,7 @@
       <c r="Y590" s="7"/>
       <c r="Z590" s="7"/>
       <c r="AA590" s="7"/>
+      <c r="AB590" s="7"/>
     </row>
     <row r="591">
       <c r="A591" s="7"/>
@@ -48745,6 +49279,7 @@
       <c r="Y591" s="7"/>
       <c r="Z591" s="7"/>
       <c r="AA591" s="7"/>
+      <c r="AB591" s="7"/>
     </row>
     <row r="592">
       <c r="A592" s="7"/>
@@ -48774,6 +49309,7 @@
       <c r="Y592" s="7"/>
       <c r="Z592" s="7"/>
       <c r="AA592" s="7"/>
+      <c r="AB592" s="7"/>
     </row>
     <row r="593">
       <c r="A593" s="7"/>
@@ -48803,6 +49339,7 @@
       <c r="Y593" s="7"/>
       <c r="Z593" s="7"/>
       <c r="AA593" s="7"/>
+      <c r="AB593" s="7"/>
     </row>
     <row r="594">
       <c r="A594" s="7"/>
@@ -48832,6 +49369,7 @@
       <c r="Y594" s="7"/>
       <c r="Z594" s="7"/>
       <c r="AA594" s="7"/>
+      <c r="AB594" s="7"/>
     </row>
     <row r="595">
       <c r="A595" s="7"/>
@@ -48861,6 +49399,7 @@
       <c r="Y595" s="7"/>
       <c r="Z595" s="7"/>
       <c r="AA595" s="7"/>
+      <c r="AB595" s="7"/>
     </row>
     <row r="596">
       <c r="A596" s="7"/>
@@ -48890,6 +49429,7 @@
       <c r="Y596" s="7"/>
       <c r="Z596" s="7"/>
       <c r="AA596" s="7"/>
+      <c r="AB596" s="7"/>
     </row>
     <row r="597">
       <c r="A597" s="7"/>
@@ -48919,6 +49459,7 @@
       <c r="Y597" s="7"/>
       <c r="Z597" s="7"/>
       <c r="AA597" s="7"/>
+      <c r="AB597" s="7"/>
     </row>
     <row r="598">
       <c r="A598" s="7"/>
@@ -48948,6 +49489,7 @@
       <c r="Y598" s="7"/>
       <c r="Z598" s="7"/>
       <c r="AA598" s="7"/>
+      <c r="AB598" s="7"/>
     </row>
     <row r="599">
       <c r="A599" s="7"/>
@@ -48977,6 +49519,7 @@
       <c r="Y599" s="7"/>
       <c r="Z599" s="7"/>
       <c r="AA599" s="7"/>
+      <c r="AB599" s="7"/>
     </row>
     <row r="600">
       <c r="A600" s="7"/>
@@ -49006,6 +49549,7 @@
       <c r="Y600" s="7"/>
       <c r="Z600" s="7"/>
       <c r="AA600" s="7"/>
+      <c r="AB600" s="7"/>
     </row>
     <row r="601">
       <c r="A601" s="7"/>
@@ -49035,6 +49579,7 @@
       <c r="Y601" s="7"/>
       <c r="Z601" s="7"/>
       <c r="AA601" s="7"/>
+      <c r="AB601" s="7"/>
     </row>
     <row r="602">
       <c r="A602" s="7"/>
@@ -49064,6 +49609,7 @@
       <c r="Y602" s="7"/>
       <c r="Z602" s="7"/>
       <c r="AA602" s="7"/>
+      <c r="AB602" s="7"/>
     </row>
     <row r="603">
       <c r="A603" s="7"/>
@@ -49093,6 +49639,7 @@
       <c r="Y603" s="7"/>
       <c r="Z603" s="7"/>
       <c r="AA603" s="7"/>
+      <c r="AB603" s="7"/>
     </row>
     <row r="604">
       <c r="A604" s="7"/>
@@ -49122,6 +49669,7 @@
       <c r="Y604" s="7"/>
       <c r="Z604" s="7"/>
       <c r="AA604" s="7"/>
+      <c r="AB604" s="7"/>
     </row>
     <row r="605">
       <c r="A605" s="7"/>
@@ -49151,6 +49699,7 @@
       <c r="Y605" s="7"/>
       <c r="Z605" s="7"/>
       <c r="AA605" s="7"/>
+      <c r="AB605" s="7"/>
     </row>
     <row r="606">
       <c r="A606" s="7"/>
@@ -49180,6 +49729,7 @@
       <c r="Y606" s="7"/>
       <c r="Z606" s="7"/>
       <c r="AA606" s="7"/>
+      <c r="AB606" s="7"/>
     </row>
     <row r="607">
       <c r="A607" s="7"/>
@@ -49209,6 +49759,7 @@
       <c r="Y607" s="7"/>
       <c r="Z607" s="7"/>
       <c r="AA607" s="7"/>
+      <c r="AB607" s="7"/>
     </row>
     <row r="608">
       <c r="A608" s="7"/>
@@ -49238,6 +49789,7 @@
       <c r="Y608" s="7"/>
       <c r="Z608" s="7"/>
       <c r="AA608" s="7"/>
+      <c r="AB608" s="7"/>
     </row>
     <row r="609">
       <c r="A609" s="7"/>
@@ -49267,6 +49819,7 @@
       <c r="Y609" s="7"/>
       <c r="Z609" s="7"/>
       <c r="AA609" s="7"/>
+      <c r="AB609" s="7"/>
     </row>
     <row r="610">
       <c r="A610" s="7"/>
@@ -49296,6 +49849,7 @@
       <c r="Y610" s="7"/>
       <c r="Z610" s="7"/>
       <c r="AA610" s="7"/>
+      <c r="AB610" s="7"/>
     </row>
     <row r="611">
       <c r="A611" s="7"/>
@@ -49325,6 +49879,7 @@
       <c r="Y611" s="7"/>
       <c r="Z611" s="7"/>
       <c r="AA611" s="7"/>
+      <c r="AB611" s="7"/>
     </row>
     <row r="612">
       <c r="A612" s="7"/>
@@ -49354,6 +49909,7 @@
       <c r="Y612" s="7"/>
       <c r="Z612" s="7"/>
       <c r="AA612" s="7"/>
+      <c r="AB612" s="7"/>
     </row>
     <row r="613">
       <c r="A613" s="7"/>
@@ -49383,6 +49939,7 @@
       <c r="Y613" s="7"/>
       <c r="Z613" s="7"/>
       <c r="AA613" s="7"/>
+      <c r="AB613" s="7"/>
     </row>
     <row r="614">
       <c r="A614" s="7"/>
@@ -49412,6 +49969,7 @@
       <c r="Y614" s="7"/>
       <c r="Z614" s="7"/>
       <c r="AA614" s="7"/>
+      <c r="AB614" s="7"/>
     </row>
     <row r="615">
       <c r="A615" s="7"/>
@@ -49441,6 +49999,7 @@
       <c r="Y615" s="7"/>
       <c r="Z615" s="7"/>
       <c r="AA615" s="7"/>
+      <c r="AB615" s="7"/>
     </row>
     <row r="616">
       <c r="A616" s="7"/>
@@ -49470,6 +50029,7 @@
       <c r="Y616" s="7"/>
       <c r="Z616" s="7"/>
       <c r="AA616" s="7"/>
+      <c r="AB616" s="7"/>
     </row>
     <row r="617">
       <c r="A617" s="7"/>
@@ -49499,6 +50059,7 @@
       <c r="Y617" s="7"/>
       <c r="Z617" s="7"/>
       <c r="AA617" s="7"/>
+      <c r="AB617" s="7"/>
     </row>
     <row r="618">
       <c r="A618" s="7"/>
@@ -49528,6 +50089,7 @@
       <c r="Y618" s="7"/>
       <c r="Z618" s="7"/>
       <c r="AA618" s="7"/>
+      <c r="AB618" s="7"/>
     </row>
     <row r="619">
       <c r="A619" s="7"/>
@@ -49557,6 +50119,7 @@
       <c r="Y619" s="7"/>
       <c r="Z619" s="7"/>
       <c r="AA619" s="7"/>
+      <c r="AB619" s="7"/>
     </row>
     <row r="620">
       <c r="A620" s="7"/>
@@ -49586,6 +50149,7 @@
       <c r="Y620" s="7"/>
       <c r="Z620" s="7"/>
       <c r="AA620" s="7"/>
+      <c r="AB620" s="7"/>
     </row>
     <row r="621">
       <c r="A621" s="7"/>
@@ -49615,6 +50179,7 @@
       <c r="Y621" s="7"/>
       <c r="Z621" s="7"/>
       <c r="AA621" s="7"/>
+      <c r="AB621" s="7"/>
     </row>
     <row r="622">
       <c r="A622" s="7"/>
@@ -49644,6 +50209,7 @@
       <c r="Y622" s="7"/>
       <c r="Z622" s="7"/>
       <c r="AA622" s="7"/>
+      <c r="AB622" s="7"/>
     </row>
     <row r="623">
       <c r="A623" s="7"/>
@@ -49673,6 +50239,7 @@
       <c r="Y623" s="7"/>
       <c r="Z623" s="7"/>
       <c r="AA623" s="7"/>
+      <c r="AB623" s="7"/>
     </row>
     <row r="624">
       <c r="A624" s="7"/>
@@ -49702,6 +50269,7 @@
       <c r="Y624" s="7"/>
       <c r="Z624" s="7"/>
       <c r="AA624" s="7"/>
+      <c r="AB624" s="7"/>
     </row>
     <row r="625">
       <c r="A625" s="7"/>
@@ -49731,6 +50299,7 @@
       <c r="Y625" s="7"/>
       <c r="Z625" s="7"/>
       <c r="AA625" s="7"/>
+      <c r="AB625" s="7"/>
     </row>
     <row r="626">
       <c r="A626" s="7"/>
@@ -49760,6 +50329,7 @@
       <c r="Y626" s="7"/>
       <c r="Z626" s="7"/>
       <c r="AA626" s="7"/>
+      <c r="AB626" s="7"/>
     </row>
     <row r="627">
       <c r="A627" s="7"/>
@@ -49789,6 +50359,7 @@
       <c r="Y627" s="7"/>
       <c r="Z627" s="7"/>
       <c r="AA627" s="7"/>
+      <c r="AB627" s="7"/>
     </row>
     <row r="628">
       <c r="A628" s="7"/>
@@ -49818,6 +50389,7 @@
       <c r="Y628" s="7"/>
       <c r="Z628" s="7"/>
       <c r="AA628" s="7"/>
+      <c r="AB628" s="7"/>
     </row>
     <row r="629">
       <c r="A629" s="7"/>
@@ -49847,6 +50419,7 @@
       <c r="Y629" s="7"/>
       <c r="Z629" s="7"/>
       <c r="AA629" s="7"/>
+      <c r="AB629" s="7"/>
     </row>
     <row r="630">
       <c r="A630" s="7"/>
@@ -49876,6 +50449,7 @@
       <c r="Y630" s="7"/>
       <c r="Z630" s="7"/>
       <c r="AA630" s="7"/>
+      <c r="AB630" s="7"/>
     </row>
     <row r="631">
       <c r="A631" s="7"/>
@@ -49905,6 +50479,7 @@
       <c r="Y631" s="7"/>
       <c r="Z631" s="7"/>
       <c r="AA631" s="7"/>
+      <c r="AB631" s="7"/>
     </row>
     <row r="632">
       <c r="A632" s="7"/>
@@ -49934,6 +50509,7 @@
       <c r="Y632" s="7"/>
       <c r="Z632" s="7"/>
       <c r="AA632" s="7"/>
+      <c r="AB632" s="7"/>
     </row>
     <row r="633">
       <c r="A633" s="7"/>
@@ -49963,6 +50539,7 @@
       <c r="Y633" s="7"/>
       <c r="Z633" s="7"/>
       <c r="AA633" s="7"/>
+      <c r="AB633" s="7"/>
     </row>
     <row r="634">
       <c r="A634" s="7"/>
@@ -49992,6 +50569,7 @@
       <c r="Y634" s="7"/>
       <c r="Z634" s="7"/>
       <c r="AA634" s="7"/>
+      <c r="AB634" s="7"/>
     </row>
     <row r="635">
       <c r="A635" s="7"/>
@@ -50021,6 +50599,7 @@
       <c r="Y635" s="7"/>
       <c r="Z635" s="7"/>
       <c r="AA635" s="7"/>
+      <c r="AB635" s="7"/>
     </row>
     <row r="636">
       <c r="A636" s="7"/>
@@ -50050,6 +50629,7 @@
       <c r="Y636" s="7"/>
       <c r="Z636" s="7"/>
       <c r="AA636" s="7"/>
+      <c r="AB636" s="7"/>
     </row>
     <row r="637">
       <c r="A637" s="7"/>
@@ -50079,6 +50659,7 @@
       <c r="Y637" s="7"/>
       <c r="Z637" s="7"/>
       <c r="AA637" s="7"/>
+      <c r="AB637" s="7"/>
     </row>
     <row r="638">
       <c r="A638" s="7"/>
@@ -50108,6 +50689,7 @@
       <c r="Y638" s="7"/>
       <c r="Z638" s="7"/>
       <c r="AA638" s="7"/>
+      <c r="AB638" s="7"/>
     </row>
     <row r="639">
       <c r="A639" s="7"/>
@@ -50137,6 +50719,7 @@
       <c r="Y639" s="7"/>
       <c r="Z639" s="7"/>
       <c r="AA639" s="7"/>
+      <c r="AB639" s="7"/>
     </row>
     <row r="640">
       <c r="A640" s="7"/>
@@ -50166,6 +50749,7 @@
       <c r="Y640" s="7"/>
       <c r="Z640" s="7"/>
       <c r="AA640" s="7"/>
+      <c r="AB640" s="7"/>
     </row>
     <row r="641">
       <c r="A641" s="7"/>
@@ -50195,6 +50779,7 @@
       <c r="Y641" s="7"/>
       <c r="Z641" s="7"/>
       <c r="AA641" s="7"/>
+      <c r="AB641" s="7"/>
     </row>
     <row r="642">
       <c r="A642" s="7"/>
@@ -50224,6 +50809,7 @@
       <c r="Y642" s="7"/>
       <c r="Z642" s="7"/>
       <c r="AA642" s="7"/>
+      <c r="AB642" s="7"/>
     </row>
     <row r="643">
       <c r="A643" s="7"/>
@@ -50253,6 +50839,7 @@
       <c r="Y643" s="7"/>
       <c r="Z643" s="7"/>
       <c r="AA643" s="7"/>
+      <c r="AB643" s="7"/>
     </row>
     <row r="644">
       <c r="A644" s="7"/>
@@ -50282,6 +50869,7 @@
       <c r="Y644" s="7"/>
       <c r="Z644" s="7"/>
       <c r="AA644" s="7"/>
+      <c r="AB644" s="7"/>
     </row>
     <row r="645">
       <c r="A645" s="7"/>
@@ -50311,6 +50899,7 @@
       <c r="Y645" s="7"/>
       <c r="Z645" s="7"/>
       <c r="AA645" s="7"/>
+      <c r="AB645" s="7"/>
     </row>
     <row r="646">
       <c r="A646" s="7"/>
@@ -50340,6 +50929,7 @@
       <c r="Y646" s="7"/>
       <c r="Z646" s="7"/>
       <c r="AA646" s="7"/>
+      <c r="AB646" s="7"/>
     </row>
     <row r="647">
       <c r="A647" s="7"/>
@@ -50369,6 +50959,7 @@
       <c r="Y647" s="7"/>
       <c r="Z647" s="7"/>
       <c r="AA647" s="7"/>
+      <c r="AB647" s="7"/>
     </row>
     <row r="648">
       <c r="A648" s="7"/>
@@ -50398,6 +50989,7 @@
       <c r="Y648" s="7"/>
       <c r="Z648" s="7"/>
       <c r="AA648" s="7"/>
+      <c r="AB648" s="7"/>
     </row>
     <row r="649">
       <c r="A649" s="7"/>
@@ -50427,6 +51019,7 @@
       <c r="Y649" s="7"/>
       <c r="Z649" s="7"/>
       <c r="AA649" s="7"/>
+      <c r="AB649" s="7"/>
     </row>
     <row r="650">
       <c r="A650" s="7"/>
@@ -50456,6 +51049,7 @@
       <c r="Y650" s="7"/>
       <c r="Z650" s="7"/>
       <c r="AA650" s="7"/>
+      <c r="AB650" s="7"/>
     </row>
     <row r="651">
       <c r="A651" s="7"/>
@@ -50485,6 +51079,7 @@
       <c r="Y651" s="7"/>
       <c r="Z651" s="7"/>
       <c r="AA651" s="7"/>
+      <c r="AB651" s="7"/>
     </row>
     <row r="652">
       <c r="A652" s="7"/>
@@ -50514,6 +51109,7 @@
       <c r="Y652" s="7"/>
       <c r="Z652" s="7"/>
       <c r="AA652" s="7"/>
+      <c r="AB652" s="7"/>
     </row>
     <row r="653">
       <c r="A653" s="7"/>
@@ -50543,6 +51139,7 @@
       <c r="Y653" s="7"/>
       <c r="Z653" s="7"/>
       <c r="AA653" s="7"/>
+      <c r="AB653" s="7"/>
     </row>
     <row r="654">
       <c r="A654" s="7"/>
@@ -50572,6 +51169,7 @@
       <c r="Y654" s="7"/>
       <c r="Z654" s="7"/>
       <c r="AA654" s="7"/>
+      <c r="AB654" s="7"/>
     </row>
     <row r="655">
       <c r="A655" s="7"/>
@@ -50601,6 +51199,7 @@
       <c r="Y655" s="7"/>
       <c r="Z655" s="7"/>
       <c r="AA655" s="7"/>
+      <c r="AB655" s="7"/>
     </row>
     <row r="656">
       <c r="A656" s="7"/>
@@ -50630,6 +51229,7 @@
       <c r="Y656" s="7"/>
       <c r="Z656" s="7"/>
       <c r="AA656" s="7"/>
+      <c r="AB656" s="7"/>
     </row>
     <row r="657">
       <c r="A657" s="7"/>
@@ -50659,6 +51259,7 @@
       <c r="Y657" s="7"/>
       <c r="Z657" s="7"/>
       <c r="AA657" s="7"/>
+      <c r="AB657" s="7"/>
     </row>
     <row r="658">
       <c r="A658" s="7"/>
@@ -50688,6 +51289,7 @@
       <c r="Y658" s="7"/>
       <c r="Z658" s="7"/>
       <c r="AA658" s="7"/>
+      <c r="AB658" s="7"/>
     </row>
     <row r="659">
       <c r="A659" s="7"/>
@@ -50717,6 +51319,7 @@
       <c r="Y659" s="7"/>
       <c r="Z659" s="7"/>
       <c r="AA659" s="7"/>
+      <c r="AB659" s="7"/>
     </row>
     <row r="660">
       <c r="A660" s="7"/>
@@ -50746,6 +51349,7 @@
       <c r="Y660" s="7"/>
       <c r="Z660" s="7"/>
       <c r="AA660" s="7"/>
+      <c r="AB660" s="7"/>
     </row>
     <row r="661">
       <c r="A661" s="7"/>
@@ -50775,6 +51379,7 @@
       <c r="Y661" s="7"/>
       <c r="Z661" s="7"/>
       <c r="AA661" s="7"/>
+      <c r="AB661" s="7"/>
     </row>
     <row r="662">
       <c r="A662" s="7"/>
@@ -50804,6 +51409,7 @@
       <c r="Y662" s="7"/>
       <c r="Z662" s="7"/>
       <c r="AA662" s="7"/>
+      <c r="AB662" s="7"/>
     </row>
     <row r="663">
       <c r="A663" s="7"/>
@@ -50833,6 +51439,7 @@
       <c r="Y663" s="7"/>
       <c r="Z663" s="7"/>
       <c r="AA663" s="7"/>
+      <c r="AB663" s="7"/>
     </row>
     <row r="664">
       <c r="A664" s="7"/>
@@ -50862,6 +51469,7 @@
       <c r="Y664" s="7"/>
       <c r="Z664" s="7"/>
       <c r="AA664" s="7"/>
+      <c r="AB664" s="7"/>
     </row>
     <row r="665">
       <c r="A665" s="7"/>
@@ -50891,6 +51499,7 @@
       <c r="Y665" s="7"/>
       <c r="Z665" s="7"/>
       <c r="AA665" s="7"/>
+      <c r="AB665" s="7"/>
     </row>
     <row r="666">
       <c r="A666" s="7"/>
@@ -50920,6 +51529,7 @@
       <c r="Y666" s="7"/>
       <c r="Z666" s="7"/>
       <c r="AA666" s="7"/>
+      <c r="AB666" s="7"/>
     </row>
     <row r="667">
       <c r="A667" s="7"/>
@@ -50949,6 +51559,7 @@
       <c r="Y667" s="7"/>
       <c r="Z667" s="7"/>
       <c r="AA667" s="7"/>
+      <c r="AB667" s="7"/>
     </row>
     <row r="668">
       <c r="A668" s="7"/>
@@ -50978,6 +51589,7 @@
       <c r="Y668" s="7"/>
       <c r="Z668" s="7"/>
       <c r="AA668" s="7"/>
+      <c r="AB668" s="7"/>
     </row>
     <row r="669">
       <c r="A669" s="7"/>
@@ -51007,6 +51619,7 @@
       <c r="Y669" s="7"/>
       <c r="Z669" s="7"/>
       <c r="AA669" s="7"/>
+      <c r="AB669" s="7"/>
     </row>
     <row r="670">
       <c r="A670" s="7"/>
@@ -51036,6 +51649,7 @@
       <c r="Y670" s="7"/>
       <c r="Z670" s="7"/>
       <c r="AA670" s="7"/>
+      <c r="AB670" s="7"/>
     </row>
     <row r="671">
       <c r="A671" s="7"/>
@@ -51065,6 +51679,7 @@
       <c r="Y671" s="7"/>
       <c r="Z671" s="7"/>
       <c r="AA671" s="7"/>
+      <c r="AB671" s="7"/>
     </row>
     <row r="672">
       <c r="A672" s="7"/>
@@ -51094,6 +51709,7 @@
       <c r="Y672" s="7"/>
       <c r="Z672" s="7"/>
       <c r="AA672" s="7"/>
+      <c r="AB672" s="7"/>
     </row>
     <row r="673">
       <c r="A673" s="7"/>
@@ -51123,6 +51739,7 @@
       <c r="Y673" s="7"/>
       <c r="Z673" s="7"/>
       <c r="AA673" s="7"/>
+      <c r="AB673" s="7"/>
     </row>
     <row r="674">
       <c r="A674" s="7"/>
@@ -51152,6 +51769,7 @@
       <c r="Y674" s="7"/>
       <c r="Z674" s="7"/>
       <c r="AA674" s="7"/>
+      <c r="AB674" s="7"/>
     </row>
     <row r="675">
       <c r="A675" s="7"/>
@@ -51181,6 +51799,7 @@
       <c r="Y675" s="7"/>
       <c r="Z675" s="7"/>
       <c r="AA675" s="7"/>
+      <c r="AB675" s="7"/>
     </row>
     <row r="676">
       <c r="A676" s="7"/>
@@ -51210,6 +51829,7 @@
       <c r="Y676" s="7"/>
       <c r="Z676" s="7"/>
       <c r="AA676" s="7"/>
+      <c r="AB676" s="7"/>
     </row>
     <row r="677">
       <c r="A677" s="7"/>
@@ -51239,6 +51859,7 @@
       <c r="Y677" s="7"/>
       <c r="Z677" s="7"/>
       <c r="AA677" s="7"/>
+      <c r="AB677" s="7"/>
     </row>
     <row r="678">
       <c r="A678" s="7"/>
@@ -51268,6 +51889,7 @@
       <c r="Y678" s="7"/>
       <c r="Z678" s="7"/>
       <c r="AA678" s="7"/>
+      <c r="AB678" s="7"/>
     </row>
     <row r="679">
       <c r="A679" s="7"/>
@@ -51297,6 +51919,7 @@
       <c r="Y679" s="7"/>
       <c r="Z679" s="7"/>
       <c r="AA679" s="7"/>
+      <c r="AB679" s="7"/>
     </row>
     <row r="680">
       <c r="A680" s="7"/>
@@ -51326,6 +51949,7 @@
       <c r="Y680" s="7"/>
       <c r="Z680" s="7"/>
       <c r="AA680" s="7"/>
+      <c r="AB680" s="7"/>
     </row>
     <row r="681">
       <c r="A681" s="7"/>
@@ -51355,6 +51979,7 @@
       <c r="Y681" s="7"/>
       <c r="Z681" s="7"/>
       <c r="AA681" s="7"/>
+      <c r="AB681" s="7"/>
     </row>
     <row r="682">
       <c r="A682" s="7"/>
@@ -51384,6 +52009,7 @@
       <c r="Y682" s="7"/>
       <c r="Z682" s="7"/>
       <c r="AA682" s="7"/>
+      <c r="AB682" s="7"/>
     </row>
     <row r="683">
       <c r="A683" s="7"/>
@@ -51413,6 +52039,7 @@
       <c r="Y683" s="7"/>
       <c r="Z683" s="7"/>
       <c r="AA683" s="7"/>
+      <c r="AB683" s="7"/>
     </row>
     <row r="684">
       <c r="A684" s="7"/>
@@ -51442,6 +52069,7 @@
       <c r="Y684" s="7"/>
       <c r="Z684" s="7"/>
       <c r="AA684" s="7"/>
+      <c r="AB684" s="7"/>
     </row>
     <row r="685">
       <c r="A685" s="7"/>
@@ -51471,6 +52099,7 @@
       <c r="Y685" s="7"/>
       <c r="Z685" s="7"/>
       <c r="AA685" s="7"/>
+      <c r="AB685" s="7"/>
     </row>
     <row r="686">
       <c r="A686" s="7"/>
@@ -51500,6 +52129,7 @@
       <c r="Y686" s="7"/>
       <c r="Z686" s="7"/>
       <c r="AA686" s="7"/>
+      <c r="AB686" s="7"/>
     </row>
     <row r="687">
       <c r="A687" s="7"/>
@@ -51529,6 +52159,7 @@
       <c r="Y687" s="7"/>
       <c r="Z687" s="7"/>
       <c r="AA687" s="7"/>
+      <c r="AB687" s="7"/>
     </row>
     <row r="688">
       <c r="A688" s="7"/>
@@ -51558,6 +52189,7 @@
       <c r="Y688" s="7"/>
       <c r="Z688" s="7"/>
       <c r="AA688" s="7"/>
+      <c r="AB688" s="7"/>
     </row>
     <row r="689">
       <c r="A689" s="7"/>
@@ -51587,6 +52219,7 @@
       <c r="Y689" s="7"/>
       <c r="Z689" s="7"/>
       <c r="AA689" s="7"/>
+      <c r="AB689" s="7"/>
     </row>
     <row r="690">
       <c r="A690" s="7"/>
@@ -51616,6 +52249,7 @@
       <c r="Y690" s="7"/>
       <c r="Z690" s="7"/>
       <c r="AA690" s="7"/>
+      <c r="AB690" s="7"/>
     </row>
     <row r="691">
       <c r="A691" s="7"/>
@@ -51645,6 +52279,7 @@
       <c r="Y691" s="7"/>
       <c r="Z691" s="7"/>
       <c r="AA691" s="7"/>
+      <c r="AB691" s="7"/>
     </row>
     <row r="692">
       <c r="A692" s="7"/>
@@ -51674,6 +52309,7 @@
       <c r="Y692" s="7"/>
       <c r="Z692" s="7"/>
       <c r="AA692" s="7"/>
+      <c r="AB692" s="7"/>
     </row>
     <row r="693">
       <c r="A693" s="7"/>
@@ -51703,6 +52339,7 @@
       <c r="Y693" s="7"/>
       <c r="Z693" s="7"/>
       <c r="AA693" s="7"/>
+      <c r="AB693" s="7"/>
     </row>
     <row r="694">
       <c r="A694" s="7"/>
@@ -51732,6 +52369,7 @@
       <c r="Y694" s="7"/>
       <c r="Z694" s="7"/>
       <c r="AA694" s="7"/>
+      <c r="AB694" s="7"/>
     </row>
     <row r="695">
       <c r="A695" s="7"/>
@@ -51761,6 +52399,7 @@
       <c r="Y695" s="7"/>
       <c r="Z695" s="7"/>
       <c r="AA695" s="7"/>
+      <c r="AB695" s="7"/>
     </row>
     <row r="696">
       <c r="A696" s="7"/>
@@ -51790,6 +52429,7 @@
       <c r="Y696" s="7"/>
       <c r="Z696" s="7"/>
       <c r="AA696" s="7"/>
+      <c r="AB696" s="7"/>
     </row>
     <row r="697">
       <c r="A697" s="7"/>
@@ -51819,6 +52459,7 @@
       <c r="Y697" s="7"/>
       <c r="Z697" s="7"/>
       <c r="AA697" s="7"/>
+      <c r="AB697" s="7"/>
     </row>
     <row r="698">
       <c r="A698" s="7"/>
@@ -51848,6 +52489,7 @@
       <c r="Y698" s="7"/>
       <c r="Z698" s="7"/>
       <c r="AA698" s="7"/>
+      <c r="AB698" s="7"/>
     </row>
     <row r="699">
       <c r="A699" s="7"/>
@@ -51877,6 +52519,7 @@
       <c r="Y699" s="7"/>
       <c r="Z699" s="7"/>
       <c r="AA699" s="7"/>
+      <c r="AB699" s="7"/>
     </row>
     <row r="700">
       <c r="A700" s="7"/>
@@ -51906,6 +52549,7 @@
       <c r="Y700" s="7"/>
       <c r="Z700" s="7"/>
       <c r="AA700" s="7"/>
+      <c r="AB700" s="7"/>
     </row>
     <row r="701">
       <c r="A701" s="7"/>
@@ -51935,6 +52579,7 @@
       <c r="Y701" s="7"/>
       <c r="Z701" s="7"/>
       <c r="AA701" s="7"/>
+      <c r="AB701" s="7"/>
     </row>
     <row r="702">
       <c r="A702" s="7"/>
@@ -51964,6 +52609,7 @@
       <c r="Y702" s="7"/>
       <c r="Z702" s="7"/>
       <c r="AA702" s="7"/>
+      <c r="AB702" s="7"/>
     </row>
     <row r="703">
       <c r="A703" s="7"/>
@@ -51993,6 +52639,7 @@
       <c r="Y703" s="7"/>
       <c r="Z703" s="7"/>
       <c r="AA703" s="7"/>
+      <c r="AB703" s="7"/>
     </row>
     <row r="704">
       <c r="A704" s="7"/>
@@ -52022,6 +52669,7 @@
       <c r="Y704" s="7"/>
       <c r="Z704" s="7"/>
       <c r="AA704" s="7"/>
+      <c r="AB704" s="7"/>
     </row>
     <row r="705">
       <c r="A705" s="7"/>
@@ -52051,6 +52699,7 @@
       <c r="Y705" s="7"/>
       <c r="Z705" s="7"/>
       <c r="AA705" s="7"/>
+      <c r="AB705" s="7"/>
     </row>
     <row r="706">
       <c r="A706" s="7"/>
@@ -52080,6 +52729,7 @@
       <c r="Y706" s="7"/>
       <c r="Z706" s="7"/>
       <c r="AA706" s="7"/>
+      <c r="AB706" s="7"/>
     </row>
     <row r="707">
       <c r="A707" s="7"/>
@@ -52109,6 +52759,7 @@
       <c r="Y707" s="7"/>
       <c r="Z707" s="7"/>
       <c r="AA707" s="7"/>
+      <c r="AB707" s="7"/>
     </row>
     <row r="708">
       <c r="A708" s="7"/>
@@ -52138,6 +52789,7 @@
       <c r="Y708" s="7"/>
       <c r="Z708" s="7"/>
       <c r="AA708" s="7"/>
+      <c r="AB708" s="7"/>
     </row>
     <row r="709">
       <c r="A709" s="7"/>
@@ -52167,6 +52819,7 @@
       <c r="Y709" s="7"/>
       <c r="Z709" s="7"/>
       <c r="AA709" s="7"/>
+      <c r="AB709" s="7"/>
     </row>
     <row r="710">
       <c r="A710" s="7"/>
@@ -52196,6 +52849,7 @@
       <c r="Y710" s="7"/>
       <c r="Z710" s="7"/>
       <c r="AA710" s="7"/>
+      <c r="AB710" s="7"/>
     </row>
     <row r="711">
       <c r="A711" s="7"/>
@@ -52225,6 +52879,7 @@
       <c r="Y711" s="7"/>
       <c r="Z711" s="7"/>
       <c r="AA711" s="7"/>
+      <c r="AB711" s="7"/>
     </row>
     <row r="712">
       <c r="A712" s="7"/>
@@ -52254,6 +52909,7 @@
       <c r="Y712" s="7"/>
       <c r="Z712" s="7"/>
       <c r="AA712" s="7"/>
+      <c r="AB712" s="7"/>
     </row>
     <row r="713">
       <c r="A713" s="7"/>
@@ -52283,6 +52939,7 @@
       <c r="Y713" s="7"/>
       <c r="Z713" s="7"/>
       <c r="AA713" s="7"/>
+      <c r="AB713" s="7"/>
     </row>
     <row r="714">
       <c r="A714" s="7"/>
@@ -52312,6 +52969,7 @@
       <c r="Y714" s="7"/>
       <c r="Z714" s="7"/>
       <c r="AA714" s="7"/>
+      <c r="AB714" s="7"/>
     </row>
     <row r="715">
       <c r="A715" s="7"/>
@@ -52341,6 +52999,7 @@
       <c r="Y715" s="7"/>
       <c r="Z715" s="7"/>
       <c r="AA715" s="7"/>
+      <c r="AB715" s="7"/>
     </row>
     <row r="716">
       <c r="A716" s="7"/>
@@ -52370,6 +53029,7 @@
       <c r="Y716" s="7"/>
       <c r="Z716" s="7"/>
       <c r="AA716" s="7"/>
+      <c r="AB716" s="7"/>
     </row>
     <row r="717">
       <c r="A717" s="7"/>
@@ -52399,6 +53059,7 @@
       <c r="Y717" s="7"/>
       <c r="Z717" s="7"/>
       <c r="AA717" s="7"/>
+      <c r="AB717" s="7"/>
     </row>
     <row r="718">
       <c r="A718" s="7"/>
@@ -52428,6 +53089,7 @@
       <c r="Y718" s="7"/>
       <c r="Z718" s="7"/>
       <c r="AA718" s="7"/>
+      <c r="AB718" s="7"/>
     </row>
     <row r="719">
       <c r="A719" s="7"/>
@@ -52457,6 +53119,7 @@
       <c r="Y719" s="7"/>
       <c r="Z719" s="7"/>
       <c r="AA719" s="7"/>
+      <c r="AB719" s="7"/>
     </row>
     <row r="720">
       <c r="A720" s="7"/>
@@ -52486,6 +53149,7 @@
       <c r="Y720" s="7"/>
       <c r="Z720" s="7"/>
       <c r="AA720" s="7"/>
+      <c r="AB720" s="7"/>
     </row>
     <row r="721">
       <c r="A721" s="7"/>
@@ -52515,6 +53179,7 @@
       <c r="Y721" s="7"/>
       <c r="Z721" s="7"/>
       <c r="AA721" s="7"/>
+      <c r="AB721" s="7"/>
     </row>
     <row r="722">
       <c r="A722" s="7"/>
@@ -52544,6 +53209,7 @@
       <c r="Y722" s="7"/>
       <c r="Z722" s="7"/>
       <c r="AA722" s="7"/>
+      <c r="AB722" s="7"/>
     </row>
     <row r="723">
       <c r="A723" s="7"/>
@@ -52573,6 +53239,7 @@
       <c r="Y723" s="7"/>
       <c r="Z723" s="7"/>
       <c r="AA723" s="7"/>
+      <c r="AB723" s="7"/>
     </row>
     <row r="724">
       <c r="A724" s="7"/>
@@ -52602,6 +53269,7 @@
       <c r="Y724" s="7"/>
       <c r="Z724" s="7"/>
       <c r="AA724" s="7"/>
+      <c r="AB724" s="7"/>
     </row>
     <row r="725">
       <c r="A725" s="7"/>
@@ -52631,6 +53299,7 @@
       <c r="Y725" s="7"/>
       <c r="Z725" s="7"/>
       <c r="AA725" s="7"/>
+      <c r="AB725" s="7"/>
     </row>
     <row r="726">
       <c r="A726" s="7"/>
@@ -52660,6 +53329,7 @@
       <c r="Y726" s="7"/>
       <c r="Z726" s="7"/>
       <c r="AA726" s="7"/>
+      <c r="AB726" s="7"/>
     </row>
     <row r="727">
       <c r="A727" s="7"/>
@@ -52689,6 +53359,7 @@
       <c r="Y727" s="7"/>
       <c r="Z727" s="7"/>
       <c r="AA727" s="7"/>
+      <c r="AB727" s="7"/>
     </row>
     <row r="728">
       <c r="A728" s="7"/>
@@ -52718,6 +53389,7 @@
       <c r="Y728" s="7"/>
       <c r="Z728" s="7"/>
       <c r="AA728" s="7"/>
+      <c r="AB728" s="7"/>
     </row>
     <row r="729">
       <c r="A729" s="7"/>
@@ -52747,6 +53419,7 @@
       <c r="Y729" s="7"/>
       <c r="Z729" s="7"/>
       <c r="AA729" s="7"/>
+      <c r="AB729" s="7"/>
     </row>
     <row r="730">
       <c r="A730" s="7"/>
@@ -52776,6 +53449,7 @@
       <c r="Y730" s="7"/>
       <c r="Z730" s="7"/>
       <c r="AA730" s="7"/>
+      <c r="AB730" s="7"/>
     </row>
     <row r="731">
       <c r="A731" s="7"/>
@@ -52805,6 +53479,7 @@
       <c r="Y731" s="7"/>
       <c r="Z731" s="7"/>
       <c r="AA731" s="7"/>
+      <c r="AB731" s="7"/>
     </row>
     <row r="732">
       <c r="A732" s="7"/>
@@ -52834,6 +53509,7 @@
       <c r="Y732" s="7"/>
       <c r="Z732" s="7"/>
       <c r="AA732" s="7"/>
+      <c r="AB732" s="7"/>
     </row>
     <row r="733">
       <c r="A733" s="7"/>
@@ -52863,6 +53539,7 @@
       <c r="Y733" s="7"/>
       <c r="Z733" s="7"/>
       <c r="AA733" s="7"/>
+      <c r="AB733" s="7"/>
     </row>
     <row r="734">
       <c r="A734" s="7"/>
@@ -52892,6 +53569,7 @@
       <c r="Y734" s="7"/>
       <c r="Z734" s="7"/>
       <c r="AA734" s="7"/>
+      <c r="AB734" s="7"/>
     </row>
     <row r="735">
       <c r="A735" s="7"/>
@@ -52921,6 +53599,7 @@
       <c r="Y735" s="7"/>
       <c r="Z735" s="7"/>
       <c r="AA735" s="7"/>
+      <c r="AB735" s="7"/>
     </row>
     <row r="736">
       <c r="A736" s="7"/>
@@ -52950,6 +53629,7 @@
       <c r="Y736" s="7"/>
       <c r="Z736" s="7"/>
       <c r="AA736" s="7"/>
+      <c r="AB736" s="7"/>
     </row>
     <row r="737">
       <c r="A737" s="7"/>
@@ -52979,6 +53659,7 @@
       <c r="Y737" s="7"/>
       <c r="Z737" s="7"/>
       <c r="AA737" s="7"/>
+      <c r="AB737" s="7"/>
     </row>
     <row r="738">
       <c r="A738" s="7"/>
@@ -53008,6 +53689,7 @@
       <c r="Y738" s="7"/>
       <c r="Z738" s="7"/>
       <c r="AA738" s="7"/>
+      <c r="AB738" s="7"/>
     </row>
     <row r="739">
       <c r="A739" s="7"/>
@@ -53037,6 +53719,7 @@
       <c r="Y739" s="7"/>
       <c r="Z739" s="7"/>
       <c r="AA739" s="7"/>
+      <c r="AB739" s="7"/>
     </row>
     <row r="740">
       <c r="A740" s="7"/>
@@ -53066,6 +53749,7 @@
       <c r="Y740" s="7"/>
       <c r="Z740" s="7"/>
       <c r="AA740" s="7"/>
+      <c r="AB740" s="7"/>
     </row>
     <row r="741">
       <c r="A741" s="7"/>
@@ -53095,6 +53779,7 @@
       <c r="Y741" s="7"/>
       <c r="Z741" s="7"/>
       <c r="AA741" s="7"/>
+      <c r="AB741" s="7"/>
     </row>
     <row r="742">
       <c r="A742" s="7"/>
@@ -53124,6 +53809,7 @@
       <c r="Y742" s="7"/>
       <c r="Z742" s="7"/>
       <c r="AA742" s="7"/>
+      <c r="AB742" s="7"/>
     </row>
     <row r="743">
       <c r="A743" s="7"/>
@@ -53153,6 +53839,7 @@
       <c r="Y743" s="7"/>
       <c r="Z743" s="7"/>
       <c r="AA743" s="7"/>
+      <c r="AB743" s="7"/>
     </row>
     <row r="744">
       <c r="A744" s="7"/>
@@ -53182,6 +53869,7 @@
       <c r="Y744" s="7"/>
       <c r="Z744" s="7"/>
       <c r="AA744" s="7"/>
+      <c r="AB744" s="7"/>
     </row>
     <row r="745">
       <c r="A745" s="7"/>
@@ -53211,6 +53899,7 @@
       <c r="Y745" s="7"/>
       <c r="Z745" s="7"/>
       <c r="AA745" s="7"/>
+      <c r="AB745" s="7"/>
     </row>
     <row r="746">
       <c r="A746" s="7"/>
@@ -53240,6 +53929,7 @@
       <c r="Y746" s="7"/>
       <c r="Z746" s="7"/>
       <c r="AA746" s="7"/>
+      <c r="AB746" s="7"/>
     </row>
     <row r="747">
       <c r="A747" s="7"/>
@@ -53269,6 +53959,7 @@
       <c r="Y747" s="7"/>
       <c r="Z747" s="7"/>
       <c r="AA747" s="7"/>
+      <c r="AB747" s="7"/>
     </row>
     <row r="748">
       <c r="A748" s="7"/>
@@ -53298,6 +53989,7 @@
       <c r="Y748" s="7"/>
       <c r="Z748" s="7"/>
       <c r="AA748" s="7"/>
+      <c r="AB748" s="7"/>
     </row>
     <row r="749">
       <c r="A749" s="7"/>
@@ -53327,6 +54019,7 @@
       <c r="Y749" s="7"/>
       <c r="Z749" s="7"/>
       <c r="AA749" s="7"/>
+      <c r="AB749" s="7"/>
     </row>
     <row r="750">
       <c r="A750" s="7"/>
@@ -53356,6 +54049,7 @@
       <c r="Y750" s="7"/>
       <c r="Z750" s="7"/>
       <c r="AA750" s="7"/>
+      <c r="AB750" s="7"/>
     </row>
     <row r="751">
       <c r="A751" s="7"/>
@@ -53385,6 +54079,7 @@
       <c r="Y751" s="7"/>
       <c r="Z751" s="7"/>
       <c r="AA751" s="7"/>
+      <c r="AB751" s="7"/>
     </row>
     <row r="752">
       <c r="A752" s="7"/>
@@ -53414,6 +54109,7 @@
       <c r="Y752" s="7"/>
       <c r="Z752" s="7"/>
       <c r="AA752" s="7"/>
+      <c r="AB752" s="7"/>
     </row>
     <row r="753">
       <c r="A753" s="7"/>
@@ -53443,6 +54139,7 @@
       <c r="Y753" s="7"/>
       <c r="Z753" s="7"/>
       <c r="AA753" s="7"/>
+      <c r="AB753" s="7"/>
     </row>
     <row r="754">
       <c r="A754" s="7"/>
@@ -53472,6 +54169,7 @@
       <c r="Y754" s="7"/>
       <c r="Z754" s="7"/>
       <c r="AA754" s="7"/>
+      <c r="AB754" s="7"/>
     </row>
     <row r="755">
       <c r="A755" s="7"/>
@@ -53501,6 +54199,7 @@
       <c r="Y755" s="7"/>
       <c r="Z755" s="7"/>
       <c r="AA755" s="7"/>
+      <c r="AB755" s="7"/>
     </row>
     <row r="756">
       <c r="A756" s="7"/>
@@ -53530,6 +54229,7 @@
       <c r="Y756" s="7"/>
       <c r="Z756" s="7"/>
       <c r="AA756" s="7"/>
+      <c r="AB756" s="7"/>
     </row>
     <row r="757">
       <c r="A757" s="7"/>
@@ -53559,6 +54259,7 @@
       <c r="Y757" s="7"/>
       <c r="Z757" s="7"/>
       <c r="AA757" s="7"/>
+      <c r="AB757" s="7"/>
     </row>
     <row r="758">
       <c r="A758" s="7"/>
@@ -53588,6 +54289,7 @@
       <c r="Y758" s="7"/>
       <c r="Z758" s="7"/>
       <c r="AA758" s="7"/>
+      <c r="AB758" s="7"/>
     </row>
     <row r="759">
       <c r="A759" s="7"/>
@@ -53617,6 +54319,7 @@
       <c r="Y759" s="7"/>
       <c r="Z759" s="7"/>
       <c r="AA759" s="7"/>
+      <c r="AB759" s="7"/>
     </row>
     <row r="760">
       <c r="A760" s="7"/>
@@ -53646,6 +54349,7 @@
       <c r="Y760" s="7"/>
       <c r="Z760" s="7"/>
       <c r="AA760" s="7"/>
+      <c r="AB760" s="7"/>
     </row>
     <row r="761">
       <c r="A761" s="7"/>
@@ -53675,6 +54379,7 @@
       <c r="Y761" s="7"/>
       <c r="Z761" s="7"/>
       <c r="AA761" s="7"/>
+      <c r="AB761" s="7"/>
     </row>
     <row r="762">
       <c r="A762" s="7"/>
@@ -53704,6 +54409,7 @@
       <c r="Y762" s="7"/>
       <c r="Z762" s="7"/>
       <c r="AA762" s="7"/>
+      <c r="AB762" s="7"/>
     </row>
     <row r="763">
       <c r="A763" s="7"/>
@@ -53733,6 +54439,7 @@
       <c r="Y763" s="7"/>
       <c r="Z763" s="7"/>
       <c r="AA763" s="7"/>
+      <c r="AB763" s="7"/>
     </row>
     <row r="764">
       <c r="A764" s="7"/>
@@ -53762,6 +54469,7 @@
       <c r="Y764" s="7"/>
       <c r="Z764" s="7"/>
       <c r="AA764" s="7"/>
+      <c r="AB764" s="7"/>
     </row>
     <row r="765">
       <c r="A765" s="7"/>
@@ -53791,6 +54499,7 @@
       <c r="Y765" s="7"/>
       <c r="Z765" s="7"/>
       <c r="AA765" s="7"/>
+      <c r="AB765" s="7"/>
     </row>
     <row r="766">
       <c r="A766" s="7"/>
@@ -53820,6 +54529,7 @@
       <c r="Y766" s="7"/>
       <c r="Z766" s="7"/>
       <c r="AA766" s="7"/>
+      <c r="AB766" s="7"/>
     </row>
     <row r="767">
       <c r="A767" s="7"/>
@@ -53849,6 +54559,7 @@
       <c r="Y767" s="7"/>
       <c r="Z767" s="7"/>
       <c r="AA767" s="7"/>
+      <c r="AB767" s="7"/>
     </row>
     <row r="768">
       <c r="A768" s="7"/>
@@ -53878,6 +54589,7 @@
       <c r="Y768" s="7"/>
       <c r="Z768" s="7"/>
       <c r="AA768" s="7"/>
+      <c r="AB768" s="7"/>
     </row>
     <row r="769">
       <c r="A769" s="7"/>
@@ -53907,6 +54619,7 @@
       <c r="Y769" s="7"/>
       <c r="Z769" s="7"/>
       <c r="AA769" s="7"/>
+      <c r="AB769" s="7"/>
     </row>
     <row r="770">
       <c r="A770" s="7"/>
@@ -53936,6 +54649,7 @@
       <c r="Y770" s="7"/>
       <c r="Z770" s="7"/>
       <c r="AA770" s="7"/>
+      <c r="AB770" s="7"/>
     </row>
     <row r="771">
       <c r="A771" s="7"/>
@@ -53965,6 +54679,7 @@
       <c r="Y771" s="7"/>
       <c r="Z771" s="7"/>
       <c r="AA771" s="7"/>
+      <c r="AB771" s="7"/>
     </row>
     <row r="772">
       <c r="A772" s="7"/>
@@ -53994,6 +54709,7 @@
       <c r="Y772" s="7"/>
       <c r="Z772" s="7"/>
       <c r="AA772" s="7"/>
+      <c r="AB772" s="7"/>
     </row>
     <row r="773">
       <c r="A773" s="7"/>
@@ -54023,6 +54739,7 @@
       <c r="Y773" s="7"/>
       <c r="Z773" s="7"/>
       <c r="AA773" s="7"/>
+      <c r="AB773" s="7"/>
     </row>
     <row r="774">
       <c r="A774" s="7"/>
@@ -54052,6 +54769,7 @@
       <c r="Y774" s="7"/>
       <c r="Z774" s="7"/>
       <c r="AA774" s="7"/>
+      <c r="AB774" s="7"/>
     </row>
     <row r="775">
       <c r="A775" s="7"/>
@@ -54081,6 +54799,7 @@
       <c r="Y775" s="7"/>
       <c r="Z775" s="7"/>
       <c r="AA775" s="7"/>
+      <c r="AB775" s="7"/>
     </row>
     <row r="776">
       <c r="A776" s="7"/>
@@ -54110,6 +54829,7 @@
       <c r="Y776" s="7"/>
       <c r="Z776" s="7"/>
       <c r="AA776" s="7"/>
+      <c r="AB776" s="7"/>
     </row>
     <row r="777">
       <c r="A777" s="7"/>
@@ -54139,6 +54859,7 @@
       <c r="Y777" s="7"/>
       <c r="Z777" s="7"/>
       <c r="AA777" s="7"/>
+      <c r="AB777" s="7"/>
     </row>
     <row r="778">
       <c r="A778" s="7"/>
@@ -54168,6 +54889,7 @@
       <c r="Y778" s="7"/>
       <c r="Z778" s="7"/>
       <c r="AA778" s="7"/>
+      <c r="AB778" s="7"/>
     </row>
     <row r="779">
       <c r="A779" s="7"/>
@@ -54197,6 +54919,7 @@
       <c r="Y779" s="7"/>
       <c r="Z779" s="7"/>
       <c r="AA779" s="7"/>
+      <c r="AB779" s="7"/>
     </row>
     <row r="780">
       <c r="A780" s="7"/>
@@ -54226,6 +54949,7 @@
       <c r="Y780" s="7"/>
       <c r="Z780" s="7"/>
       <c r="AA780" s="7"/>
+      <c r="AB780" s="7"/>
     </row>
     <row r="781">
       <c r="A781" s="7"/>
@@ -54255,6 +54979,7 @@
       <c r="Y781" s="7"/>
       <c r="Z781" s="7"/>
       <c r="AA781" s="7"/>
+      <c r="AB781" s="7"/>
     </row>
     <row r="782">
       <c r="A782" s="7"/>
@@ -54284,6 +55009,7 @@
       <c r="Y782" s="7"/>
       <c r="Z782" s="7"/>
       <c r="AA782" s="7"/>
+      <c r="AB782" s="7"/>
     </row>
     <row r="783">
       <c r="A783" s="7"/>
@@ -54313,6 +55039,7 @@
       <c r="Y783" s="7"/>
       <c r="Z783" s="7"/>
       <c r="AA783" s="7"/>
+      <c r="AB783" s="7"/>
     </row>
     <row r="784">
       <c r="A784" s="7"/>
@@ -54342,6 +55069,7 @@
       <c r="Y784" s="7"/>
       <c r="Z784" s="7"/>
       <c r="AA784" s="7"/>
+      <c r="AB784" s="7"/>
     </row>
     <row r="785">
       <c r="A785" s="7"/>
@@ -54371,6 +55099,7 @@
       <c r="Y785" s="7"/>
       <c r="Z785" s="7"/>
       <c r="AA785" s="7"/>
+      <c r="AB785" s="7"/>
     </row>
     <row r="786">
       <c r="A786" s="7"/>
@@ -54400,6 +55129,7 @@
       <c r="Y786" s="7"/>
       <c r="Z786" s="7"/>
       <c r="AA786" s="7"/>
+      <c r="AB786" s="7"/>
     </row>
     <row r="787">
       <c r="A787" s="7"/>
@@ -54429,6 +55159,7 @@
       <c r="Y787" s="7"/>
       <c r="Z787" s="7"/>
       <c r="AA787" s="7"/>
+      <c r="AB787" s="7"/>
     </row>
     <row r="788">
       <c r="A788" s="7"/>
@@ -54458,6 +55189,7 @@
       <c r="Y788" s="7"/>
       <c r="Z788" s="7"/>
       <c r="AA788" s="7"/>
+      <c r="AB788" s="7"/>
     </row>
     <row r="789">
       <c r="A789" s="7"/>
@@ -54487,6 +55219,7 @@
       <c r="Y789" s="7"/>
       <c r="Z789" s="7"/>
       <c r="AA789" s="7"/>
+      <c r="AB789" s="7"/>
     </row>
     <row r="790">
       <c r="A790" s="7"/>
@@ -54516,6 +55249,7 @@
       <c r="Y790" s="7"/>
       <c r="Z790" s="7"/>
       <c r="AA790" s="7"/>
+      <c r="AB790" s="7"/>
     </row>
     <row r="791">
       <c r="A791" s="7"/>
@@ -54545,6 +55279,7 @@
       <c r="Y791" s="7"/>
       <c r="Z791" s="7"/>
       <c r="AA791" s="7"/>
+      <c r="AB791" s="7"/>
     </row>
     <row r="792">
       <c r="A792" s="7"/>
@@ -54574,6 +55309,7 @@
       <c r="Y792" s="7"/>
       <c r="Z792" s="7"/>
       <c r="AA792" s="7"/>
+      <c r="AB792" s="7"/>
     </row>
     <row r="793">
       <c r="A793" s="7"/>
@@ -54603,6 +55339,7 @@
       <c r="Y793" s="7"/>
       <c r="Z793" s="7"/>
       <c r="AA793" s="7"/>
+      <c r="AB793" s="7"/>
     </row>
     <row r="794">
       <c r="A794" s="7"/>
@@ -54632,6 +55369,7 @@
       <c r="Y794" s="7"/>
       <c r="Z794" s="7"/>
       <c r="AA794" s="7"/>
+      <c r="AB794" s="7"/>
     </row>
     <row r="795">
       <c r="A795" s="7"/>
@@ -54661,6 +55399,7 @@
       <c r="Y795" s="7"/>
       <c r="Z795" s="7"/>
       <c r="AA795" s="7"/>
+      <c r="AB795" s="7"/>
     </row>
     <row r="796">
       <c r="A796" s="7"/>
@@ -54690,6 +55429,7 @@
       <c r="Y796" s="7"/>
       <c r="Z796" s="7"/>
       <c r="AA796" s="7"/>
+      <c r="AB796" s="7"/>
     </row>
     <row r="797">
       <c r="A797" s="7"/>
@@ -54719,6 +55459,7 @@
       <c r="Y797" s="7"/>
       <c r="Z797" s="7"/>
       <c r="AA797" s="7"/>
+      <c r="AB797" s="7"/>
     </row>
     <row r="798">
       <c r="A798" s="7"/>
@@ -54748,6 +55489,7 @@
       <c r="Y798" s="7"/>
       <c r="Z798" s="7"/>
       <c r="AA798" s="7"/>
+      <c r="AB798" s="7"/>
     </row>
     <row r="799">
       <c r="A799" s="7"/>
@@ -54777,6 +55519,7 @@
       <c r="Y799" s="7"/>
       <c r="Z799" s="7"/>
       <c r="AA799" s="7"/>
+      <c r="AB799" s="7"/>
     </row>
     <row r="800">
       <c r="A800" s="7"/>
@@ -54806,6 +55549,7 @@
       <c r="Y800" s="7"/>
       <c r="Z800" s="7"/>
       <c r="AA800" s="7"/>
+      <c r="AB800" s="7"/>
     </row>
     <row r="801">
       <c r="A801" s="7"/>
@@ -54835,6 +55579,7 @@
       <c r="Y801" s="7"/>
       <c r="Z801" s="7"/>
       <c r="AA801" s="7"/>
+      <c r="AB801" s="7"/>
     </row>
     <row r="802">
       <c r="A802" s="7"/>
@@ -54864,6 +55609,7 @@
       <c r="Y802" s="7"/>
       <c r="Z802" s="7"/>
       <c r="AA802" s="7"/>
+      <c r="AB802" s="7"/>
     </row>
     <row r="803">
       <c r="A803" s="7"/>
@@ -54893,6 +55639,7 @@
       <c r="Y803" s="7"/>
       <c r="Z803" s="7"/>
       <c r="AA803" s="7"/>
+      <c r="AB803" s="7"/>
     </row>
     <row r="804">
       <c r="A804" s="7"/>
@@ -54922,6 +55669,7 @@
       <c r="Y804" s="7"/>
       <c r="Z804" s="7"/>
       <c r="AA804" s="7"/>
+      <c r="AB804" s="7"/>
     </row>
     <row r="805">
       <c r="A805" s="7"/>
@@ -54951,6 +55699,7 @@
       <c r="Y805" s="7"/>
       <c r="Z805" s="7"/>
       <c r="AA805" s="7"/>
+      <c r="AB805" s="7"/>
     </row>
     <row r="806">
       <c r="A806" s="7"/>
@@ -54980,6 +55729,7 @@
       <c r="Y806" s="7"/>
       <c r="Z806" s="7"/>
       <c r="AA806" s="7"/>
+      <c r="AB806" s="7"/>
     </row>
     <row r="807">
       <c r="A807" s="7"/>
@@ -55009,6 +55759,7 @@
       <c r="Y807" s="7"/>
       <c r="Z807" s="7"/>
       <c r="AA807" s="7"/>
+      <c r="AB807" s="7"/>
     </row>
     <row r="808">
       <c r="A808" s="7"/>
@@ -55038,6 +55789,7 @@
       <c r="Y808" s="7"/>
       <c r="Z808" s="7"/>
       <c r="AA808" s="7"/>
+      <c r="AB808" s="7"/>
     </row>
     <row r="809">
       <c r="A809" s="7"/>
@@ -55067,6 +55819,7 @@
       <c r="Y809" s="7"/>
       <c r="Z809" s="7"/>
       <c r="AA809" s="7"/>
+      <c r="AB809" s="7"/>
     </row>
     <row r="810">
       <c r="A810" s="7"/>
@@ -55096,6 +55849,7 @@
       <c r="Y810" s="7"/>
       <c r="Z810" s="7"/>
       <c r="AA810" s="7"/>
+      <c r="AB810" s="7"/>
     </row>
     <row r="811">
       <c r="A811" s="7"/>
@@ -55125,6 +55879,7 @@
       <c r="Y811" s="7"/>
       <c r="Z811" s="7"/>
       <c r="AA811" s="7"/>
+      <c r="AB811" s="7"/>
     </row>
     <row r="812">
       <c r="A812" s="7"/>
@@ -55154,6 +55909,7 @@
       <c r="Y812" s="7"/>
       <c r="Z812" s="7"/>
       <c r="AA812" s="7"/>
+      <c r="AB812" s="7"/>
     </row>
     <row r="813">
       <c r="A813" s="7"/>
@@ -55183,6 +55939,7 @@
       <c r="Y813" s="7"/>
       <c r="Z813" s="7"/>
       <c r="AA813" s="7"/>
+      <c r="AB813" s="7"/>
     </row>
     <row r="814">
       <c r="A814" s="7"/>
@@ -55212,6 +55969,7 @@
       <c r="Y814" s="7"/>
       <c r="Z814" s="7"/>
       <c r="AA814" s="7"/>
+      <c r="AB814" s="7"/>
     </row>
     <row r="815">
       <c r="A815" s="7"/>
@@ -55241,6 +55999,7 @@
       <c r="Y815" s="7"/>
       <c r="Z815" s="7"/>
       <c r="AA815" s="7"/>
+      <c r="AB815" s="7"/>
     </row>
     <row r="816">
       <c r="A816" s="7"/>
@@ -55270,6 +56029,7 @@
       <c r="Y816" s="7"/>
       <c r="Z816" s="7"/>
       <c r="AA816" s="7"/>
+      <c r="AB816" s="7"/>
     </row>
     <row r="817">
       <c r="A817" s="7"/>
@@ -55299,6 +56059,7 @@
       <c r="Y817" s="7"/>
       <c r="Z817" s="7"/>
       <c r="AA817" s="7"/>
+      <c r="AB817" s="7"/>
     </row>
     <row r="818">
       <c r="A818" s="7"/>
@@ -55328,6 +56089,7 @@
       <c r="Y818" s="7"/>
       <c r="Z818" s="7"/>
       <c r="AA818" s="7"/>
+      <c r="AB818" s="7"/>
     </row>
     <row r="819">
       <c r="A819" s="7"/>
@@ -55357,6 +56119,7 @@
       <c r="Y819" s="7"/>
       <c r="Z819" s="7"/>
       <c r="AA819" s="7"/>
+      <c r="AB819" s="7"/>
     </row>
     <row r="820">
       <c r="A820" s="7"/>
@@ -55386,6 +56149,7 @@
       <c r="Y820" s="7"/>
       <c r="Z820" s="7"/>
       <c r="AA820" s="7"/>
+      <c r="AB820" s="7"/>
     </row>
     <row r="821">
       <c r="A821" s="7"/>
@@ -55415,6 +56179,7 @@
       <c r="Y821" s="7"/>
       <c r="Z821" s="7"/>
       <c r="AA821" s="7"/>
+      <c r="AB821" s="7"/>
     </row>
     <row r="822">
       <c r="A822" s="7"/>
@@ -55444,6 +56209,7 @@
       <c r="Y822" s="7"/>
       <c r="Z822" s="7"/>
       <c r="AA822" s="7"/>
+      <c r="AB822" s="7"/>
     </row>
     <row r="823">
       <c r="A823" s="7"/>
@@ -55473,6 +56239,7 @@
       <c r="Y823" s="7"/>
       <c r="Z823" s="7"/>
       <c r="AA823" s="7"/>
+      <c r="AB823" s="7"/>
     </row>
     <row r="824">
       <c r="A824" s="7"/>
@@ -55502,6 +56269,7 @@
       <c r="Y824" s="7"/>
       <c r="Z824" s="7"/>
       <c r="AA824" s="7"/>
+      <c r="AB824" s="7"/>
     </row>
     <row r="825">
       <c r="A825" s="7"/>
@@ -55531,6 +56299,7 @@
       <c r="Y825" s="7"/>
       <c r="Z825" s="7"/>
       <c r="AA825" s="7"/>
+      <c r="AB825" s="7"/>
     </row>
     <row r="826">
       <c r="A826" s="7"/>
@@ -55560,6 +56329,7 @@
       <c r="Y826" s="7"/>
       <c r="Z826" s="7"/>
       <c r="AA826" s="7"/>
+      <c r="AB826" s="7"/>
     </row>
     <row r="827">
       <c r="A827" s="7"/>
@@ -55589,6 +56359,7 @@
       <c r="Y827" s="7"/>
       <c r="Z827" s="7"/>
       <c r="AA827" s="7"/>
+      <c r="AB827" s="7"/>
     </row>
     <row r="828">
       <c r="A828" s="7"/>
@@ -55618,6 +56389,7 @@
       <c r="Y828" s="7"/>
       <c r="Z828" s="7"/>
       <c r="AA828" s="7"/>
+      <c r="AB828" s="7"/>
     </row>
     <row r="829">
       <c r="A829" s="7"/>
@@ -55647,6 +56419,7 @@
       <c r="Y829" s="7"/>
       <c r="Z829" s="7"/>
       <c r="AA829" s="7"/>
+      <c r="AB829" s="7"/>
     </row>
     <row r="830">
       <c r="A830" s="7"/>
@@ -55676,6 +56449,7 @@
       <c r="Y830" s="7"/>
       <c r="Z830" s="7"/>
       <c r="AA830" s="7"/>
+      <c r="AB830" s="7"/>
     </row>
     <row r="831">
       <c r="A831" s="7"/>
@@ -55705,6 +56479,7 @@
       <c r="Y831" s="7"/>
       <c r="Z831" s="7"/>
       <c r="AA831" s="7"/>
+      <c r="AB831" s="7"/>
     </row>
     <row r="832">
       <c r="A832" s="7"/>
@@ -55734,6 +56509,7 @@
       <c r="Y832" s="7"/>
       <c r="Z832" s="7"/>
       <c r="AA832" s="7"/>
+      <c r="AB832" s="7"/>
     </row>
     <row r="833">
       <c r="A833" s="7"/>
@@ -55763,6 +56539,7 @@
       <c r="Y833" s="7"/>
       <c r="Z833" s="7"/>
       <c r="AA833" s="7"/>
+      <c r="AB833" s="7"/>
     </row>
     <row r="834">
       <c r="A834" s="7"/>
@@ -55792,6 +56569,7 @@
       <c r="Y834" s="7"/>
       <c r="Z834" s="7"/>
       <c r="AA834" s="7"/>
+      <c r="AB834" s="7"/>
     </row>
     <row r="835">
       <c r="A835" s="7"/>
@@ -55821,6 +56599,7 @@
       <c r="Y835" s="7"/>
       <c r="Z835" s="7"/>
       <c r="AA835" s="7"/>
+      <c r="AB835" s="7"/>
     </row>
     <row r="836">
       <c r="A836" s="7"/>
@@ -55850,6 +56629,7 @@
       <c r="Y836" s="7"/>
       <c r="Z836" s="7"/>
       <c r="AA836" s="7"/>
+      <c r="AB836" s="7"/>
     </row>
     <row r="837">
       <c r="A837" s="7"/>
@@ -55879,6 +56659,7 @@
       <c r="Y837" s="7"/>
       <c r="Z837" s="7"/>
       <c r="AA837" s="7"/>
+      <c r="AB837" s="7"/>
     </row>
     <row r="838">
       <c r="A838" s="7"/>
@@ -55908,6 +56689,7 @@
       <c r="Y838" s="7"/>
       <c r="Z838" s="7"/>
       <c r="AA838" s="7"/>
+      <c r="AB838" s="7"/>
     </row>
     <row r="839">
       <c r="A839" s="7"/>
@@ -55937,6 +56719,7 @@
       <c r="Y839" s="7"/>
       <c r="Z839" s="7"/>
       <c r="AA839" s="7"/>
+      <c r="AB839" s="7"/>
     </row>
     <row r="840">
       <c r="A840" s="7"/>
@@ -55966,6 +56749,7 @@
       <c r="Y840" s="7"/>
       <c r="Z840" s="7"/>
       <c r="AA840" s="7"/>
+      <c r="AB840" s="7"/>
     </row>
     <row r="841">
       <c r="A841" s="7"/>
@@ -55995,6 +56779,7 @@
       <c r="Y841" s="7"/>
       <c r="Z841" s="7"/>
       <c r="AA841" s="7"/>
+      <c r="AB841" s="7"/>
     </row>
     <row r="842">
       <c r="A842" s="7"/>
@@ -56024,6 +56809,7 @@
       <c r="Y842" s="7"/>
       <c r="Z842" s="7"/>
       <c r="AA842" s="7"/>
+      <c r="AB842" s="7"/>
     </row>
     <row r="843">
       <c r="A843" s="7"/>
@@ -56053,6 +56839,7 @@
       <c r="Y843" s="7"/>
       <c r="Z843" s="7"/>
       <c r="AA843" s="7"/>
+      <c r="AB843" s="7"/>
     </row>
     <row r="844">
       <c r="A844" s="7"/>
@@ -56082,6 +56869,7 @@
       <c r="Y844" s="7"/>
       <c r="Z844" s="7"/>
       <c r="AA844" s="7"/>
+      <c r="AB844" s="7"/>
     </row>
     <row r="845">
       <c r="A845" s="7"/>
@@ -56111,6 +56899,7 @@
       <c r="Y845" s="7"/>
       <c r="Z845" s="7"/>
       <c r="AA845" s="7"/>
+      <c r="AB845" s="7"/>
     </row>
     <row r="846">
       <c r="A846" s="7"/>
@@ -56140,6 +56929,7 @@
       <c r="Y846" s="7"/>
       <c r="Z846" s="7"/>
       <c r="AA846" s="7"/>
+      <c r="AB846" s="7"/>
     </row>
     <row r="847">
       <c r="A847" s="7"/>
@@ -56169,6 +56959,7 @@
       <c r="Y847" s="7"/>
       <c r="Z847" s="7"/>
       <c r="AA847" s="7"/>
+      <c r="AB847" s="7"/>
     </row>
     <row r="848">
       <c r="A848" s="7"/>
@@ -56198,6 +56989,7 @@
       <c r="Y848" s="7"/>
       <c r="Z848" s="7"/>
       <c r="AA848" s="7"/>
+      <c r="AB848" s="7"/>
     </row>
     <row r="849">
       <c r="A849" s="7"/>
@@ -56227,6 +57019,7 @@
       <c r="Y849" s="7"/>
       <c r="Z849" s="7"/>
       <c r="AA849" s="7"/>
+      <c r="AB849" s="7"/>
     </row>
     <row r="850">
       <c r="A850" s="7"/>
@@ -56256,6 +57049,7 @@
       <c r="Y850" s="7"/>
       <c r="Z850" s="7"/>
       <c r="AA850" s="7"/>
+      <c r="AB850" s="7"/>
     </row>
     <row r="851">
       <c r="A851" s="7"/>
@@ -56285,6 +57079,7 @@
       <c r="Y851" s="7"/>
       <c r="Z851" s="7"/>
       <c r="AA851" s="7"/>
+      <c r="AB851" s="7"/>
     </row>
     <row r="852">
       <c r="A852" s="7"/>
@@ -56314,6 +57109,7 @@
       <c r="Y852" s="7"/>
       <c r="Z852" s="7"/>
       <c r="AA852" s="7"/>
+      <c r="AB852" s="7"/>
     </row>
     <row r="853">
       <c r="A853" s="7"/>
@@ -56343,6 +57139,7 @@
       <c r="Y853" s="7"/>
       <c r="Z853" s="7"/>
       <c r="AA853" s="7"/>
+      <c r="AB853" s="7"/>
     </row>
     <row r="854">
       <c r="A854" s="7"/>
@@ -56372,6 +57169,7 @@
       <c r="Y854" s="7"/>
       <c r="Z854" s="7"/>
       <c r="AA854" s="7"/>
+      <c r="AB854" s="7"/>
     </row>
     <row r="855">
       <c r="A855" s="7"/>
@@ -56401,6 +57199,7 @@
       <c r="Y855" s="7"/>
       <c r="Z855" s="7"/>
       <c r="AA855" s="7"/>
+      <c r="AB855" s="7"/>
     </row>
     <row r="856">
       <c r="A856" s="7"/>
@@ -56430,6 +57229,7 @@
       <c r="Y856" s="7"/>
       <c r="Z856" s="7"/>
       <c r="AA856" s="7"/>
+      <c r="AB856" s="7"/>
     </row>
     <row r="857">
       <c r="A857" s="7"/>
@@ -56459,6 +57259,7 @@
       <c r="Y857" s="7"/>
       <c r="Z857" s="7"/>
       <c r="AA857" s="7"/>
+      <c r="AB857" s="7"/>
     </row>
     <row r="858">
       <c r="A858" s="7"/>
@@ -56488,6 +57289,7 @@
       <c r="Y858" s="7"/>
       <c r="Z858" s="7"/>
       <c r="AA858" s="7"/>
+      <c r="AB858" s="7"/>
     </row>
     <row r="859">
       <c r="A859" s="7"/>
@@ -56517,6 +57319,7 @@
       <c r="Y859" s="7"/>
       <c r="Z859" s="7"/>
       <c r="AA859" s="7"/>
+      <c r="AB859" s="7"/>
     </row>
     <row r="860">
       <c r="A860" s="7"/>
@@ -56546,6 +57349,7 @@
       <c r="Y860" s="7"/>
       <c r="Z860" s="7"/>
       <c r="AA860" s="7"/>
+      <c r="AB860" s="7"/>
     </row>
     <row r="861">
       <c r="A861" s="7"/>
@@ -56575,6 +57379,7 @@
       <c r="Y861" s="7"/>
       <c r="Z861" s="7"/>
       <c r="AA861" s="7"/>
+      <c r="AB861" s="7"/>
     </row>
     <row r="862">
       <c r="A862" s="7"/>
@@ -56604,6 +57409,7 @@
       <c r="Y862" s="7"/>
       <c r="Z862" s="7"/>
       <c r="AA862" s="7"/>
+      <c r="AB862" s="7"/>
     </row>
     <row r="863">
       <c r="A863" s="7"/>
@@ -56633,6 +57439,7 @@
       <c r="Y863" s="7"/>
       <c r="Z863" s="7"/>
       <c r="AA863" s="7"/>
+      <c r="AB863" s="7"/>
     </row>
     <row r="864">
       <c r="A864" s="7"/>
@@ -56662,6 +57469,7 @@
       <c r="Y864" s="7"/>
       <c r="Z864" s="7"/>
       <c r="AA864" s="7"/>
+      <c r="AB864" s="7"/>
     </row>
     <row r="865">
       <c r="A865" s="7"/>
@@ -56691,6 +57499,7 @@
       <c r="Y865" s="7"/>
       <c r="Z865" s="7"/>
       <c r="AA865" s="7"/>
+      <c r="AB865" s="7"/>
     </row>
     <row r="866">
       <c r="A866" s="7"/>
@@ -56720,6 +57529,7 @@
       <c r="Y866" s="7"/>
       <c r="Z866" s="7"/>
       <c r="AA866" s="7"/>
+      <c r="AB866" s="7"/>
     </row>
     <row r="867">
       <c r="A867" s="7"/>
@@ -56749,6 +57559,7 @@
       <c r="Y867" s="7"/>
       <c r="Z867" s="7"/>
       <c r="AA867" s="7"/>
+      <c r="AB867" s="7"/>
     </row>
     <row r="868">
       <c r="A868" s="7"/>
@@ -56778,6 +57589,7 @@
       <c r="Y868" s="7"/>
       <c r="Z868" s="7"/>
       <c r="AA868" s="7"/>
+      <c r="AB868" s="7"/>
     </row>
     <row r="869">
       <c r="A869" s="7"/>
@@ -56807,6 +57619,7 @@
       <c r="Y869" s="7"/>
       <c r="Z869" s="7"/>
       <c r="AA869" s="7"/>
+      <c r="AB869" s="7"/>
     </row>
     <row r="870">
       <c r="A870" s="7"/>
@@ -56836,6 +57649,7 @@
       <c r="Y870" s="7"/>
       <c r="Z870" s="7"/>
       <c r="AA870" s="7"/>
+      <c r="AB870" s="7"/>
     </row>
     <row r="871">
       <c r="A871" s="7"/>
@@ -56865,6 +57679,7 @@
       <c r="Y871" s="7"/>
       <c r="Z871" s="7"/>
       <c r="AA871" s="7"/>
+      <c r="AB871" s="7"/>
     </row>
     <row r="872">
       <c r="A872" s="7"/>
@@ -56894,6 +57709,7 @@
       <c r="Y872" s="7"/>
       <c r="Z872" s="7"/>
       <c r="AA872" s="7"/>
+      <c r="AB872" s="7"/>
     </row>
     <row r="873">
       <c r="A873" s="7"/>
@@ -56923,6 +57739,7 @@
       <c r="Y873" s="7"/>
       <c r="Z873" s="7"/>
       <c r="AA873" s="7"/>
+      <c r="AB873" s="7"/>
     </row>
     <row r="874">
       <c r="A874" s="7"/>
@@ -56952,6 +57769,7 @@
       <c r="Y874" s="7"/>
       <c r="Z874" s="7"/>
       <c r="AA874" s="7"/>
+      <c r="AB874" s="7"/>
     </row>
     <row r="875">
       <c r="A875" s="7"/>
@@ -56981,6 +57799,7 @@
       <c r="Y875" s="7"/>
       <c r="Z875" s="7"/>
       <c r="AA875" s="7"/>
+      <c r="AB875" s="7"/>
     </row>
     <row r="876">
       <c r="A876" s="7"/>
@@ -57010,6 +57829,7 @@
       <c r="Y876" s="7"/>
       <c r="Z876" s="7"/>
       <c r="AA876" s="7"/>
+      <c r="AB876" s="7"/>
     </row>
     <row r="877">
       <c r="A877" s="7"/>
@@ -57039,6 +57859,7 @@
       <c r="Y877" s="7"/>
       <c r="Z877" s="7"/>
       <c r="AA877" s="7"/>
+      <c r="AB877" s="7"/>
     </row>
     <row r="878">
       <c r="A878" s="7"/>
@@ -57068,6 +57889,7 @@
       <c r="Y878" s="7"/>
       <c r="Z878" s="7"/>
       <c r="AA878" s="7"/>
+      <c r="AB878" s="7"/>
     </row>
     <row r="879">
       <c r="A879" s="7"/>
@@ -57097,6 +57919,7 @@
       <c r="Y879" s="7"/>
       <c r="Z879" s="7"/>
       <c r="AA879" s="7"/>
+      <c r="AB879" s="7"/>
     </row>
     <row r="880">
       <c r="A880" s="7"/>
@@ -57126,6 +57949,7 @@
       <c r="Y880" s="7"/>
       <c r="Z880" s="7"/>
       <c r="AA880" s="7"/>
+      <c r="AB880" s="7"/>
     </row>
     <row r="881">
       <c r="A881" s="7"/>
@@ -57155,6 +57979,7 @@
       <c r="Y881" s="7"/>
       <c r="Z881" s="7"/>
       <c r="AA881" s="7"/>
+      <c r="AB881" s="7"/>
     </row>
     <row r="882">
       <c r="A882" s="7"/>
@@ -57184,6 +58009,7 @@
       <c r="Y882" s="7"/>
       <c r="Z882" s="7"/>
       <c r="AA882" s="7"/>
+      <c r="AB882" s="7"/>
     </row>
     <row r="883">
       <c r="A883" s="7"/>
@@ -57213,6 +58039,7 @@
       <c r="Y883" s="7"/>
       <c r="Z883" s="7"/>
       <c r="AA883" s="7"/>
+      <c r="AB883" s="7"/>
     </row>
     <row r="884">
       <c r="A884" s="7"/>
@@ -57242,6 +58069,7 @@
       <c r="Y884" s="7"/>
       <c r="Z884" s="7"/>
       <c r="AA884" s="7"/>
+      <c r="AB884" s="7"/>
     </row>
     <row r="885">
       <c r="A885" s="7"/>
@@ -57271,6 +58099,7 @@
       <c r="Y885" s="7"/>
       <c r="Z885" s="7"/>
       <c r="AA885" s="7"/>
+      <c r="AB885" s="7"/>
     </row>
     <row r="886">
       <c r="A886" s="7"/>
@@ -57300,6 +58129,7 @@
       <c r="Y886" s="7"/>
       <c r="Z886" s="7"/>
       <c r="AA886" s="7"/>
+      <c r="AB886" s="7"/>
     </row>
     <row r="887">
       <c r="A887" s="7"/>
@@ -57329,6 +58159,7 @@
       <c r="Y887" s="7"/>
       <c r="Z887" s="7"/>
       <c r="AA887" s="7"/>
+      <c r="AB887" s="7"/>
     </row>
     <row r="888">
       <c r="A888" s="7"/>
@@ -57358,6 +58189,7 @@
       <c r="Y888" s="7"/>
       <c r="Z888" s="7"/>
       <c r="AA888" s="7"/>
+      <c r="AB888" s="7"/>
     </row>
     <row r="889">
       <c r="A889" s="7"/>
@@ -57387,6 +58219,7 @@
       <c r="Y889" s="7"/>
       <c r="Z889" s="7"/>
       <c r="AA889" s="7"/>
+      <c r="AB889" s="7"/>
     </row>
     <row r="890">
       <c r="A890" s="7"/>
@@ -57416,6 +58249,7 @@
       <c r="Y890" s="7"/>
       <c r="Z890" s="7"/>
       <c r="AA890" s="7"/>
+      <c r="AB890" s="7"/>
     </row>
     <row r="891">
       <c r="A891" s="7"/>
@@ -57445,6 +58279,7 @@
       <c r="Y891" s="7"/>
       <c r="Z891" s="7"/>
       <c r="AA891" s="7"/>
+      <c r="AB891" s="7"/>
     </row>
     <row r="892">
       <c r="A892" s="7"/>
@@ -57474,6 +58309,7 @@
       <c r="Y892" s="7"/>
       <c r="Z892" s="7"/>
       <c r="AA892" s="7"/>
+      <c r="AB892" s="7"/>
     </row>
     <row r="893">
       <c r="A893" s="7"/>
@@ -57503,6 +58339,7 @@
       <c r="Y893" s="7"/>
       <c r="Z893" s="7"/>
       <c r="AA893" s="7"/>
+      <c r="AB893" s="7"/>
     </row>
     <row r="894">
       <c r="A894" s="7"/>
@@ -57532,6 +58369,7 @@
       <c r="Y894" s="7"/>
       <c r="Z894" s="7"/>
       <c r="AA894" s="7"/>
+      <c r="AB894" s="7"/>
     </row>
     <row r="895">
       <c r="A895" s="7"/>
@@ -57561,6 +58399,7 @@
       <c r="Y895" s="7"/>
       <c r="Z895" s="7"/>
       <c r="AA895" s="7"/>
+      <c r="AB895" s="7"/>
     </row>
     <row r="896">
       <c r="A896" s="7"/>
@@ -57590,6 +58429,7 @@
       <c r="Y896" s="7"/>
       <c r="Z896" s="7"/>
       <c r="AA896" s="7"/>
+      <c r="AB896" s="7"/>
     </row>
     <row r="897">
       <c r="A897" s="7"/>
@@ -57619,6 +58459,7 @@
       <c r="Y897" s="7"/>
       <c r="Z897" s="7"/>
       <c r="AA897" s="7"/>
+      <c r="AB897" s="7"/>
     </row>
     <row r="898">
       <c r="A898" s="7"/>
@@ -57648,6 +58489,7 @@
       <c r="Y898" s="7"/>
       <c r="Z898" s="7"/>
       <c r="AA898" s="7"/>
+      <c r="AB898" s="7"/>
     </row>
     <row r="899">
       <c r="A899" s="7"/>
@@ -57677,6 +58519,7 @@
       <c r="Y899" s="7"/>
       <c r="Z899" s="7"/>
       <c r="AA899" s="7"/>
+      <c r="AB899" s="7"/>
     </row>
     <row r="900">
       <c r="A900" s="7"/>
@@ -57706,6 +58549,7 @@
       <c r="Y900" s="7"/>
       <c r="Z900" s="7"/>
       <c r="AA900" s="7"/>
+      <c r="AB900" s="7"/>
     </row>
     <row r="901">
       <c r="A901" s="7"/>
@@ -57735,6 +58579,7 @@
       <c r="Y901" s="7"/>
       <c r="Z901" s="7"/>
       <c r="AA901" s="7"/>
+      <c r="AB901" s="7"/>
     </row>
     <row r="902">
       <c r="A902" s="7"/>
@@ -57764,6 +58609,7 @@
       <c r="Y902" s="7"/>
       <c r="Z902" s="7"/>
       <c r="AA902" s="7"/>
+      <c r="AB902" s="7"/>
     </row>
     <row r="903">
       <c r="A903" s="7"/>
@@ -57793,6 +58639,7 @@
       <c r="Y903" s="7"/>
       <c r="Z903" s="7"/>
       <c r="AA903" s="7"/>
+      <c r="AB903" s="7"/>
     </row>
     <row r="904">
       <c r="A904" s="7"/>
@@ -57822,6 +58669,7 @@
       <c r="Y904" s="7"/>
       <c r="Z904" s="7"/>
       <c r="AA904" s="7"/>
+      <c r="AB904" s="7"/>
     </row>
     <row r="905">
       <c r="A905" s="7"/>
@@ -57851,6 +58699,7 @@
       <c r="Y905" s="7"/>
       <c r="Z905" s="7"/>
       <c r="AA905" s="7"/>
+      <c r="AB905" s="7"/>
     </row>
     <row r="906">
       <c r="A906" s="7"/>
@@ -57880,6 +58729,7 @@
       <c r="Y906" s="7"/>
       <c r="Z906" s="7"/>
       <c r="AA906" s="7"/>
+      <c r="AB906" s="7"/>
     </row>
     <row r="907">
       <c r="A907" s="7"/>
@@ -57909,6 +58759,7 @@
       <c r="Y907" s="7"/>
       <c r="Z907" s="7"/>
       <c r="AA907" s="7"/>
+      <c r="AB907" s="7"/>
     </row>
     <row r="908">
       <c r="A908" s="7"/>
@@ -57938,6 +58789,7 @@
       <c r="Y908" s="7"/>
       <c r="Z908" s="7"/>
       <c r="AA908" s="7"/>
+      <c r="AB908" s="7"/>
     </row>
     <row r="909">
       <c r="A909" s="7"/>
@@ -57967,6 +58819,7 @@
       <c r="Y909" s="7"/>
       <c r="Z909" s="7"/>
       <c r="AA909" s="7"/>
+      <c r="AB909" s="7"/>
     </row>
     <row r="910">
       <c r="A910" s="7"/>
@@ -57996,6 +58849,7 @@
       <c r="Y910" s="7"/>
       <c r="Z910" s="7"/>
       <c r="AA910" s="7"/>
+      <c r="AB910" s="7"/>
     </row>
     <row r="911">
       <c r="A911" s="7"/>
@@ -58025,6 +58879,7 @@
       <c r="Y911" s="7"/>
       <c r="Z911" s="7"/>
       <c r="AA911" s="7"/>
+      <c r="AB911" s="7"/>
     </row>
     <row r="912">
       <c r="A912" s="7"/>
@@ -58054,6 +58909,7 @@
       <c r="Y912" s="7"/>
       <c r="Z912" s="7"/>
       <c r="AA912" s="7"/>
+      <c r="AB912" s="7"/>
     </row>
     <row r="913">
       <c r="A913" s="7"/>
@@ -58083,6 +58939,7 @@
       <c r="Y913" s="7"/>
       <c r="Z913" s="7"/>
       <c r="AA913" s="7"/>
+      <c r="AB913" s="7"/>
     </row>
     <row r="914">
       <c r="A914" s="7"/>
@@ -58112,6 +58969,7 @@
       <c r="Y914" s="7"/>
       <c r="Z914" s="7"/>
       <c r="AA914" s="7"/>
+      <c r="AB914" s="7"/>
     </row>
     <row r="915">
       <c r="A915" s="7"/>
@@ -58141,6 +58999,7 @@
       <c r="Y915" s="7"/>
       <c r="Z915" s="7"/>
       <c r="AA915" s="7"/>
+      <c r="AB915" s="7"/>
     </row>
     <row r="916">
       <c r="A916" s="7"/>
@@ -58170,6 +59029,7 @@
       <c r="Y916" s="7"/>
       <c r="Z916" s="7"/>
       <c r="AA916" s="7"/>
+      <c r="AB916" s="7"/>
     </row>
     <row r="917">
       <c r="A917" s="7"/>
@@ -58199,6 +59059,7 @@
       <c r="Y917" s="7"/>
       <c r="Z917" s="7"/>
       <c r="AA917" s="7"/>
+      <c r="AB917" s="7"/>
     </row>
     <row r="918">
       <c r="A918" s="7"/>
@@ -58228,6 +59089,7 @@
       <c r="Y918" s="7"/>
       <c r="Z918" s="7"/>
       <c r="AA918" s="7"/>
+      <c r="AB918" s="7"/>
     </row>
     <row r="919">
       <c r="A919" s="7"/>
@@ -58257,6 +59119,7 @@
       <c r="Y919" s="7"/>
       <c r="Z919" s="7"/>
       <c r="AA919" s="7"/>
+      <c r="AB919" s="7"/>
     </row>
     <row r="920">
       <c r="A920" s="7"/>
@@ -58286,6 +59149,7 @@
       <c r="Y920" s="7"/>
       <c r="Z920" s="7"/>
       <c r="AA920" s="7"/>
+      <c r="AB920" s="7"/>
     </row>
     <row r="921">
       <c r="A921" s="7"/>
@@ -58315,6 +59179,7 @@
       <c r="Y921" s="7"/>
       <c r="Z921" s="7"/>
       <c r="AA921" s="7"/>
+      <c r="AB921" s="7"/>
     </row>
     <row r="922">
       <c r="A922" s="7"/>
@@ -58344,6 +59209,7 @@
       <c r="Y922" s="7"/>
       <c r="Z922" s="7"/>
       <c r="AA922" s="7"/>
+      <c r="AB922" s="7"/>
     </row>
     <row r="923">
       <c r="A923" s="7"/>
@@ -58373,6 +59239,7 @@
       <c r="Y923" s="7"/>
       <c r="Z923" s="7"/>
       <c r="AA923" s="7"/>
+      <c r="AB923" s="7"/>
     </row>
     <row r="924">
       <c r="A924" s="7"/>
@@ -58402,6 +59269,7 @@
       <c r="Y924" s="7"/>
       <c r="Z924" s="7"/>
       <c r="AA924" s="7"/>
+      <c r="AB924" s="7"/>
     </row>
     <row r="925">
       <c r="A925" s="7"/>
@@ -58431,6 +59299,7 @@
       <c r="Y925" s="7"/>
       <c r="Z925" s="7"/>
       <c r="AA925" s="7"/>
+      <c r="AB925" s="7"/>
     </row>
     <row r="926">
       <c r="A926" s="7"/>
@@ -58460,6 +59329,7 @@
       <c r="Y926" s="7"/>
       <c r="Z926" s="7"/>
       <c r="AA926" s="7"/>
+      <c r="AB926" s="7"/>
     </row>
     <row r="927">
       <c r="A927" s="7"/>
@@ -58489,6 +59359,7 @@
       <c r="Y927" s="7"/>
       <c r="Z927" s="7"/>
       <c r="AA927" s="7"/>
+      <c r="AB927" s="7"/>
     </row>
     <row r="928">
       <c r="A928" s="7"/>
@@ -58518,6 +59389,7 @@
       <c r="Y928" s="7"/>
       <c r="Z928" s="7"/>
       <c r="AA928" s="7"/>
+      <c r="AB928" s="7"/>
     </row>
     <row r="929">
       <c r="A929" s="7"/>
@@ -58547,6 +59419,7 @@
       <c r="Y929" s="7"/>
       <c r="Z929" s="7"/>
       <c r="AA929" s="7"/>
+      <c r="AB929" s="7"/>
     </row>
     <row r="930">
       <c r="A930" s="7"/>
@@ -58576,6 +59449,7 @@
       <c r="Y930" s="7"/>
       <c r="Z930" s="7"/>
       <c r="AA930" s="7"/>
+      <c r="AB930" s="7"/>
     </row>
     <row r="931">
       <c r="A931" s="7"/>
@@ -58605,6 +59479,7 @@
       <c r="Y931" s="7"/>
       <c r="Z931" s="7"/>
       <c r="AA931" s="7"/>
+      <c r="AB931" s="7"/>
     </row>
     <row r="932">
       <c r="A932" s="7"/>
@@ -58634,6 +59509,7 @@
       <c r="Y932" s="7"/>
       <c r="Z932" s="7"/>
       <c r="AA932" s="7"/>
+      <c r="AB932" s="7"/>
     </row>
     <row r="933">
       <c r="A933" s="7"/>
@@ -58663,6 +59539,7 @@
       <c r="Y933" s="7"/>
       <c r="Z933" s="7"/>
       <c r="AA933" s="7"/>
+      <c r="AB933" s="7"/>
     </row>
     <row r="934">
       <c r="A934" s="7"/>
@@ -58692,6 +59569,7 @@
       <c r="Y934" s="7"/>
       <c r="Z934" s="7"/>
       <c r="AA934" s="7"/>
+      <c r="AB934" s="7"/>
     </row>
     <row r="935">
       <c r="A935" s="7"/>
@@ -58721,6 +59599,7 @@
       <c r="Y935" s="7"/>
       <c r="Z935" s="7"/>
       <c r="AA935" s="7"/>
+      <c r="AB935" s="7"/>
     </row>
     <row r="936">
       <c r="A936" s="7"/>
@@ -58750,6 +59629,7 @@
       <c r="Y936" s="7"/>
       <c r="Z936" s="7"/>
       <c r="AA936" s="7"/>
+      <c r="AB936" s="7"/>
     </row>
     <row r="937">
       <c r="A937" s="7"/>
@@ -58779,6 +59659,7 @@
       <c r="Y937" s="7"/>
       <c r="Z937" s="7"/>
       <c r="AA937" s="7"/>
+      <c r="AB937" s="7"/>
     </row>
     <row r="938">
       <c r="A938" s="7"/>
@@ -58808,6 +59689,7 @@
       <c r="Y938" s="7"/>
       <c r="Z938" s="7"/>
       <c r="AA938" s="7"/>
+      <c r="AB938" s="7"/>
     </row>
     <row r="939">
       <c r="A939" s="7"/>
@@ -58837,6 +59719,7 @@
       <c r="Y939" s="7"/>
       <c r="Z939" s="7"/>
       <c r="AA939" s="7"/>
+      <c r="AB939" s="7"/>
     </row>
     <row r="940">
       <c r="A940" s="7"/>
@@ -58866,6 +59749,7 @@
       <c r="Y940" s="7"/>
       <c r="Z940" s="7"/>
       <c r="AA940" s="7"/>
+      <c r="AB940" s="7"/>
     </row>
     <row r="941">
       <c r="A941" s="7"/>
@@ -58895,6 +59779,7 @@
       <c r="Y941" s="7"/>
       <c r="Z941" s="7"/>
       <c r="AA941" s="7"/>
+      <c r="AB941" s="7"/>
     </row>
     <row r="942">
       <c r="A942" s="7"/>
@@ -58924,6 +59809,7 @@
       <c r="Y942" s="7"/>
       <c r="Z942" s="7"/>
       <c r="AA942" s="7"/>
+      <c r="AB942" s="7"/>
     </row>
     <row r="943">
       <c r="A943" s="7"/>
@@ -58953,6 +59839,7 @@
       <c r="Y943" s="7"/>
       <c r="Z943" s="7"/>
       <c r="AA943" s="7"/>
+      <c r="AB943" s="7"/>
     </row>
     <row r="944">
       <c r="A944" s="7"/>
@@ -58982,6 +59869,7 @@
       <c r="Y944" s="7"/>
       <c r="Z944" s="7"/>
       <c r="AA944" s="7"/>
+      <c r="AB944" s="7"/>
     </row>
     <row r="945">
       <c r="A945" s="7"/>
@@ -59011,6 +59899,7 @@
       <c r="Y945" s="7"/>
       <c r="Z945" s="7"/>
       <c r="AA945" s="7"/>
+      <c r="AB945" s="7"/>
     </row>
     <row r="946">
       <c r="A946" s="7"/>
@@ -59040,6 +59929,7 @@
       <c r="Y946" s="7"/>
       <c r="Z946" s="7"/>
       <c r="AA946" s="7"/>
+      <c r="AB946" s="7"/>
     </row>
     <row r="947">
       <c r="A947" s="7"/>
@@ -59069,6 +59959,7 @@
       <c r="Y947" s="7"/>
       <c r="Z947" s="7"/>
       <c r="AA947" s="7"/>
+      <c r="AB947" s="7"/>
     </row>
     <row r="948">
       <c r="A948" s="7"/>
@@ -59098,6 +59989,7 @@
       <c r="Y948" s="7"/>
       <c r="Z948" s="7"/>
       <c r="AA948" s="7"/>
+      <c r="AB948" s="7"/>
     </row>
     <row r="949">
       <c r="A949" s="7"/>
@@ -59127,6 +60019,7 @@
       <c r="Y949" s="7"/>
       <c r="Z949" s="7"/>
       <c r="AA949" s="7"/>
+      <c r="AB949" s="7"/>
     </row>
     <row r="950">
       <c r="A950" s="7"/>
@@ -59156,6 +60049,7 @@
       <c r="Y950" s="7"/>
       <c r="Z950" s="7"/>
       <c r="AA950" s="7"/>
+      <c r="AB950" s="7"/>
     </row>
     <row r="951">
       <c r="A951" s="7"/>
@@ -59185,6 +60079,7 @@
       <c r="Y951" s="7"/>
       <c r="Z951" s="7"/>
       <c r="AA951" s="7"/>
+      <c r="AB951" s="7"/>
     </row>
     <row r="952">
       <c r="A952" s="7"/>
@@ -59214,6 +60109,7 @@
       <c r="Y952" s="7"/>
       <c r="Z952" s="7"/>
       <c r="AA952" s="7"/>
+      <c r="AB952" s="7"/>
     </row>
     <row r="953">
       <c r="A953" s="7"/>
@@ -59243,6 +60139,7 @@
       <c r="Y953" s="7"/>
       <c r="Z953" s="7"/>
       <c r="AA953" s="7"/>
+      <c r="AB953" s="7"/>
     </row>
     <row r="954">
       <c r="A954" s="7"/>
@@ -59272,6 +60169,7 @@
       <c r="Y954" s="7"/>
       <c r="Z954" s="7"/>
       <c r="AA954" s="7"/>
+      <c r="AB954" s="7"/>
     </row>
     <row r="955">
       <c r="A955" s="7"/>
@@ -59301,6 +60199,7 @@
       <c r="Y955" s="7"/>
       <c r="Z955" s="7"/>
       <c r="AA955" s="7"/>
+      <c r="AB955" s="7"/>
     </row>
     <row r="956">
       <c r="A956" s="7"/>
@@ -59330,6 +60229,7 @@
       <c r="Y956" s="7"/>
       <c r="Z956" s="7"/>
       <c r="AA956" s="7"/>
+      <c r="AB956" s="7"/>
     </row>
     <row r="957">
       <c r="A957" s="7"/>
@@ -59359,6 +60259,7 @@
       <c r="Y957" s="7"/>
       <c r="Z957" s="7"/>
       <c r="AA957" s="7"/>
+      <c r="AB957" s="7"/>
     </row>
     <row r="958">
       <c r="A958" s="7"/>
@@ -59388,6 +60289,7 @@
       <c r="Y958" s="7"/>
       <c r="Z958" s="7"/>
       <c r="AA958" s="7"/>
+      <c r="AB958" s="7"/>
     </row>
     <row r="959">
       <c r="A959" s="7"/>
@@ -59417,6 +60319,7 @@
       <c r="Y959" s="7"/>
       <c r="Z959" s="7"/>
       <c r="AA959" s="7"/>
+      <c r="AB959" s="7"/>
     </row>
     <row r="960">
       <c r="A960" s="7"/>
@@ -59446,6 +60349,7 @@
       <c r="Y960" s="7"/>
       <c r="Z960" s="7"/>
       <c r="AA960" s="7"/>
+      <c r="AB960" s="7"/>
     </row>
     <row r="961">
       <c r="A961" s="7"/>
@@ -59475,6 +60379,7 @@
       <c r="Y961" s="7"/>
       <c r="Z961" s="7"/>
       <c r="AA961" s="7"/>
+      <c r="AB961" s="7"/>
     </row>
     <row r="962">
       <c r="A962" s="7"/>
@@ -59504,6 +60409,7 @@
       <c r="Y962" s="7"/>
       <c r="Z962" s="7"/>
       <c r="AA962" s="7"/>
+      <c r="AB962" s="7"/>
     </row>
     <row r="963">
       <c r="A963" s="7"/>
@@ -59533,6 +60439,7 @@
       <c r="Y963" s="7"/>
       <c r="Z963" s="7"/>
       <c r="AA963" s="7"/>
+      <c r="AB963" s="7"/>
     </row>
     <row r="964">
       <c r="A964" s="7"/>
@@ -59562,6 +60469,7 @@
       <c r="Y964" s="7"/>
       <c r="Z964" s="7"/>
       <c r="AA964" s="7"/>
+      <c r="AB964" s="7"/>
     </row>
     <row r="965">
       <c r="A965" s="7"/>
@@ -59591,6 +60499,7 @@
       <c r="Y965" s="7"/>
       <c r="Z965" s="7"/>
       <c r="AA965" s="7"/>
+      <c r="AB965" s="7"/>
     </row>
     <row r="966">
       <c r="A966" s="7"/>
@@ -59620,6 +60529,7 @@
       <c r="Y966" s="7"/>
       <c r="Z966" s="7"/>
       <c r="AA966" s="7"/>
+      <c r="AB966" s="7"/>
     </row>
     <row r="967">
       <c r="A967" s="7"/>
@@ -59649,6 +60559,7 @@
       <c r="Y967" s="7"/>
       <c r="Z967" s="7"/>
       <c r="AA967" s="7"/>
+      <c r="AB967" s="7"/>
     </row>
     <row r="968">
       <c r="A968" s="7"/>
@@ -59678,6 +60589,7 @@
       <c r="Y968" s="7"/>
       <c r="Z968" s="7"/>
       <c r="AA968" s="7"/>
+      <c r="AB968" s="7"/>
     </row>
     <row r="969">
       <c r="A969" s="7"/>
@@ -59707,6 +60619,7 @@
       <c r="Y969" s="7"/>
       <c r="Z969" s="7"/>
       <c r="AA969" s="7"/>
+      <c r="AB969" s="7"/>
     </row>
     <row r="970">
       <c r="A970" s="7"/>
@@ -59736,6 +60649,7 @@
       <c r="Y970" s="7"/>
       <c r="Z970" s="7"/>
       <c r="AA970" s="7"/>
+      <c r="AB970" s="7"/>
     </row>
     <row r="971">
       <c r="A971" s="7"/>
@@ -59765,6 +60679,7 @@
       <c r="Y971" s="7"/>
       <c r="Z971" s="7"/>
       <c r="AA971" s="7"/>
+      <c r="AB971" s="7"/>
     </row>
     <row r="972">
       <c r="A972" s="7"/>
@@ -59794,6 +60709,7 @@
       <c r="Y972" s="7"/>
       <c r="Z972" s="7"/>
       <c r="AA972" s="7"/>
+      <c r="AB972" s="7"/>
     </row>
     <row r="973">
       <c r="A973" s="7"/>
@@ -59823,6 +60739,7 @@
       <c r="Y973" s="7"/>
       <c r="Z973" s="7"/>
       <c r="AA973" s="7"/>
+      <c r="AB973" s="7"/>
     </row>
     <row r="974">
       <c r="A974" s="7"/>
@@ -59852,6 +60769,7 @@
       <c r="Y974" s="7"/>
       <c r="Z974" s="7"/>
       <c r="AA974" s="7"/>
+      <c r="AB974" s="7"/>
     </row>
     <row r="975">
       <c r="A975" s="7"/>
@@ -59881,6 +60799,7 @@
       <c r="Y975" s="7"/>
       <c r="Z975" s="7"/>
       <c r="AA975" s="7"/>
+      <c r="AB975" s="7"/>
     </row>
     <row r="976">
       <c r="A976" s="7"/>
@@ -59910,6 +60829,7 @@
       <c r="Y976" s="7"/>
       <c r="Z976" s="7"/>
       <c r="AA976" s="7"/>
+      <c r="AB976" s="7"/>
     </row>
     <row r="977">
       <c r="A977" s="7"/>
@@ -59939,6 +60859,7 @@
       <c r="Y977" s="7"/>
       <c r="Z977" s="7"/>
       <c r="AA977" s="7"/>
+      <c r="AB977" s="7"/>
     </row>
     <row r="978">
       <c r="A978" s="7"/>
@@ -59968,6 +60889,7 @@
       <c r="Y978" s="7"/>
       <c r="Z978" s="7"/>
       <c r="AA978" s="7"/>
+      <c r="AB978" s="7"/>
     </row>
     <row r="979">
       <c r="A979" s="7"/>
@@ -59997,6 +60919,7 @@
       <c r="Y979" s="7"/>
       <c r="Z979" s="7"/>
       <c r="AA979" s="7"/>
+      <c r="AB979" s="7"/>
     </row>
     <row r="980">
       <c r="A980" s="7"/>
@@ -60026,6 +60949,7 @@
       <c r="Y980" s="7"/>
       <c r="Z980" s="7"/>
       <c r="AA980" s="7"/>
+      <c r="AB980" s="7"/>
     </row>
     <row r="981">
       <c r="A981" s="7"/>
@@ -60055,6 +60979,7 @@
       <c r="Y981" s="7"/>
       <c r="Z981" s="7"/>
       <c r="AA981" s="7"/>
+      <c r="AB981" s="7"/>
     </row>
     <row r="982">
       <c r="A982" s="7"/>
@@ -60084,6 +61009,7 @@
       <c r="Y982" s="7"/>
       <c r="Z982" s="7"/>
       <c r="AA982" s="7"/>
+      <c r="AB982" s="7"/>
     </row>
     <row r="983">
       <c r="A983" s="7"/>
@@ -60113,6 +61039,7 @@
       <c r="Y983" s="7"/>
       <c r="Z983" s="7"/>
       <c r="AA983" s="7"/>
+      <c r="AB983" s="7"/>
     </row>
     <row r="984">
       <c r="A984" s="7"/>
@@ -60142,6 +61069,7 @@
       <c r="Y984" s="7"/>
       <c r="Z984" s="7"/>
       <c r="AA984" s="7"/>
+      <c r="AB984" s="7"/>
     </row>
     <row r="985">
       <c r="A985" s="7"/>
@@ -60171,6 +61099,7 @@
       <c r="Y985" s="7"/>
       <c r="Z985" s="7"/>
       <c r="AA985" s="7"/>
+      <c r="AB985" s="7"/>
     </row>
     <row r="986">
       <c r="A986" s="7"/>
@@ -60200,6 +61129,7 @@
       <c r="Y986" s="7"/>
       <c r="Z986" s="7"/>
       <c r="AA986" s="7"/>
+      <c r="AB986" s="7"/>
     </row>
     <row r="987">
       <c r="A987" s="7"/>
@@ -60229,6 +61159,7 @@
       <c r="Y987" s="7"/>
       <c r="Z987" s="7"/>
       <c r="AA987" s="7"/>
+      <c r="AB987" s="7"/>
     </row>
     <row r="988">
       <c r="A988" s="7"/>
@@ -60258,6 +61189,7 @@
       <c r="Y988" s="7"/>
       <c r="Z988" s="7"/>
       <c r="AA988" s="7"/>
+      <c r="AB988" s="7"/>
     </row>
     <row r="989">
       <c r="A989" s="7"/>
@@ -60287,6 +61219,7 @@
       <c r="Y989" s="7"/>
       <c r="Z989" s="7"/>
       <c r="AA989" s="7"/>
+      <c r="AB989" s="7"/>
     </row>
     <row r="990">
       <c r="A990" s="7"/>
@@ -60316,6 +61249,7 @@
       <c r="Y990" s="7"/>
       <c r="Z990" s="7"/>
       <c r="AA990" s="7"/>
+      <c r="AB990" s="7"/>
     </row>
     <row r="991">
       <c r="A991" s="7"/>
@@ -60345,6 +61279,7 @@
       <c r="Y991" s="7"/>
       <c r="Z991" s="7"/>
       <c r="AA991" s="7"/>
+      <c r="AB991" s="7"/>
     </row>
     <row r="992">
       <c r="A992" s="7"/>
@@ -60374,6 +61309,7 @@
       <c r="Y992" s="7"/>
       <c r="Z992" s="7"/>
       <c r="AA992" s="7"/>
+      <c r="AB992" s="7"/>
     </row>
     <row r="993">
       <c r="A993" s="7"/>
@@ -60403,6 +61339,7 @@
       <c r="Y993" s="7"/>
       <c r="Z993" s="7"/>
       <c r="AA993" s="7"/>
+      <c r="AB993" s="7"/>
     </row>
     <row r="994">
       <c r="A994" s="7"/>
@@ -60432,6 +61369,7 @@
       <c r="Y994" s="7"/>
       <c r="Z994" s="7"/>
       <c r="AA994" s="7"/>
+      <c r="AB994" s="7"/>
     </row>
     <row r="995">
       <c r="A995" s="7"/>
@@ -60461,6 +61399,7 @@
       <c r="Y995" s="7"/>
       <c r="Z995" s="7"/>
       <c r="AA995" s="7"/>
+      <c r="AB995" s="7"/>
     </row>
     <row r="996">
       <c r="A996" s="7"/>
@@ -60490,6 +61429,7 @@
       <c r="Y996" s="7"/>
       <c r="Z996" s="7"/>
       <c r="AA996" s="7"/>
+      <c r="AB996" s="7"/>
     </row>
     <row r="997">
       <c r="A997" s="7"/>
@@ -60519,6 +61459,7 @@
       <c r="Y997" s="7"/>
       <c r="Z997" s="7"/>
       <c r="AA997" s="7"/>
+      <c r="AB997" s="7"/>
     </row>
     <row r="998">
       <c r="A998" s="7"/>
@@ -60548,6 +61489,7 @@
       <c r="Y998" s="7"/>
       <c r="Z998" s="7"/>
       <c r="AA998" s="7"/>
+      <c r="AB998" s="7"/>
     </row>
     <row r="999">
       <c r="A999" s="7"/>
@@ -60577,6 +61519,7 @@
       <c r="Y999" s="7"/>
       <c r="Z999" s="7"/>
       <c r="AA999" s="7"/>
+      <c r="AB999" s="7"/>
     </row>
     <row r="1000">
       <c r="A1000" s="7"/>
@@ -60606,6 +61549,7 @@
       <c r="Y1000" s="7"/>
       <c r="Z1000" s="7"/>
       <c r="AA1000" s="7"/>
+      <c r="AB1000" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -60616,83 +61560,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="24.43"/>
-    <col customWidth="1" min="2" max="2" width="28.86"/>
-    <col customWidth="1" min="3" max="3" width="32.57"/>
-    <col customWidth="1" min="4" max="4" width="21.14"/>
-    <col customWidth="1" min="5" max="5" width="28.29"/>
-    <col customWidth="1" min="6" max="6" width="23.86"/>
-    <col customWidth="1" min="7" max="7" width="22.29"/>
-    <col customWidth="1" min="8" max="8" width="28.14"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -60713,95 +61580,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>28</v>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -60811,7 +61651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -60829,21 +61669,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -60878,7 +61718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -60888,72 +61728,84 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.57"/>
-    <col customWidth="1" min="3" max="3" width="28.43"/>
-    <col customWidth="1" min="4" max="6" width="21.57"/>
+    <col customWidth="1" min="4" max="4" width="19.57"/>
+    <col customWidth="1" min="5" max="5" width="28.43"/>
+    <col customWidth="1" min="6" max="8" width="21.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="13" t="s">
-        <v>39</v>
+      <c r="E1" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>27</v>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
+      <c r="E2" s="16" t="s">
+        <v>20</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -60972,27 +61824,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
+      <c r="G1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -61036,7 +61889,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/file/E32 - Shop.xlsx
+++ b/file/E32 - Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\j2teamnnl\Project_Shop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38DD653-5127-4403-B112-EAC73CFFC7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FBB59A-3214-434B-8E5A-102C19C250B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Khách hàng" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>KHÁCH HÀNG</t>
   </si>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -293,11 +293,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,16 +361,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -365,12 +386,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31907,12 +31931,12 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -61683,7 +61707,9 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -61697,17 +61723,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -61728,12 +61754,10 @@
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H2" s="29"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -61743,8 +61767,8 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -61753,8 +61777,8 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -61763,11 +61787,12 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="13"/>
+      <c r="H6" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -61784,7 +61809,9 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -61795,12 +61822,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -61855,7 +61882,9 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -61957,14 +61986,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -62038,7 +62067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941526A-2E0D-4D19-802F-38BC8A7D33B7}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -62048,38 +62077,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/file/E32 - Shop.xlsx
+++ b/file/E32 - Shop.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\j2teamnnl\Project_Shop\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieta\OneDrive\Desktop\tai_nguyen\new\Project_Shop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FBB59A-3214-434B-8E5A-102C19C250B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Khách hàng" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>KHÁCH HÀNG</t>
   </si>
@@ -123,12 +122,167 @@
   <si>
     <t>ADMIN</t>
   </si>
+  <si>
+    <t>update 22/12/2021</t>
+  </si>
+  <si>
+    <t>Giày sneaker nam phong cách thể thao</t>
+  </si>
+  <si>
+    <t>51.000 ₫</t>
+  </si>
+  <si>
+    <t>374 đánh giá</t>
+  </si>
+  <si>
+    <t>Sản phẩm được đảm bảo chất lượng Giá cả cạnh tranh Thiết kế thời trang</t>
+  </si>
+  <si>
+    <t>Bình nước giữ nhiệt</t>
+  </si>
+  <si>
+    <t>230.000 đ</t>
+  </si>
+  <si>
+    <t>305 đánh giá</t>
+  </si>
+  <si>
+    <t>501 đánh giá</t>
+  </si>
+  <si>
+    <t>411 đánh giá</t>
+  </si>
+  <si>
+    <t>388 đánh giá</t>
+  </si>
+  <si>
+    <t>233 đánh giá</t>
+  </si>
+  <si>
+    <t>464.000 đ</t>
+  </si>
+  <si>
+    <t>334.000 đ</t>
+  </si>
+  <si>
+    <t>647.000 đ</t>
+  </si>
+  <si>
+    <t>Đèn học</t>
+  </si>
+  <si>
+    <t>Đèn mini</t>
+  </si>
+  <si>
+    <t>Đồng hồ theo dõi sức khỏe</t>
+  </si>
+  <si>
+    <t>Máy chụp ảnh polaroid</t>
+  </si>
+  <si>
+    <t>493.000 đ</t>
+  </si>
+  <si>
+    <t>620 đánh giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Nó được thiết kế các bộ phận tương tự như chiếc phích nhưng kích cỡ thu nhỏ và kiểu dáng xinh xắn hơn rất nhiều. 
+</t>
+  </si>
+  <si>
+    <t>Đèn bàn là một vật dụng vô cùng quen thuộc trong gia 
+đình, phục vụ nhiều mục đích  như học bài, đọc sách báo...</t>
+  </si>
+  <si>
+    <t>Đồng Hồ đeo tay</t>
+  </si>
+  <si>
+    <t>nhỏ gọn tiện nghi phù hợp với túi của bạn, tham gia
+ cùng những chuyến cắm trại</t>
+  </si>
+  <si>
+    <t>210.000 đ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tôn thêm vẻ đẹp đôi tay bạn 
+với một chiếc đồng hồ </t>
+  </si>
+  <si>
+    <t>Còn gì tuyệt vời hơn khi mà có một trợ 
+thủ đắc lực theo dõi sức khỏe cùng bạn?</t>
+  </si>
+  <si>
+    <t>Sang trọng, tiện dụng đó là tất cả những 
+thứ mà chiếc máy ảnh này sở hữu</t>
+  </si>
+  <si>
+    <t>feature_prod_03.jpg</t>
+  </si>
+  <si>
+    <t>feature_prod_02.jpg</t>
+  </si>
+  <si>
+    <t>feature_prod_01.jpg</t>
+  </si>
+  <si>
+    <t>category_img_01.jpg</t>
+  </si>
+  <si>
+    <t>banner_img_03.jpg</t>
+  </si>
+  <si>
+    <t>banner_img_02.jpg</t>
+  </si>
+  <si>
+    <t>banner_img_01.jpg</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>nike</t>
+  </si>
+  <si>
+    <t>H&amp;M</t>
+  </si>
+  <si>
+    <t>Levi's</t>
+  </si>
+  <si>
+    <t>212-206-2767</t>
+  </si>
+  <si>
+    <t>212-209-1654</t>
+  </si>
+  <si>
+    <t>212-213-0576</t>
+  </si>
+  <si>
+    <t>212-221-2645</t>
+  </si>
+  <si>
+    <t>Lieu Giai Str Ba Dinh Dist 54, Hà
+ Nội 100000, Việt Nam</t>
+  </si>
+  <si>
+    <t>86 Hàng Bông, Hoàn Kiếm,
+ Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>56 Đ. Nguyễn Chí Thanh, Láng Thượng, 
+Đống Đa, Hà Nội 11512, Việt Nam</t>
+  </si>
+  <si>
+    <t>105 Hàng Bông, St, Hoàn
+ Kiếm, Hà Nội, Việt Nam</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -161,6 +315,29 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -309,10 +486,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,7 +522,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -373,6 +550,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,17 +571,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,7 +808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31652,7 +31851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31931,12 +32130,12 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -61701,19 +61900,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
@@ -61723,19 +61924,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -61754,129 +61955,268 @@
       <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="H6" s="31"/>
+    <row r="3" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="3" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://www.randomphonenumbers.com/us_phone_number/212206-xxxx"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.randomphonenumbers.com/us_phone_number/212209-xxxx"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://www.randomphonenumbers.com/us_phone_number/212213-xxxx"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://www.randomphonenumbers.com/us_phone_number/212221-xxxx"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -61894,7 +62234,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -61908,56 +62248,56 @@
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="3"/>
     </row>
   </sheetData>
@@ -61966,7 +62306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -61986,14 +62326,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -62064,7 +62404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4941526A-2E0D-4D19-802F-38BC8A7D33B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62077,38 +62417,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/file/E32 - Shop.xlsx
+++ b/file/E32 - Shop.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieta\OneDrive\Desktop\tai_nguyen\new\Project_Shop\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\j2teamnnl\Project_Shop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327EF581-B5F6-49AD-98EF-EA477390307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Khách hàng" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>KHÁCH HÀNG</t>
   </si>
@@ -277,11 +278,14 @@
     <t>105 Hàng Bông, St, Hoàn
  Kiếm, Hà Nội, Việt Nam</t>
   </si>
+  <si>
+    <t>detail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -490,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,26 +554,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,6 +578,19 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31851,13 +31850,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32130,12 +32131,12 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -61900,14 +61901,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -61923,18 +61924,18 @@
     <col min="9" max="9" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -61949,157 +61950,162 @@
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="23"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="H7" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="H8" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="G9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="H9" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -62113,14 +62119,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -62132,72 +62138,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="30" t="s">
         <v>79</v>
       </c>
     </row>
@@ -62206,17 +62212,17 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://www.randomphonenumbers.com/us_phone_number/212206-xxxx"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://www.randomphonenumbers.com/us_phone_number/212209-xxxx"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://www.randomphonenumbers.com/us_phone_number/212213-xxxx"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://www.randomphonenumbers.com/us_phone_number/212221-xxxx"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://www.randomphonenumbers.com/us_phone_number/212206-xxxx" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.randomphonenumbers.com/us_phone_number/212209-xxxx" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://www.randomphonenumbers.com/us_phone_number/212213-xxxx" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://www.randomphonenumbers.com/us_phone_number/212221-xxxx" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -62306,7 +62312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -62326,14 +62332,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -62404,7 +62410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62417,12 +62423,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">

--- a/file/E32 - Shop.xlsx
+++ b/file/E32 - Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\j2teamnnl\Project_Shop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327EF581-B5F6-49AD-98EF-EA477390307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66389750-D1FE-43B9-9F16-1EF14C6EAA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Khách hàng" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>vote</t>
-  </si>
-  <si>
-    <t>quantity</t>
   </si>
   <si>
     <t>nhà sản xuất</t>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>detail</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -61907,7 +61907,7 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -61951,7 +61951,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>17</v>
@@ -61968,145 +61968,145 @@
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -62139,7 +62139,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -62162,49 +62162,49 @@
     <row r="3" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -62228,8 +62228,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -62241,7 +62241,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -62249,16 +62249,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" s="15" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>18</v>
@@ -62333,7 +62333,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -62347,19 +62347,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -62424,7 +62424,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>

--- a/file/E32 - Shop.xlsx
+++ b/file/E32 - Shop.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\j2teamnnl\Project_Shop\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieta\OneDrive\Desktop\tai_nguyen\new\Project_Shop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327EF581-B5F6-49AD-98EF-EA477390307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Khách hàng" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>KHÁCH HÀNG</t>
   </si>
@@ -281,12 +280,52 @@
   <si>
     <t>detail</t>
   </si>
+  <si>
+    <t>brand_02.png</t>
+  </si>
+  <si>
+    <t>brand_03.png</t>
+  </si>
+  <si>
+    <t>brand_04.png</t>
+  </si>
+  <si>
+    <t>brand_01.png</t>
+  </si>
+  <si>
+    <t>mới thêm 1 ô ảnh 23/12/2021</t>
+  </si>
+  <si>
+    <t>Giày Sneaker Thể Thao được làm từ chất liệu cao cấp, rất mềm mại và êm ái, tạo cảm giác thoải mái cho từng bước đi. Phần đế làm bằng cao su tổng hợp với phần rãnh chống trơn trượt, đảm bảo sự an toàn cho người mang.được thiết kế trẻ trung, là một thiết kế dành cho phái nam, giày chú trọng phom dáng với từng đừng nét cá tính, làm toát lên vẻ trẻ trung, thanh lịch. Đường may tỉ mỉ và đường keo dán chắc chắn và bền bỉ trong thời gian dài.</t>
+  </si>
+  <si>
+    <t>Các loại bình giữ nhiệt, bình thuỷ giữ nhiệt, bình giữ nhiệt thức ăn, bình pha trà giữ nhiệt, ly giữ nhiệt thường có cấu tạo từ 2 - 3 lớp gồm: lớp vỏ ngoài - lớp chân không - lớp trong cùng thường bằng inox (201, 304). Với cấu tạo đó, bình giữ nhiệt có hiệu quả bảo toàn nhiệt độ khá tốt cho cả thực phẩm nóng và lạnh. Kết hợp cùng thiết kế nắp đậy chống thoát khí sẽ gia tăng khả năng giữ nhiệt. Thông thường bình giữ nhiệt có thể giữ nóng 6 - 8 tiếng, giữ lạnh khoảng 10 - 12 tiếng.</t>
+  </si>
+  <si>
+    <t>Trên bàn học của mỗi bạn học sinh không thể thiếu được một đồ vật vô cùng quan trọng, đó chính là chiếc đèn học. Ngoài việc sử dụng ánh sáng tự nhiên, đèn học luôn bên cạnh giúp chúng ta học bài, chứng kiến sự luyện tập hàng ngày của các bạn nhỏ. Đã bao giờ bạn ngắm nghía chiếc đèn học của mình chưa? Ngoài công dụng thì nó còn mang một vẻ đẹp riêng với cấu tạo đặc trưng.</t>
+  </si>
+  <si>
+    <t>Điều đặc biệt là cách bố trí mặt đồng hồ với các kim chỉ giờ, chỉ phút có bản rộng, cộng với nhiều đồng hồ con để chỉ các ngày trong tuần, chỉ tháng, chỉ nhiệt độ, … thậm chí là để chỉ phương hướng như một la bàn. Ngoài ra để tăng sức cuốn hút cho những món “trang sức” đồng hồ này, các nhà thiết kế quyết định chỉ dùng hai màu là trắng ánh kim và màu đen tuyền cho bộ sưu tập. Đây là hai màu tương phản, nhưng khi được kết hợp hài hòa lại tạo nên hiệu ứng ánh sáng rất cuốn hút.</t>
+  </si>
+  <si>
+    <t>Trước tiên, chúng ta cần phải hiểu ánh sáng đèn led mini là gì ? Ánh sáng led là một sự phát minh của công nghệ mới. Nó cho cường độ ánh sáng cao hơn, lại tiết kiệm năng lượng hơn nhiều lần. Led có nghĩa là light emitting diode. Ngay từ cái tên đã phản ánh chính xác đặc điểm của đèn led. Năng lượng phát sáng của nó thông qua việc đốt đi - ốt, hay còn gọi là các tia tử ngoại hoặc hồng ngoại. Led có hai cấu tạo chính ghép với nhau là khối bán dẫn loại n và khố bán dẫn loại p.
+Đèn pin led là sự biến thể của đèn led. Nó cho chất lượng ánh sáng trắng tốt hơn, cường độ phát sáng cao hơn. Và đặc biệt là năng lượng tiêu thụ thấp hơn. Đây là một trong những đặc điểm quan trọng nhất cần có ở một chiếc đèn pin.</t>
+  </si>
+  <si>
+    <t>đó là sự tiện lợi, bạn vẫn sẽ có một chiếc đồng hồ luôn ở trên cổ tay để xem giờ như bình thường và khi kết nối với điện thoại còn giúp bạn luôn cập nhật được thông báo từ tin nhắn, email, cuộc gọi đến cho đến những tin nhắn trên mạng xã hội. Không lo bị bỏ lỡ những điều quan trọng trong cuộc sống, nhất là của sếp và tin nhắn của “nóc nhà” đấy. Đồng thời, thiết bị còn kiêm luôn người huấn luyện viên online 24/7, theo dõi từng bước đi, giấc ngủ cho đến các bài tập thể thao chuyên nghiệp. Ngoài ra, còn có thể xử lý thông tin thu thập và đưa ra những chỉ dẫn, lời khuyên để giúp bạn cải thiện sức khỏe qua từng ngày và còn thúc đẩy bạn tập luyện nữa đó.</t>
+  </si>
+  <si>
+    <t>Trên những con phố luôn có nhiều cá thể vì vậy bạn cần dành thời gian quan sát tổng thể nhiều hơn và nắm bắt thời cơ kịp lúc để ghi hình ảnh của những con người trên phố. Những chiếc máy ảnh polaroid sẽ nhẹ nhàng và dễ dàng tạo những bức ảnh như thế này trở thành tác phẩm tuyệt vời đó nhờ vào ống ngắm qua ống kính, khả năng chụp nhanh của tốc độ tràn chập tối ưu, bộ cảm ứng mạnh và khả năng chụp trong điều kiện thiếu sáng.</t>
+  </si>
+  <si>
+    <t>update thêm ngày 23/12/2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -342,6 +381,17 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -494,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,6 +641,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31850,7 +31915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -61901,14 +61966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -61917,7 +61982,7 @@
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="29.21875" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" customWidth="1"/>
@@ -61964,7 +62029,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26" t="s">
@@ -61973,7 +62038,9 @@
       <c r="D3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="F3" s="25" t="s">
         <v>67</v>
       </c>
@@ -61993,7 +62060,9 @@
       <c r="D4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="F4" s="25" t="s">
         <v>66</v>
       </c>
@@ -62013,7 +62082,9 @@
       <c r="D5" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>88</v>
+      </c>
       <c r="F5" s="25" t="s">
         <v>65</v>
       </c>
@@ -62024,7 +62095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
@@ -62033,7 +62104,9 @@
       <c r="D6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="26" t="s">
+        <v>89</v>
+      </c>
       <c r="F6" s="25" t="s">
         <v>64</v>
       </c>
@@ -62053,7 +62126,9 @@
       <c r="D7" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="F7" s="25" t="s">
         <v>63</v>
       </c>
@@ -62073,7 +62148,9 @@
       <c r="D8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="26" t="s">
+        <v>91</v>
+      </c>
       <c r="F8" s="25" t="s">
         <v>62</v>
       </c>
@@ -62084,7 +62161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
@@ -62093,7 +62170,9 @@
       <c r="D9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="40" t="s">
+        <v>92</v>
+      </c>
       <c r="F9" s="25" t="s">
         <v>61</v>
       </c>
@@ -62107,6 +62186,11 @@
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="41" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -62119,14 +62203,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -62135,9 +62219,10 @@
     <col min="2" max="2" width="27.109375" customWidth="1"/>
     <col min="3" max="3" width="31.109375" customWidth="1"/>
     <col min="4" max="4" width="37.5546875" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
@@ -62145,66 +62230,86 @@
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="D4" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="D6" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="E6" s="30" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -62212,17 +62317,18 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://www.randomphonenumbers.com/us_phone_number/212206-xxxx" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://www.randomphonenumbers.com/us_phone_number/212209-xxxx" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://www.randomphonenumbers.com/us_phone_number/212213-xxxx" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://www.randomphonenumbers.com/us_phone_number/212221-xxxx" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.randomphonenumbers.com/us_phone_number/212206-xxxx"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://www.randomphonenumbers.com/us_phone_number/212209-xxxx"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://www.randomphonenumbers.com/us_phone_number/212213-xxxx"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://www.randomphonenumbers.com/us_phone_number/212221-xxxx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -62312,7 +62418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -62410,7 +62516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/file/E32 - Shop.xlsx
+++ b/file/E32 - Shop.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieta\OneDrive\Desktop\tai_nguyen\new\Project_Shop\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\j2teamnnl\Project_Shop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037A321-683A-4A3D-A4DC-9E224038105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4080" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Khách hàng" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>KHÁCH HÀNG</t>
   </si>
@@ -69,9 +70,6 @@
     <t>không đăng ký cho nhân viên</t>
   </si>
   <si>
-    <t>Sản Phẩm</t>
-  </si>
-  <si>
     <t>id_producer</t>
   </si>
   <si>
@@ -88,9 +86,6 @@
   </si>
   <si>
     <t>quantity</t>
-  </si>
-  <si>
-    <t>nhà sản xuất</t>
   </si>
   <si>
     <t>CHI TIẾT HÓA ĐƠN</t>
@@ -320,11 +315,23 @@
   <si>
     <t>update thêm ngày 23/12/2021</t>
   </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Sản Phẩm(product)</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>nhà sản xuất(producer)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -544,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,9 +575,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,19 +633,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,6 +647,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31915,14 +31919,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31946,7 +31950,9 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -31994,8 +32000,12 @@
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -32024,8 +32034,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -32054,8 +32064,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -32084,8 +32094,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -32114,8 +32124,8 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -32196,12 +32206,12 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -61966,14 +61976,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -61981,7 +61991,7 @@
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.5546875" customWidth="1"/>
     <col min="3" max="3" width="29.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" customWidth="1"/>
     <col min="5" max="5" width="46.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
@@ -61990,207 +62000,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>14</v>
+      <c r="A1" s="36" t="s">
+        <v>93</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
+      <c r="D2" s="9" t="s">
+        <v>78</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>19</v>
+      <c r="H2" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="G4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>67</v>
+      <c r="E5" s="24" t="s">
+        <v>63</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>34</v>
+      <c r="F5" s="24" t="s">
+        <v>42</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>35</v>
+      <c r="G5" s="24" t="s">
+        <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="C6" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>66</v>
+      <c r="E6" s="24" t="s">
+        <v>62</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>38</v>
+      <c r="F6" s="24" t="s">
+        <v>43</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>54</v>
+      <c r="C8" s="25" t="s">
+        <v>57</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>88</v>
+      <c r="D8" s="25" t="s">
+        <v>89</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>65</v>
+      <c r="E8" s="24" t="s">
+        <v>60</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>40</v>
+      <c r="G8" s="24" t="s">
+        <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
-        <v>55</v>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24" t="s">
+        <v>48</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="26" t="s">
+      <c r="D9" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>63</v>
+      <c r="E9" s="24" t="s">
+        <v>59</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25" t="s">
+      <c r="F9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25" t="s">
+      <c r="G9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>60</v>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>30</v>
       </c>
-      <c r="E9" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="41" t="s">
-        <v>93</v>
+      <c r="E11" s="35" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -62203,14 +62215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -62223,93 +62235,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>21</v>
+      <c r="A1" s="36" t="s">
+        <v>95</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>17</v>
+      <c r="B2" s="31" t="s">
+        <v>16</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="37" t="s">
+    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="37" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -62317,10 +62329,10 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.randomphonenumbers.com/us_phone_number/212206-xxxx"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.randomphonenumbers.com/us_phone_number/212209-xxxx"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.randomphonenumbers.com/us_phone_number/212213-xxxx"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.randomphonenumbers.com/us_phone_number/212221-xxxx"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.randomphonenumbers.com/us_phone_number/212206-xxxx" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://www.randomphonenumbers.com/us_phone_number/212209-xxxx" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://www.randomphonenumbers.com/us_phone_number/212213-xxxx" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://www.randomphonenumbers.com/us_phone_number/212221-xxxx" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -62328,7 +62340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -62346,8 +62358,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E1" s="13" t="s">
-        <v>22</v>
+      <c r="E1" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -62355,61 +62367,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>25</v>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="3"/>
     </row>
   </sheetData>
@@ -62418,14 +62430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -62438,14 +62450,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>26</v>
+      <c r="A1" s="36" t="s">
+        <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -62453,19 +62465,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -62516,11 +62528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -62529,38 +62541,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>31</v>
+      <c r="A1" s="38" t="s">
+        <v>29</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/file/E32 - Shop.xlsx
+++ b/file/E32 - Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\j2teamnnl\Project_Shop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2037A321-683A-4A3D-A4DC-9E224038105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D96CFAF-5207-4304-80B6-EBC11A5F9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4080" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Khách hàng" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,13 @@
     <sheet name="Nhà sản xuất" sheetId="4" r:id="rId4"/>
     <sheet name="Chi tiết hóa đơn" sheetId="5" r:id="rId5"/>
     <sheet name="Hóa đơn" sheetId="6" r:id="rId6"/>
-    <sheet name="Admin" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
   <si>
     <t>KHÁCH HÀNG</t>
   </si>
@@ -327,12 +326,18 @@
   <si>
     <t>nhà sản xuất(producer)</t>
   </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>QUẢN LÝ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -402,6 +407,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -417,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -465,73 +477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -551,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,19 +541,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -652,14 +585,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -31925,8 +31852,8 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32206,12 +32133,12 @@
       <c r="AB8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -32418,8 +32345,12 @@
       <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>2</v>
+      </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -32448,8 +32379,12 @@
       <c r="AB16" s="7"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="34">
+        <v>1</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -32478,8 +32413,12 @@
       <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="34">
+        <v>2</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>97</v>
+      </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -32508,8 +32447,12 @@
       <c r="AB18" s="7"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="34">
+        <v>3</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -32538,8 +32481,8 @@
       <c r="AB19" s="7"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -61972,6 +61915,7 @@
     <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -61982,7 +61926,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -62000,17 +61944,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -62031,177 +61975,177 @@
       <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="24"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="31" t="s">
         <v>91</v>
       </c>
     </row>
@@ -62235,92 +62179,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="25" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>83</v>
       </c>
     </row>
@@ -62450,14 +62394,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -62525,60 +62469,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>